--- a/database/industries/siman/saroum/product/monthly.xlsx
+++ b/database/industries/siman/saroum/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\saroum\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\saroum\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC0C8533-DA93-46C0-B80A-0A92B472E4EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76766451-78B9-43C2-BAD9-B44B3656C5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3808" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3806" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>کلینکر</t>
@@ -1510,21 +1510,21 @@
       <c r="U11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W11" s="11" t="s">
-        <v>57</v>
+      <c r="V11" s="11">
+        <v>90828</v>
+      </c>
+      <c r="W11" s="11">
+        <v>192805</v>
       </c>
       <c r="X11" s="11">
-        <v>90828</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>192805</v>
-      </c>
-      <c r="Z11" s="11">
         <v>189208</v>
       </c>
+      <c r="Y11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1582,32 +1582,32 @@
       <c r="AS11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU11" s="11" t="s">
-        <v>57</v>
+      <c r="AT11" s="11">
+        <v>191198</v>
+      </c>
+      <c r="AU11" s="11">
+        <v>174439</v>
       </c>
       <c r="AV11" s="11">
-        <v>191198</v>
+        <v>159986</v>
       </c>
       <c r="AW11" s="11">
-        <v>174439</v>
+        <v>85393</v>
       </c>
       <c r="AX11" s="11">
-        <v>159986</v>
+        <v>57318</v>
       </c>
       <c r="AY11" s="11">
-        <v>85393</v>
+        <v>127355</v>
       </c>
       <c r="AZ11" s="11">
-        <v>57318</v>
+        <v>166320</v>
       </c>
       <c r="BA11" s="11">
-        <v>127355</v>
+        <v>129812</v>
       </c>
       <c r="BB11" s="11">
-        <v>166320</v>
+        <v>186785</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1669,20 +1669,20 @@
       <c r="U12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>57</v>
+      <c r="V12" s="13">
+        <v>127821</v>
+      </c>
+      <c r="W12" s="13">
+        <v>209940</v>
       </c>
       <c r="X12" s="13">
-        <v>127821</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>209940</v>
-      </c>
-      <c r="Z12" s="13">
         <v>205347</v>
+      </c>
+      <c r="Y12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA12" s="13" t="s">
         <v>57</v>
@@ -1801,20 +1801,20 @@
       <c r="L13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="11" t="s">
-        <v>57</v>
+      <c r="M13" s="11">
+        <v>0</v>
+      </c>
+      <c r="N13" s="11">
+        <v>4369</v>
       </c>
       <c r="O13" s="11">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="P13" s="11">
-        <v>4369</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="11">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R13" s="11">
         <v>0</v>
@@ -1826,85 +1826,85 @@
         <v>0</v>
       </c>
       <c r="U13" s="11">
-        <v>0</v>
-      </c>
-      <c r="V13" s="11">
-        <v>0</v>
-      </c>
-      <c r="W13" s="11">
         <v>1334</v>
       </c>
+      <c r="V13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W13" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>57</v>
+      <c r="Y13" s="11">
+        <v>23</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>0</v>
       </c>
       <c r="AA13" s="11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="11">
         <v>0</v>
       </c>
       <c r="AC13" s="11">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="AD13" s="11">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="AE13" s="11">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="11">
-        <v>1114</v>
+        <v>76</v>
       </c>
       <c r="AG13" s="11">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="AH13" s="11">
-        <v>76</v>
+        <v>7625</v>
       </c>
       <c r="AI13" s="11">
-        <v>499</v>
+        <v>8087</v>
       </c>
       <c r="AJ13" s="11">
-        <v>7625</v>
+        <v>8969</v>
       </c>
       <c r="AK13" s="11">
-        <v>8087</v>
+        <v>6806</v>
       </c>
       <c r="AL13" s="11">
-        <v>8969</v>
+        <v>2942</v>
       </c>
       <c r="AM13" s="11">
-        <v>6806</v>
+        <v>6875</v>
       </c>
       <c r="AN13" s="11">
-        <v>2942</v>
+        <v>1005</v>
       </c>
       <c r="AO13" s="11">
-        <v>6875</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>1005</v>
+        <v>3756</v>
+      </c>
+      <c r="AP13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ13" s="11">
-        <v>3756</v>
-      </c>
-      <c r="AR13" s="11" t="s">
-        <v>57</v>
+        <v>25</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>3362</v>
       </c>
       <c r="AS13" s="11">
-        <v>25</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>3362</v>
-      </c>
-      <c r="AU13" s="11">
         <v>13890</v>
+      </c>
+      <c r="AT13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV13" s="11" t="s">
         <v>57</v>
@@ -1937,25 +1937,25 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>44654</v>
+        <v>29853</v>
       </c>
       <c r="F14" s="13">
-        <v>34592</v>
+        <v>31429</v>
       </c>
       <c r="G14" s="13">
-        <v>29853</v>
+        <v>9229</v>
       </c>
       <c r="H14" s="13">
-        <v>31429</v>
+        <v>17085</v>
       </c>
       <c r="I14" s="13">
-        <v>9229</v>
-      </c>
-      <c r="J14" s="13">
-        <v>17085</v>
-      </c>
-      <c r="K14" s="13">
         <v>37510</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L14" s="13" t="s">
         <v>57</v>
@@ -2096,26 +2096,26 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>22141</v>
+        <v>9468</v>
       </c>
       <c r="F15" s="11">
-        <v>26950</v>
+        <v>8792</v>
       </c>
       <c r="G15" s="11">
-        <v>9468</v>
+        <v>4385</v>
       </c>
       <c r="H15" s="11">
-        <v>8792</v>
+        <v>2817</v>
       </c>
       <c r="I15" s="11">
-        <v>4385</v>
-      </c>
-      <c r="J15" s="11">
-        <v>2817</v>
-      </c>
-      <c r="K15" s="11">
         <v>4774</v>
       </c>
+      <c r="J15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L15" s="11" t="s">
         <v>57</v>
       </c>
@@ -2218,23 +2218,23 @@
       <c r="AS15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU15" s="11" t="s">
-        <v>57</v>
+      <c r="AT15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>1007</v>
       </c>
       <c r="AV15" s="11">
-        <v>0</v>
+        <v>4627</v>
       </c>
       <c r="AW15" s="11">
-        <v>1007</v>
+        <v>593</v>
       </c>
       <c r="AX15" s="11">
-        <v>4627</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="11">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="AZ15" s="11">
         <v>0</v>
@@ -2255,25 +2255,25 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>11202</v>
+        <v>9837</v>
       </c>
       <c r="F16" s="13">
-        <v>11635</v>
+        <v>5232</v>
       </c>
       <c r="G16" s="13">
-        <v>9837</v>
+        <v>3258</v>
       </c>
       <c r="H16" s="13">
-        <v>5232</v>
+        <v>8681</v>
       </c>
       <c r="I16" s="13">
-        <v>3258</v>
-      </c>
-      <c r="J16" s="13">
-        <v>8681</v>
-      </c>
-      <c r="K16" s="13">
         <v>21019</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L16" s="13" t="s">
         <v>57</v>
@@ -2414,7 +2414,7 @@
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11">
-        <v>726</v>
+        <v>0</v>
       </c>
       <c r="F17" s="11">
         <v>0</v>
@@ -2428,11 +2428,11 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-      <c r="J17" s="11">
-        <v>0</v>
-      </c>
-      <c r="K17" s="11">
-        <v>0</v>
+      <c r="J17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L17" s="11" t="s">
         <v>57</v>
@@ -2539,20 +2539,20 @@
       <c r="AT17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV17" s="11" t="s">
-        <v>57</v>
+      <c r="AU17" s="11">
+        <v>128</v>
+      </c>
+      <c r="AV17" s="11">
+        <v>883</v>
       </c>
       <c r="AW17" s="11">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="AX17" s="11">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="11">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="AZ17" s="11">
         <v>0</v>
@@ -2587,119 +2587,119 @@
       <c r="I18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="13" t="s">
-        <v>57</v>
+      <c r="J18" s="13">
+        <v>2459</v>
+      </c>
+      <c r="K18" s="13">
+        <v>3358</v>
       </c>
       <c r="L18" s="13">
-        <v>2459</v>
+        <v>0</v>
       </c>
       <c r="M18" s="13">
-        <v>3358</v>
+        <v>10904</v>
       </c>
       <c r="N18" s="13">
-        <v>0</v>
+        <v>12027</v>
       </c>
       <c r="O18" s="13">
-        <v>10904</v>
+        <v>5254</v>
       </c>
       <c r="P18" s="13">
-        <v>12027</v>
+        <v>5139</v>
       </c>
       <c r="Q18" s="13">
-        <v>5254</v>
+        <v>5663</v>
       </c>
       <c r="R18" s="13">
-        <v>5139</v>
+        <v>2298</v>
       </c>
       <c r="S18" s="13">
-        <v>5663</v>
+        <v>246</v>
       </c>
       <c r="T18" s="13">
-        <v>2298</v>
+        <v>1085</v>
       </c>
       <c r="U18" s="13">
-        <v>246</v>
-      </c>
-      <c r="V18" s="13">
-        <v>1085</v>
-      </c>
-      <c r="W18" s="13">
         <v>3378</v>
       </c>
+      <c r="V18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z18" s="13" t="s">
-        <v>57</v>
+      <c r="Y18" s="13">
+        <v>12327</v>
+      </c>
+      <c r="Z18" s="13">
+        <v>12761</v>
       </c>
       <c r="AA18" s="13">
-        <v>12327</v>
+        <v>12866</v>
       </c>
       <c r="AB18" s="13">
-        <v>12761</v>
+        <v>4097</v>
       </c>
       <c r="AC18" s="13">
-        <v>12866</v>
+        <v>3333</v>
       </c>
       <c r="AD18" s="13">
-        <v>4097</v>
+        <v>7252</v>
       </c>
       <c r="AE18" s="13">
-        <v>3333</v>
+        <v>2341</v>
       </c>
       <c r="AF18" s="13">
-        <v>7252</v>
+        <v>8054</v>
       </c>
       <c r="AG18" s="13">
-        <v>2341</v>
+        <v>2870</v>
       </c>
       <c r="AH18" s="13">
-        <v>8054</v>
+        <v>6548</v>
       </c>
       <c r="AI18" s="13">
-        <v>2870</v>
+        <v>3587</v>
       </c>
       <c r="AJ18" s="13">
-        <v>6548</v>
+        <v>2017</v>
       </c>
       <c r="AK18" s="13">
-        <v>3587</v>
+        <v>2718</v>
       </c>
       <c r="AL18" s="13">
-        <v>2017</v>
+        <v>5108</v>
       </c>
       <c r="AM18" s="13">
-        <v>2718</v>
+        <v>7618</v>
       </c>
       <c r="AN18" s="13">
-        <v>5108</v>
+        <v>3727</v>
       </c>
       <c r="AO18" s="13">
-        <v>7618</v>
-      </c>
-      <c r="AP18" s="13">
-        <v>3727</v>
+        <v>2759</v>
+      </c>
+      <c r="AP18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ18" s="13">
-        <v>2759</v>
-      </c>
-      <c r="AR18" s="13" t="s">
-        <v>57</v>
+        <v>419</v>
+      </c>
+      <c r="AR18" s="13">
+        <v>322</v>
       </c>
       <c r="AS18" s="13">
-        <v>419</v>
-      </c>
-      <c r="AT18" s="13">
-        <v>322</v>
-      </c>
-      <c r="AU18" s="13">
         <v>1859</v>
+      </c>
+      <c r="AT18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV18" s="13" t="s">
         <v>57</v>
@@ -2746,119 +2746,119 @@
       <c r="I19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K19" s="11" t="s">
-        <v>57</v>
+      <c r="J19" s="11">
+        <v>99661</v>
+      </c>
+      <c r="K19" s="11">
+        <v>122352</v>
       </c>
       <c r="L19" s="11">
-        <v>99661</v>
+        <v>141225</v>
       </c>
       <c r="M19" s="11">
-        <v>122352</v>
+        <v>108965</v>
       </c>
       <c r="N19" s="11">
-        <v>141225</v>
+        <v>125830</v>
       </c>
       <c r="O19" s="11">
-        <v>108965</v>
+        <v>145024</v>
       </c>
       <c r="P19" s="11">
-        <v>125830</v>
+        <v>139351</v>
       </c>
       <c r="Q19" s="11">
-        <v>145024</v>
+        <v>114281</v>
       </c>
       <c r="R19" s="11">
-        <v>139351</v>
+        <v>64182</v>
       </c>
       <c r="S19" s="11">
-        <v>114281</v>
+        <v>36648</v>
       </c>
       <c r="T19" s="11">
-        <v>64182</v>
+        <v>11680</v>
       </c>
       <c r="U19" s="11">
-        <v>36648</v>
-      </c>
-      <c r="V19" s="11">
-        <v>11680</v>
-      </c>
-      <c r="W19" s="11">
         <v>122536</v>
       </c>
+      <c r="V19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W19" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z19" s="11" t="s">
-        <v>57</v>
+      <c r="Y19" s="11">
+        <v>195601</v>
+      </c>
+      <c r="Z19" s="11">
+        <v>193773</v>
       </c>
       <c r="AA19" s="11">
-        <v>195601</v>
+        <v>148809</v>
       </c>
       <c r="AB19" s="11">
-        <v>193773</v>
+        <v>146814</v>
       </c>
       <c r="AC19" s="11">
-        <v>148809</v>
+        <v>169675</v>
       </c>
       <c r="AD19" s="11">
-        <v>146814</v>
+        <v>90887</v>
       </c>
       <c r="AE19" s="11">
-        <v>169675</v>
+        <v>49019</v>
       </c>
       <c r="AF19" s="11">
-        <v>90887</v>
+        <v>102391</v>
       </c>
       <c r="AG19" s="11">
-        <v>49019</v>
+        <v>115014</v>
       </c>
       <c r="AH19" s="11">
-        <v>102391</v>
+        <v>144227</v>
       </c>
       <c r="AI19" s="11">
-        <v>115014</v>
+        <v>170739</v>
       </c>
       <c r="AJ19" s="11">
-        <v>144227</v>
+        <v>162686</v>
       </c>
       <c r="AK19" s="11">
-        <v>170739</v>
+        <v>159511</v>
       </c>
       <c r="AL19" s="11">
-        <v>162686</v>
+        <v>133373</v>
       </c>
       <c r="AM19" s="11">
-        <v>159511</v>
+        <v>168429</v>
       </c>
       <c r="AN19" s="11">
-        <v>133373</v>
+        <v>159450</v>
       </c>
       <c r="AO19" s="11">
-        <v>168429</v>
-      </c>
-      <c r="AP19" s="11">
-        <v>159450</v>
+        <v>133042</v>
+      </c>
+      <c r="AP19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ19" s="11">
-        <v>133042</v>
-      </c>
-      <c r="AR19" s="11" t="s">
-        <v>57</v>
+        <v>14108</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>40261</v>
       </c>
       <c r="AS19" s="11">
-        <v>14108</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>40261</v>
-      </c>
-      <c r="AU19" s="11">
         <v>141110</v>
+      </c>
+      <c r="AT19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV19" s="11" t="s">
         <v>57</v>
@@ -2914,110 +2914,110 @@
       <c r="L20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N20" s="13" t="s">
-        <v>57</v>
+      <c r="M20" s="13">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <v>7910</v>
       </c>
       <c r="O20" s="13">
-        <v>0</v>
+        <v>96867</v>
       </c>
       <c r="P20" s="13">
-        <v>7910</v>
+        <v>152705</v>
       </c>
       <c r="Q20" s="13">
-        <v>96867</v>
+        <v>174331</v>
       </c>
       <c r="R20" s="13">
-        <v>152705</v>
+        <v>91557</v>
       </c>
       <c r="S20" s="13">
-        <v>174331</v>
+        <v>0</v>
       </c>
       <c r="T20" s="13">
-        <v>91557</v>
+        <v>78414</v>
       </c>
       <c r="U20" s="13">
-        <v>0</v>
-      </c>
-      <c r="V20" s="13">
-        <v>78414</v>
-      </c>
-      <c r="W20" s="13">
         <v>107129</v>
       </c>
+      <c r="V20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W20" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z20" s="13" t="s">
-        <v>57</v>
+      <c r="Y20" s="13">
+        <v>102013</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>120681</v>
       </c>
       <c r="AA20" s="13">
-        <v>102013</v>
+        <v>133927</v>
       </c>
       <c r="AB20" s="13">
-        <v>120681</v>
+        <v>161699</v>
       </c>
       <c r="AC20" s="13">
-        <v>133927</v>
+        <v>173974</v>
       </c>
       <c r="AD20" s="13">
-        <v>161699</v>
+        <v>124332</v>
       </c>
       <c r="AE20" s="13">
-        <v>173974</v>
+        <v>121700</v>
       </c>
       <c r="AF20" s="13">
-        <v>124332</v>
+        <v>99071</v>
       </c>
       <c r="AG20" s="13">
-        <v>121700</v>
+        <v>184574</v>
       </c>
       <c r="AH20" s="13">
-        <v>99071</v>
+        <v>181446</v>
       </c>
       <c r="AI20" s="13">
-        <v>184574</v>
+        <v>143437</v>
       </c>
       <c r="AJ20" s="13">
-        <v>181446</v>
+        <v>123720</v>
       </c>
       <c r="AK20" s="13">
-        <v>143437</v>
+        <v>123775</v>
       </c>
       <c r="AL20" s="13">
-        <v>123720</v>
+        <v>188126</v>
       </c>
       <c r="AM20" s="13">
-        <v>123775</v>
+        <v>121643</v>
       </c>
       <c r="AN20" s="13">
-        <v>188126</v>
+        <v>172918</v>
       </c>
       <c r="AO20" s="13">
-        <v>121643</v>
-      </c>
-      <c r="AP20" s="13">
-        <v>172918</v>
+        <v>145867</v>
+      </c>
+      <c r="AP20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ20" s="13">
-        <v>145867</v>
-      </c>
-      <c r="AR20" s="13" t="s">
-        <v>57</v>
+        <v>93514</v>
+      </c>
+      <c r="AR20" s="13">
+        <v>72101</v>
       </c>
       <c r="AS20" s="13">
-        <v>93514</v>
-      </c>
-      <c r="AT20" s="13">
-        <v>72101</v>
-      </c>
-      <c r="AU20" s="13">
         <v>78311</v>
+      </c>
+      <c r="AT20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV20" s="13" t="s">
         <v>57</v>
@@ -3172,32 +3172,32 @@
       <c r="AS21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU21" s="11" t="s">
-        <v>57</v>
+      <c r="AT21" s="11">
+        <v>28834</v>
+      </c>
+      <c r="AU21" s="11">
+        <v>6614</v>
       </c>
       <c r="AV21" s="11">
-        <v>28834</v>
+        <v>33797</v>
       </c>
       <c r="AW21" s="11">
-        <v>6614</v>
+        <v>80643</v>
       </c>
       <c r="AX21" s="11">
-        <v>33797</v>
+        <v>42931</v>
       </c>
       <c r="AY21" s="11">
-        <v>80643</v>
+        <v>72813</v>
       </c>
       <c r="AZ21" s="11">
-        <v>42931</v>
+        <v>61805</v>
       </c>
       <c r="BA21" s="11">
-        <v>72813</v>
+        <v>47222</v>
       </c>
       <c r="BB21" s="11">
-        <v>61805</v>
+        <v>39493</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3331,32 +3331,32 @@
       <c r="AS22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU22" s="13" t="s">
-        <v>57</v>
+      <c r="AT22" s="13">
+        <v>52792</v>
+      </c>
+      <c r="AU22" s="13">
+        <v>34839</v>
       </c>
       <c r="AV22" s="13">
-        <v>52792</v>
+        <v>52453</v>
       </c>
       <c r="AW22" s="13">
-        <v>34839</v>
+        <v>55384</v>
       </c>
       <c r="AX22" s="13">
-        <v>52453</v>
+        <v>51863</v>
       </c>
       <c r="AY22" s="13">
-        <v>55384</v>
+        <v>67141</v>
       </c>
       <c r="AZ22" s="13">
-        <v>51863</v>
+        <v>53215</v>
       </c>
       <c r="BA22" s="13">
-        <v>67141</v>
+        <v>49701</v>
       </c>
       <c r="BB22" s="13">
-        <v>53215</v>
+        <v>33553</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3368,7 +3368,7 @@
       </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11">
-        <v>6890</v>
+        <v>0</v>
       </c>
       <c r="F23" s="11">
         <v>0</v>
@@ -3382,11 +3382,11 @@
       <c r="I23" s="11">
         <v>0</v>
       </c>
-      <c r="J23" s="11">
-        <v>0</v>
-      </c>
-      <c r="K23" s="11">
-        <v>0</v>
+      <c r="J23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>57</v>
@@ -3527,25 +3527,25 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>17362</v>
+        <v>5137</v>
       </c>
       <c r="F24" s="13">
-        <v>14635</v>
+        <v>1324</v>
       </c>
       <c r="G24" s="13">
-        <v>5137</v>
+        <v>5720</v>
       </c>
       <c r="H24" s="13">
-        <v>1324</v>
+        <v>7494</v>
       </c>
       <c r="I24" s="13">
-        <v>5720</v>
-      </c>
-      <c r="J24" s="13">
-        <v>7494</v>
-      </c>
-      <c r="K24" s="13">
         <v>29394</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L24" s="13" t="s">
         <v>57</v>
@@ -3686,25 +3686,25 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>33570</v>
+        <v>13533</v>
       </c>
       <c r="F25" s="11">
-        <v>36313</v>
+        <v>2570</v>
       </c>
       <c r="G25" s="11">
-        <v>13533</v>
+        <v>1142</v>
       </c>
       <c r="H25" s="11">
-        <v>2570</v>
+        <v>3396</v>
       </c>
       <c r="I25" s="11">
-        <v>1142</v>
-      </c>
-      <c r="J25" s="11">
-        <v>3396</v>
-      </c>
-      <c r="K25" s="11">
         <v>4921</v>
+      </c>
+      <c r="J25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L25" s="11" t="s">
         <v>57</v>
@@ -3845,10 +3845,10 @@
       </c>
       <c r="D26" s="13"/>
       <c r="E26" s="13">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="F26" s="13">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="G26" s="13">
         <v>0</v>
@@ -3859,11 +3859,11 @@
       <c r="I26" s="13">
         <v>0</v>
       </c>
-      <c r="J26" s="13">
-        <v>0</v>
-      </c>
-      <c r="K26" s="13">
-        <v>0</v>
+      <c r="J26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L26" s="13" t="s">
         <v>57</v>
@@ -4004,13 +4004,13 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>0</v>
+        <v>4567</v>
       </c>
       <c r="F27" s="11">
-        <v>3336</v>
+        <v>0</v>
       </c>
       <c r="G27" s="11">
-        <v>4567</v>
+        <v>0</v>
       </c>
       <c r="H27" s="11">
         <v>0</v>
@@ -4018,11 +4018,11 @@
       <c r="I27" s="11">
         <v>0</v>
       </c>
-      <c r="J27" s="11">
-        <v>0</v>
-      </c>
-      <c r="K27" s="11">
-        <v>0</v>
+      <c r="J27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L27" s="11" t="s">
         <v>57</v>
@@ -4126,23 +4126,23 @@
       <c r="AS27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU27" s="11" t="s">
-        <v>57</v>
+      <c r="AT27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="11">
+        <v>1011</v>
       </c>
       <c r="AV27" s="11">
-        <v>0</v>
+        <v>1753</v>
       </c>
       <c r="AW27" s="11">
-        <v>1011</v>
+        <v>180</v>
       </c>
       <c r="AX27" s="11">
-        <v>1753</v>
+        <v>0</v>
       </c>
       <c r="AY27" s="11">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AZ27" s="11">
         <v>0</v>
@@ -4163,26 +4163,26 @@
       </c>
       <c r="D28" s="13"/>
       <c r="E28" s="13">
-        <v>16451</v>
+        <v>0</v>
       </c>
       <c r="F28" s="13">
-        <v>0</v>
+        <v>4329</v>
       </c>
       <c r="G28" s="13">
         <v>0</v>
       </c>
       <c r="H28" s="13">
-        <v>4329</v>
+        <v>3253</v>
       </c>
       <c r="I28" s="13">
-        <v>0</v>
-      </c>
-      <c r="J28" s="13">
-        <v>3253</v>
-      </c>
-      <c r="K28" s="13">
         <v>6138</v>
       </c>
+      <c r="J28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="L28" s="13" t="s">
         <v>57</v>
       </c>
@@ -4285,32 +4285,32 @@
       <c r="AS28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU28" s="13" t="s">
-        <v>57</v>
+      <c r="AT28" s="13">
+        <v>33062</v>
+      </c>
+      <c r="AU28" s="13">
+        <v>30286</v>
       </c>
       <c r="AV28" s="13">
-        <v>33062</v>
+        <v>41291</v>
       </c>
       <c r="AW28" s="13">
-        <v>30286</v>
+        <v>9926</v>
       </c>
       <c r="AX28" s="13">
-        <v>41291</v>
+        <v>9670</v>
       </c>
       <c r="AY28" s="13">
-        <v>9926</v>
+        <v>2836</v>
       </c>
       <c r="AZ28" s="13">
-        <v>9670</v>
+        <v>12622</v>
       </c>
       <c r="BA28" s="13">
-        <v>2836</v>
+        <v>21035</v>
       </c>
       <c r="BB28" s="13">
-        <v>12622</v>
+        <v>24850</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -4322,26 +4322,26 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>2906</v>
+        <v>3238</v>
       </c>
       <c r="F29" s="11">
-        <v>3831</v>
+        <v>646</v>
       </c>
       <c r="G29" s="11">
-        <v>3238</v>
+        <v>1509</v>
       </c>
       <c r="H29" s="11">
-        <v>646</v>
+        <v>4884</v>
       </c>
       <c r="I29" s="11">
-        <v>1509</v>
-      </c>
-      <c r="J29" s="11">
-        <v>4884</v>
-      </c>
-      <c r="K29" s="11">
         <v>8396</v>
       </c>
+      <c r="J29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L29" s="11" t="s">
         <v>57</v>
       </c>
@@ -4444,32 +4444,32 @@
       <c r="AS29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU29" s="11" t="s">
-        <v>57</v>
+      <c r="AT29" s="11">
+        <v>23230</v>
+      </c>
+      <c r="AU29" s="11">
+        <v>43566</v>
       </c>
       <c r="AV29" s="11">
-        <v>23230</v>
+        <v>39514</v>
       </c>
       <c r="AW29" s="11">
-        <v>43566</v>
+        <v>7850</v>
       </c>
       <c r="AX29" s="11">
-        <v>39514</v>
+        <v>4143</v>
       </c>
       <c r="AY29" s="11">
-        <v>7850</v>
+        <v>4481</v>
       </c>
       <c r="AZ29" s="11">
-        <v>4143</v>
+        <v>5194</v>
       </c>
       <c r="BA29" s="11">
-        <v>4481</v>
+        <v>8722</v>
       </c>
       <c r="BB29" s="11">
-        <v>5194</v>
+        <v>6259</v>
       </c>
     </row>
     <row r="30" spans="2:54" x14ac:dyDescent="0.3">
@@ -4603,32 +4603,32 @@
       <c r="AS30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU30" s="13" t="s">
-        <v>57</v>
+      <c r="AT30" s="13">
+        <v>24302</v>
+      </c>
+      <c r="AU30" s="13">
+        <v>6842</v>
       </c>
       <c r="AV30" s="13">
-        <v>24302</v>
+        <v>6493</v>
       </c>
       <c r="AW30" s="13">
-        <v>6842</v>
+        <v>4962</v>
       </c>
       <c r="AX30" s="13">
-        <v>6493</v>
+        <v>3811</v>
       </c>
       <c r="AY30" s="13">
-        <v>4962</v>
+        <v>9312</v>
       </c>
       <c r="AZ30" s="13">
-        <v>3811</v>
+        <v>10988</v>
       </c>
       <c r="BA30" s="13">
-        <v>9312</v>
+        <v>11569</v>
       </c>
       <c r="BB30" s="13">
-        <v>10988</v>
+        <v>3546</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -4762,14 +4762,14 @@
       <c r="AS31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU31" s="11" t="s">
-        <v>57</v>
+      <c r="AT31" s="11">
+        <v>3041</v>
+      </c>
+      <c r="AU31" s="11">
+        <v>0</v>
       </c>
       <c r="AV31" s="11">
-        <v>3041</v>
+        <v>0</v>
       </c>
       <c r="AW31" s="11">
         <v>0</v>
@@ -4921,11 +4921,11 @@
       <c r="AS32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU32" s="13" t="s">
-        <v>57</v>
+      <c r="AT32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="13">
+        <v>0</v>
       </c>
       <c r="AV32" s="13">
         <v>0</v>
@@ -5072,11 +5072,11 @@
       <c r="X34" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y34" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z34" s="17" t="s">
-        <v>57</v>
+      <c r="Y34" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="17">
+        <v>0</v>
       </c>
       <c r="AA34" s="17">
         <v>0</v>
@@ -5170,154 +5170,154 @@
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19">
-        <v>156453</v>
+        <v>75633</v>
       </c>
       <c r="F35" s="19">
-        <v>131717</v>
+        <v>54322</v>
       </c>
       <c r="G35" s="19">
-        <v>75633</v>
+        <v>25243</v>
       </c>
       <c r="H35" s="19">
-        <v>54322</v>
+        <v>47610</v>
       </c>
       <c r="I35" s="19">
-        <v>25243</v>
+        <v>112152</v>
       </c>
       <c r="J35" s="19">
-        <v>47610</v>
+        <v>102120</v>
       </c>
       <c r="K35" s="19">
-        <v>112152</v>
+        <v>125710</v>
       </c>
       <c r="L35" s="19">
-        <v>102120</v>
+        <v>141225</v>
       </c>
       <c r="M35" s="19">
-        <v>125710</v>
+        <v>119869</v>
       </c>
       <c r="N35" s="19">
-        <v>141225</v>
+        <v>150136</v>
       </c>
       <c r="O35" s="19">
-        <v>119869</v>
+        <v>247198</v>
       </c>
       <c r="P35" s="19">
-        <v>150136</v>
+        <v>297195</v>
       </c>
       <c r="Q35" s="19">
-        <v>247198</v>
+        <v>294275</v>
       </c>
       <c r="R35" s="19">
-        <v>297195</v>
+        <v>158037</v>
       </c>
       <c r="S35" s="19">
-        <v>294275</v>
+        <v>36894</v>
       </c>
       <c r="T35" s="19">
-        <v>158037</v>
+        <v>91179</v>
       </c>
       <c r="U35" s="19">
-        <v>36894</v>
+        <v>234377</v>
       </c>
       <c r="V35" s="19">
-        <v>91179</v>
+        <v>218649</v>
       </c>
       <c r="W35" s="19">
-        <v>234377</v>
+        <v>402745</v>
       </c>
       <c r="X35" s="19">
-        <v>218649</v>
+        <v>394555</v>
       </c>
       <c r="Y35" s="19">
-        <v>402745</v>
+        <v>309964</v>
       </c>
       <c r="Z35" s="19">
-        <v>394555</v>
+        <v>327215</v>
       </c>
       <c r="AA35" s="19">
-        <v>309964</v>
+        <v>295602</v>
       </c>
       <c r="AB35" s="19">
-        <v>327215</v>
+        <v>312610</v>
       </c>
       <c r="AC35" s="19">
-        <v>295602</v>
+        <v>347390</v>
       </c>
       <c r="AD35" s="19">
-        <v>312610</v>
+        <v>223585</v>
       </c>
       <c r="AE35" s="19">
-        <v>347390</v>
+        <v>173060</v>
       </c>
       <c r="AF35" s="19">
-        <v>223585</v>
+        <v>209592</v>
       </c>
       <c r="AG35" s="19">
-        <v>173060</v>
+        <v>302957</v>
       </c>
       <c r="AH35" s="19">
-        <v>209592</v>
+        <v>339846</v>
       </c>
       <c r="AI35" s="19">
-        <v>302957</v>
+        <v>325850</v>
       </c>
       <c r="AJ35" s="19">
-        <v>339846</v>
+        <v>297392</v>
       </c>
       <c r="AK35" s="19">
-        <v>325850</v>
+        <v>292810</v>
       </c>
       <c r="AL35" s="19">
-        <v>297392</v>
+        <v>329549</v>
       </c>
       <c r="AM35" s="19">
-        <v>292810</v>
+        <v>304565</v>
       </c>
       <c r="AN35" s="19">
-        <v>329549</v>
+        <v>337100</v>
       </c>
       <c r="AO35" s="19">
-        <v>304565</v>
+        <v>285424</v>
       </c>
       <c r="AP35" s="19">
-        <v>337100</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="19">
-        <v>285424</v>
+        <v>108066</v>
       </c>
       <c r="AR35" s="19">
-        <v>0</v>
+        <v>116046</v>
       </c>
       <c r="AS35" s="19">
-        <v>108066</v>
+        <v>235170</v>
       </c>
       <c r="AT35" s="19">
-        <v>116046</v>
+        <v>356459</v>
       </c>
       <c r="AU35" s="19">
-        <v>235170</v>
+        <v>298732</v>
       </c>
       <c r="AV35" s="19">
-        <v>356459</v>
+        <v>340797</v>
       </c>
       <c r="AW35" s="19">
-        <v>298732</v>
+        <v>245226</v>
       </c>
       <c r="AX35" s="19">
-        <v>340797</v>
+        <v>169736</v>
       </c>
       <c r="AY35" s="19">
-        <v>245226</v>
+        <v>283938</v>
       </c>
       <c r="AZ35" s="19">
-        <v>169736</v>
+        <v>310144</v>
       </c>
       <c r="BA35" s="19">
-        <v>283938</v>
+        <v>268061</v>
       </c>
       <c r="BB35" s="19">
-        <v>310144</v>
+        <v>294486</v>
       </c>
     </row>
     <row r="36" spans="2:54" x14ac:dyDescent="0.3">
@@ -5813,21 +5813,21 @@
       <c r="U42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V42" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W42" s="11" t="s">
-        <v>57</v>
+      <c r="V42" s="11">
+        <v>4473</v>
+      </c>
+      <c r="W42" s="11">
+        <v>1344</v>
       </c>
       <c r="X42" s="11">
-        <v>4473</v>
-      </c>
-      <c r="Y42" s="11">
-        <v>1344</v>
-      </c>
-      <c r="Z42" s="11">
         <v>3238</v>
       </c>
+      <c r="Y42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z42" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA42" s="11" t="s">
         <v>57</v>
       </c>
@@ -5885,32 +5885,32 @@
       <c r="AS42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT42" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU42" s="11" t="s">
-        <v>57</v>
+      <c r="AT42" s="11">
+        <v>13829</v>
+      </c>
+      <c r="AU42" s="11">
+        <v>3209</v>
       </c>
       <c r="AV42" s="11">
-        <v>13829</v>
+        <v>2979</v>
       </c>
       <c r="AW42" s="11">
-        <v>3209</v>
+        <v>504</v>
       </c>
       <c r="AX42" s="11">
-        <v>2979</v>
+        <v>6526</v>
       </c>
       <c r="AY42" s="11">
-        <v>504</v>
+        <v>3378</v>
       </c>
       <c r="AZ42" s="11">
-        <v>6526</v>
+        <v>1376</v>
       </c>
       <c r="BA42" s="11">
-        <v>3378</v>
+        <v>12067</v>
       </c>
       <c r="BB42" s="11">
-        <v>1376</v>
+        <v>20173</v>
       </c>
     </row>
     <row r="43" spans="2:54" x14ac:dyDescent="0.3">
@@ -5972,20 +5972,20 @@
       <c r="U43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V43" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W43" s="13" t="s">
-        <v>57</v>
+      <c r="V43" s="13">
+        <v>129771</v>
+      </c>
+      <c r="W43" s="13">
+        <v>205441</v>
       </c>
       <c r="X43" s="13">
-        <v>129771</v>
-      </c>
-      <c r="Y43" s="13">
-        <v>205441</v>
-      </c>
-      <c r="Z43" s="13">
         <v>214913</v>
+      </c>
+      <c r="Y43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z43" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA43" s="13" t="s">
         <v>57</v>
@@ -6104,20 +6104,20 @@
       <c r="L44" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N44" s="11" t="s">
-        <v>57</v>
+      <c r="M44" s="11">
+        <v>6640</v>
+      </c>
+      <c r="N44" s="11">
+        <v>4369</v>
       </c>
       <c r="O44" s="11">
-        <v>6640</v>
+        <v>53</v>
       </c>
       <c r="P44" s="11">
-        <v>4369</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="11">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="R44" s="11">
         <v>0</v>
@@ -6129,85 +6129,85 @@
         <v>0</v>
       </c>
       <c r="U44" s="11">
-        <v>0</v>
-      </c>
-      <c r="V44" s="11">
-        <v>0</v>
-      </c>
-      <c r="W44" s="11">
         <v>1334</v>
       </c>
+      <c r="V44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W44" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X44" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z44" s="11" t="s">
-        <v>57</v>
+      <c r="Y44" s="11">
+        <v>23</v>
+      </c>
+      <c r="Z44" s="11">
+        <v>0</v>
       </c>
       <c r="AA44" s="11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AB44" s="11">
         <v>0</v>
       </c>
       <c r="AC44" s="11">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="AD44" s="11">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="AE44" s="11">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="AF44" s="11">
-        <v>1114</v>
+        <v>76</v>
       </c>
       <c r="AG44" s="11">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="AH44" s="11">
-        <v>76</v>
+        <v>7625</v>
       </c>
       <c r="AI44" s="11">
-        <v>499</v>
+        <v>8087</v>
       </c>
       <c r="AJ44" s="11">
-        <v>7625</v>
+        <v>8969</v>
       </c>
       <c r="AK44" s="11">
-        <v>8087</v>
+        <v>6806</v>
       </c>
       <c r="AL44" s="11">
-        <v>8969</v>
+        <v>2942</v>
       </c>
       <c r="AM44" s="11">
-        <v>6806</v>
+        <v>6875</v>
       </c>
       <c r="AN44" s="11">
-        <v>2942</v>
+        <v>1005</v>
       </c>
       <c r="AO44" s="11">
-        <v>6875</v>
-      </c>
-      <c r="AP44" s="11">
-        <v>1005</v>
+        <v>3756</v>
+      </c>
+      <c r="AP44" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ44" s="11">
-        <v>3756</v>
-      </c>
-      <c r="AR44" s="11" t="s">
-        <v>57</v>
+        <v>25</v>
+      </c>
+      <c r="AR44" s="11">
+        <v>3361</v>
       </c>
       <c r="AS44" s="11">
-        <v>25</v>
-      </c>
-      <c r="AT44" s="11">
-        <v>3361</v>
-      </c>
-      <c r="AU44" s="11">
         <v>13891</v>
+      </c>
+      <c r="AT44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU44" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV44" s="11" t="s">
         <v>57</v>
@@ -6240,25 +6240,25 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>39478</v>
+        <v>31451</v>
       </c>
       <c r="F45" s="13">
-        <v>36254</v>
+        <v>24691</v>
       </c>
       <c r="G45" s="13">
-        <v>31451</v>
+        <v>14127</v>
       </c>
       <c r="H45" s="13">
-        <v>24691</v>
+        <v>14427</v>
       </c>
       <c r="I45" s="13">
-        <v>14127</v>
-      </c>
-      <c r="J45" s="13">
-        <v>14427</v>
-      </c>
-      <c r="K45" s="13">
         <v>37839</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L45" s="13" t="s">
         <v>57</v>
@@ -6399,26 +6399,26 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>22141</v>
+        <v>16340</v>
       </c>
       <c r="F46" s="11">
-        <v>20530</v>
+        <v>8435</v>
       </c>
       <c r="G46" s="11">
-        <v>16340</v>
+        <v>3951</v>
       </c>
       <c r="H46" s="11">
-        <v>8435</v>
+        <v>2052</v>
       </c>
       <c r="I46" s="11">
-        <v>3951</v>
-      </c>
-      <c r="J46" s="11">
-        <v>2052</v>
-      </c>
-      <c r="K46" s="11">
         <v>6266</v>
       </c>
+      <c r="J46" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L46" s="11" t="s">
         <v>57</v>
       </c>
@@ -6521,23 +6521,23 @@
       <c r="AS46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU46" s="11" t="s">
-        <v>57</v>
+      <c r="AT46" s="11">
+        <v>70</v>
+      </c>
+      <c r="AU46" s="11">
+        <v>1007</v>
       </c>
       <c r="AV46" s="11">
-        <v>70</v>
+        <v>4557</v>
       </c>
       <c r="AW46" s="11">
-        <v>1007</v>
+        <v>593</v>
       </c>
       <c r="AX46" s="11">
-        <v>4557</v>
+        <v>0</v>
       </c>
       <c r="AY46" s="11">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="AZ46" s="11">
         <v>0</v>
@@ -6558,25 +6558,25 @@
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13">
-        <v>11202</v>
+        <v>9837</v>
       </c>
       <c r="F47" s="13">
-        <v>11635</v>
+        <v>5232</v>
       </c>
       <c r="G47" s="13">
-        <v>9837</v>
+        <v>3258</v>
       </c>
       <c r="H47" s="13">
-        <v>5232</v>
+        <v>8681</v>
       </c>
       <c r="I47" s="13">
-        <v>3258</v>
-      </c>
-      <c r="J47" s="13">
-        <v>8681</v>
-      </c>
-      <c r="K47" s="13">
         <v>21019</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L47" s="13" t="s">
         <v>57</v>
@@ -6717,26 +6717,26 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>1260</v>
+        <v>202</v>
       </c>
       <c r="F48" s="11">
-        <v>977</v>
+        <v>83</v>
       </c>
       <c r="G48" s="11">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="H48" s="11">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="I48" s="11">
-        <v>78</v>
-      </c>
-      <c r="J48" s="11">
-        <v>31</v>
-      </c>
-      <c r="K48" s="11">
         <v>188</v>
       </c>
+      <c r="J48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L48" s="11" t="s">
         <v>57</v>
       </c>
@@ -6842,14 +6842,14 @@
       <c r="AT48" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU48" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV48" s="11" t="s">
-        <v>57</v>
+      <c r="AU48" s="11">
+        <v>149</v>
+      </c>
+      <c r="AV48" s="11">
+        <v>0</v>
       </c>
       <c r="AW48" s="11">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="11">
         <v>0</v>
@@ -6890,119 +6890,119 @@
       <c r="I49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J49" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>57</v>
+      <c r="J49" s="13">
+        <v>2459</v>
+      </c>
+      <c r="K49" s="13">
+        <v>3358</v>
       </c>
       <c r="L49" s="13">
-        <v>2459</v>
+        <v>0</v>
       </c>
       <c r="M49" s="13">
-        <v>3358</v>
+        <v>10904</v>
       </c>
       <c r="N49" s="13">
-        <v>0</v>
+        <v>12027</v>
       </c>
       <c r="O49" s="13">
-        <v>10904</v>
+        <v>5254</v>
       </c>
       <c r="P49" s="13">
-        <v>12027</v>
+        <v>5139</v>
       </c>
       <c r="Q49" s="13">
-        <v>5254</v>
+        <v>5663</v>
       </c>
       <c r="R49" s="13">
-        <v>5139</v>
+        <v>2298</v>
       </c>
       <c r="S49" s="13">
-        <v>5663</v>
+        <v>246</v>
       </c>
       <c r="T49" s="13">
-        <v>2298</v>
+        <v>1085</v>
       </c>
       <c r="U49" s="13">
-        <v>246</v>
-      </c>
-      <c r="V49" s="13">
-        <v>1085</v>
-      </c>
-      <c r="W49" s="13">
         <v>3378</v>
       </c>
+      <c r="V49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W49" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y49" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z49" s="13" t="s">
-        <v>57</v>
+      <c r="Y49" s="13">
+        <v>12327</v>
+      </c>
+      <c r="Z49" s="13">
+        <v>12761</v>
       </c>
       <c r="AA49" s="13">
-        <v>12327</v>
+        <v>12866</v>
       </c>
       <c r="AB49" s="13">
-        <v>12761</v>
+        <v>4097</v>
       </c>
       <c r="AC49" s="13">
-        <v>12866</v>
+        <v>3333</v>
       </c>
       <c r="AD49" s="13">
-        <v>4097</v>
+        <v>7252</v>
       </c>
       <c r="AE49" s="13">
-        <v>3333</v>
+        <v>2341</v>
       </c>
       <c r="AF49" s="13">
-        <v>7252</v>
+        <v>8054</v>
       </c>
       <c r="AG49" s="13">
-        <v>2341</v>
+        <v>2870</v>
       </c>
       <c r="AH49" s="13">
-        <v>8054</v>
+        <v>6548</v>
       </c>
       <c r="AI49" s="13">
-        <v>2870</v>
+        <v>3587</v>
       </c>
       <c r="AJ49" s="13">
-        <v>6548</v>
+        <v>2017</v>
       </c>
       <c r="AK49" s="13">
-        <v>3587</v>
+        <v>2718</v>
       </c>
       <c r="AL49" s="13">
-        <v>2017</v>
+        <v>5108</v>
       </c>
       <c r="AM49" s="13">
-        <v>2718</v>
+        <v>7618</v>
       </c>
       <c r="AN49" s="13">
-        <v>5108</v>
+        <v>3727</v>
       </c>
       <c r="AO49" s="13">
-        <v>7618</v>
-      </c>
-      <c r="AP49" s="13">
-        <v>3727</v>
+        <v>2759</v>
+      </c>
+      <c r="AP49" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ49" s="13">
-        <v>2759</v>
-      </c>
-      <c r="AR49" s="13" t="s">
-        <v>57</v>
+        <v>419</v>
+      </c>
+      <c r="AR49" s="13">
+        <v>322</v>
       </c>
       <c r="AS49" s="13">
-        <v>419</v>
-      </c>
-      <c r="AT49" s="13">
-        <v>322</v>
-      </c>
-      <c r="AU49" s="13">
         <v>1859</v>
+      </c>
+      <c r="AT49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU49" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV49" s="13" t="s">
         <v>57</v>
@@ -7049,119 +7049,119 @@
       <c r="I50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K50" s="11" t="s">
-        <v>57</v>
+      <c r="J50" s="11">
+        <v>90653</v>
+      </c>
+      <c r="K50" s="11">
+        <v>128839</v>
       </c>
       <c r="L50" s="11">
-        <v>90653</v>
+        <v>144163</v>
       </c>
       <c r="M50" s="11">
-        <v>128839</v>
+        <v>124129</v>
       </c>
       <c r="N50" s="11">
-        <v>144163</v>
+        <v>125289</v>
       </c>
       <c r="O50" s="11">
-        <v>124129</v>
+        <v>133754</v>
       </c>
       <c r="P50" s="11">
-        <v>125289</v>
+        <v>132888</v>
       </c>
       <c r="Q50" s="11">
-        <v>133754</v>
+        <v>122345</v>
       </c>
       <c r="R50" s="11">
-        <v>132888</v>
+        <v>69458</v>
       </c>
       <c r="S50" s="11">
-        <v>122345</v>
+        <v>36622</v>
       </c>
       <c r="T50" s="11">
-        <v>69458</v>
+        <v>17822</v>
       </c>
       <c r="U50" s="11">
-        <v>36622</v>
-      </c>
-      <c r="V50" s="11">
-        <v>17822</v>
-      </c>
-      <c r="W50" s="11">
         <v>105772</v>
       </c>
+      <c r="V50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W50" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z50" s="11" t="s">
-        <v>57</v>
+      <c r="Y50" s="11">
+        <v>203157</v>
+      </c>
+      <c r="Z50" s="11">
+        <v>171574</v>
       </c>
       <c r="AA50" s="11">
-        <v>203157</v>
+        <v>155619</v>
       </c>
       <c r="AB50" s="11">
-        <v>171574</v>
+        <v>153539</v>
       </c>
       <c r="AC50" s="11">
-        <v>155619</v>
+        <v>161278</v>
       </c>
       <c r="AD50" s="11">
-        <v>153539</v>
+        <v>98294</v>
       </c>
       <c r="AE50" s="11">
-        <v>161278</v>
+        <v>54462</v>
       </c>
       <c r="AF50" s="11">
-        <v>98294</v>
+        <v>93921</v>
       </c>
       <c r="AG50" s="11">
-        <v>54462</v>
+        <v>112524</v>
       </c>
       <c r="AH50" s="11">
-        <v>93921</v>
+        <v>141037</v>
       </c>
       <c r="AI50" s="11">
-        <v>112524</v>
+        <v>175206</v>
       </c>
       <c r="AJ50" s="11">
-        <v>141037</v>
+        <v>172239</v>
       </c>
       <c r="AK50" s="11">
-        <v>175206</v>
+        <v>149988</v>
       </c>
       <c r="AL50" s="11">
-        <v>172239</v>
+        <v>140949</v>
       </c>
       <c r="AM50" s="11">
-        <v>149988</v>
+        <v>175920</v>
       </c>
       <c r="AN50" s="11">
-        <v>140949</v>
+        <v>148852</v>
       </c>
       <c r="AO50" s="11">
-        <v>175920</v>
-      </c>
-      <c r="AP50" s="11">
-        <v>148852</v>
+        <v>130637</v>
+      </c>
+      <c r="AP50" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ50" s="11">
-        <v>130637</v>
-      </c>
-      <c r="AR50" s="11" t="s">
-        <v>57</v>
+        <v>24493</v>
+      </c>
+      <c r="AR50" s="11">
+        <v>39776</v>
       </c>
       <c r="AS50" s="11">
-        <v>24493</v>
-      </c>
-      <c r="AT50" s="11">
-        <v>39776</v>
-      </c>
-      <c r="AU50" s="11">
         <v>129745</v>
+      </c>
+      <c r="AT50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU50" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV50" s="11" t="s">
         <v>57</v>
@@ -7217,14 +7217,14 @@
       <c r="L51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M51" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N51" s="13" t="s">
-        <v>57</v>
+      <c r="M51" s="13">
+        <v>338</v>
+      </c>
+      <c r="N51" s="13">
+        <v>0</v>
       </c>
       <c r="O51" s="13">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="P51" s="13">
         <v>0</v>
@@ -7244,20 +7244,20 @@
       <c r="U51" s="13">
         <v>0</v>
       </c>
-      <c r="V51" s="13">
-        <v>0</v>
-      </c>
-      <c r="W51" s="13">
-        <v>0</v>
+      <c r="V51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W51" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y51" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z51" s="13" t="s">
-        <v>57</v>
+      <c r="Y51" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="13">
+        <v>0</v>
       </c>
       <c r="AA51" s="13">
         <v>0</v>
@@ -7304,23 +7304,23 @@
       <c r="AO51" s="13">
         <v>0</v>
       </c>
-      <c r="AP51" s="13">
-        <v>0</v>
+      <c r="AP51" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ51" s="13">
         <v>0</v>
       </c>
-      <c r="AR51" s="13" t="s">
-        <v>57</v>
+      <c r="AR51" s="13">
+        <v>0</v>
       </c>
       <c r="AS51" s="13">
         <v>0</v>
       </c>
-      <c r="AT51" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU51" s="13">
-        <v>0</v>
+      <c r="AT51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU51" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV51" s="13" t="s">
         <v>57</v>
@@ -7475,32 +7475,32 @@
       <c r="AS52" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT52" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU52" s="11" t="s">
-        <v>57</v>
+      <c r="AT52" s="11">
+        <v>30603</v>
+      </c>
+      <c r="AU52" s="11">
+        <v>18094</v>
       </c>
       <c r="AV52" s="11">
-        <v>30603</v>
+        <v>32086</v>
       </c>
       <c r="AW52" s="11">
-        <v>18094</v>
+        <v>55389</v>
       </c>
       <c r="AX52" s="11">
-        <v>32086</v>
+        <v>55849</v>
       </c>
       <c r="AY52" s="11">
-        <v>55389</v>
+        <v>70343</v>
       </c>
       <c r="AZ52" s="11">
-        <v>55849</v>
+        <v>53554</v>
       </c>
       <c r="BA52" s="11">
-        <v>70343</v>
+        <v>51644</v>
       </c>
       <c r="BB52" s="11">
-        <v>53554</v>
+        <v>37351</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -7634,32 +7634,32 @@
       <c r="AS53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU53" s="13" t="s">
-        <v>57</v>
+      <c r="AT53" s="13">
+        <v>52792</v>
+      </c>
+      <c r="AU53" s="13">
+        <v>34839</v>
       </c>
       <c r="AV53" s="13">
-        <v>52792</v>
+        <v>52453</v>
       </c>
       <c r="AW53" s="13">
-        <v>34839</v>
+        <v>55384</v>
       </c>
       <c r="AX53" s="13">
-        <v>52453</v>
+        <v>51863</v>
       </c>
       <c r="AY53" s="13">
-        <v>55384</v>
+        <v>67141</v>
       </c>
       <c r="AZ53" s="13">
-        <v>51863</v>
+        <v>53215</v>
       </c>
       <c r="BA53" s="13">
-        <v>67141</v>
+        <v>49701</v>
       </c>
       <c r="BB53" s="13">
-        <v>53215</v>
+        <v>33553</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7671,25 +7671,25 @@
       </c>
       <c r="D54" s="11"/>
       <c r="E54" s="11">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F54" s="11">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G54" s="11">
         <v>0</v>
       </c>
       <c r="H54" s="11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="I54" s="11">
         <v>0</v>
       </c>
-      <c r="J54" s="11">
-        <v>21</v>
-      </c>
-      <c r="K54" s="11">
-        <v>0</v>
+      <c r="J54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L54" s="11" t="s">
         <v>57</v>
@@ -7830,25 +7830,25 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13">
-        <v>17362</v>
+        <v>7541</v>
       </c>
       <c r="F55" s="13">
-        <v>16063</v>
+        <v>2565</v>
       </c>
       <c r="G55" s="13">
-        <v>7541</v>
+        <v>2613</v>
       </c>
       <c r="H55" s="13">
-        <v>2565</v>
+        <v>11007</v>
       </c>
       <c r="I55" s="13">
-        <v>2613</v>
-      </c>
-      <c r="J55" s="13">
-        <v>11007</v>
-      </c>
-      <c r="K55" s="13">
         <v>25268</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L55" s="13" t="s">
         <v>57</v>
@@ -7989,25 +7989,25 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>33570</v>
+        <v>13533</v>
       </c>
       <c r="F56" s="11">
-        <v>36313</v>
+        <v>2570</v>
       </c>
       <c r="G56" s="11">
-        <v>13533</v>
+        <v>1142</v>
       </c>
       <c r="H56" s="11">
-        <v>2570</v>
+        <v>3396</v>
       </c>
       <c r="I56" s="11">
-        <v>1142</v>
-      </c>
-      <c r="J56" s="11">
-        <v>3396</v>
-      </c>
-      <c r="K56" s="11">
         <v>4921</v>
+      </c>
+      <c r="J56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L56" s="11" t="s">
         <v>57</v>
@@ -8148,10 +8148,10 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13">
-        <v>551</v>
+        <v>0</v>
       </c>
       <c r="F57" s="13">
-        <v>425</v>
+        <v>0</v>
       </c>
       <c r="G57" s="13">
         <v>0</v>
@@ -8162,11 +8162,11 @@
       <c r="I57" s="13">
         <v>0</v>
       </c>
-      <c r="J57" s="13">
-        <v>0</v>
-      </c>
-      <c r="K57" s="13">
-        <v>0</v>
+      <c r="J57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L57" s="13" t="s">
         <v>57</v>
@@ -8307,26 +8307,26 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>1829</v>
+        <v>2349</v>
       </c>
       <c r="F58" s="11">
-        <v>3629</v>
+        <v>2169</v>
       </c>
       <c r="G58" s="11">
-        <v>2349</v>
+        <v>1824</v>
       </c>
       <c r="H58" s="11">
-        <v>2169</v>
+        <v>1883</v>
       </c>
       <c r="I58" s="11">
-        <v>1824</v>
-      </c>
-      <c r="J58" s="11">
-        <v>1883</v>
-      </c>
-      <c r="K58" s="11">
         <v>445</v>
       </c>
+      <c r="J58" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L58" s="11" t="s">
         <v>57</v>
       </c>
@@ -8429,23 +8429,23 @@
       <c r="AS58" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU58" s="11" t="s">
-        <v>57</v>
+      <c r="AT58" s="11">
+        <v>48</v>
+      </c>
+      <c r="AU58" s="11">
+        <v>1011</v>
       </c>
       <c r="AV58" s="11">
-        <v>48</v>
+        <v>1705</v>
       </c>
       <c r="AW58" s="11">
-        <v>1011</v>
+        <v>180</v>
       </c>
       <c r="AX58" s="11">
-        <v>1705</v>
+        <v>0</v>
       </c>
       <c r="AY58" s="11">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AZ58" s="11">
         <v>0</v>
@@ -8466,26 +8466,26 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>8761</v>
+        <v>4669</v>
       </c>
       <c r="F59" s="13">
-        <v>2377</v>
+        <v>3908</v>
       </c>
       <c r="G59" s="13">
-        <v>4669</v>
+        <v>1435</v>
       </c>
       <c r="H59" s="13">
-        <v>3908</v>
+        <v>2159</v>
       </c>
       <c r="I59" s="13">
-        <v>1435</v>
-      </c>
-      <c r="J59" s="13">
-        <v>2159</v>
-      </c>
-      <c r="K59" s="13">
         <v>4402</v>
       </c>
+      <c r="J59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="L59" s="13" t="s">
         <v>57</v>
       </c>
@@ -8588,32 +8588,32 @@
       <c r="AS59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU59" s="13" t="s">
-        <v>57</v>
+      <c r="AT59" s="13">
+        <v>32437</v>
+      </c>
+      <c r="AU59" s="13">
+        <v>45270</v>
       </c>
       <c r="AV59" s="13">
-        <v>32437</v>
+        <v>36529</v>
       </c>
       <c r="AW59" s="13">
-        <v>45270</v>
+        <v>7698</v>
       </c>
       <c r="AX59" s="13">
-        <v>36529</v>
+        <v>11700</v>
       </c>
       <c r="AY59" s="13">
-        <v>7698</v>
+        <v>6510</v>
       </c>
       <c r="AZ59" s="13">
-        <v>11700</v>
+        <v>12118</v>
       </c>
       <c r="BA59" s="13">
-        <v>6510</v>
+        <v>19857</v>
       </c>
       <c r="BB59" s="13">
-        <v>12118</v>
+        <v>24982</v>
       </c>
     </row>
     <row r="60" spans="2:54" x14ac:dyDescent="0.3">
@@ -8625,26 +8625,26 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>2906</v>
+        <v>961</v>
       </c>
       <c r="F60" s="11">
-        <v>2817</v>
+        <v>526</v>
       </c>
       <c r="G60" s="11">
-        <v>961</v>
+        <v>2751</v>
       </c>
       <c r="H60" s="11">
-        <v>526</v>
+        <v>3642</v>
       </c>
       <c r="I60" s="11">
-        <v>2751</v>
-      </c>
-      <c r="J60" s="11">
-        <v>3642</v>
-      </c>
-      <c r="K60" s="11">
         <v>8396</v>
       </c>
+      <c r="J60" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L60" s="11" t="s">
         <v>57</v>
       </c>
@@ -8747,32 +8747,32 @@
       <c r="AS60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT60" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU60" s="11" t="s">
-        <v>57</v>
+      <c r="AT60" s="11">
+        <v>23230</v>
+      </c>
+      <c r="AU60" s="11">
+        <v>43566</v>
       </c>
       <c r="AV60" s="11">
-        <v>23230</v>
+        <v>39514</v>
       </c>
       <c r="AW60" s="11">
-        <v>43566</v>
+        <v>7850</v>
       </c>
       <c r="AX60" s="11">
-        <v>39514</v>
+        <v>4143</v>
       </c>
       <c r="AY60" s="11">
-        <v>7850</v>
+        <v>4481</v>
       </c>
       <c r="AZ60" s="11">
-        <v>4143</v>
+        <v>5194</v>
       </c>
       <c r="BA60" s="11">
-        <v>4481</v>
+        <v>8722</v>
       </c>
       <c r="BB60" s="11">
-        <v>5194</v>
+        <v>6259</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8906,32 +8906,32 @@
       <c r="AS61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT61" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU61" s="13" t="s">
-        <v>57</v>
+      <c r="AT61" s="13">
+        <v>30194</v>
+      </c>
+      <c r="AU61" s="13">
+        <v>8880</v>
       </c>
       <c r="AV61" s="13">
-        <v>30194</v>
+        <v>5549</v>
       </c>
       <c r="AW61" s="13">
-        <v>8880</v>
+        <v>3845</v>
       </c>
       <c r="AX61" s="13">
-        <v>5549</v>
+        <v>5211</v>
       </c>
       <c r="AY61" s="13">
-        <v>3845</v>
+        <v>7782</v>
       </c>
       <c r="AZ61" s="13">
-        <v>5211</v>
+        <v>10543</v>
       </c>
       <c r="BA61" s="13">
-        <v>7782</v>
+        <v>10894</v>
       </c>
       <c r="BB61" s="13">
-        <v>10543</v>
+        <v>5119</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -9065,20 +9065,20 @@
       <c r="AS62" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU62" s="11" t="s">
-        <v>57</v>
+      <c r="AT62" s="11">
+        <v>2056</v>
+      </c>
+      <c r="AU62" s="11">
+        <v>563</v>
       </c>
       <c r="AV62" s="11">
-        <v>2056</v>
+        <v>31</v>
       </c>
       <c r="AW62" s="11">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AX62" s="11">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AY62" s="11">
         <v>0</v>
@@ -9224,11 +9224,11 @@
       <c r="AS63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU63" s="13" t="s">
-        <v>57</v>
+      <c r="AT63" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU63" s="13">
+        <v>0</v>
       </c>
       <c r="AV63" s="13">
         <v>0</v>
@@ -9375,11 +9375,11 @@
       <c r="X65" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y65" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z65" s="17" t="s">
-        <v>57</v>
+      <c r="Y65" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="17">
+        <v>0</v>
       </c>
       <c r="AA65" s="17">
         <v>0</v>
@@ -9589,11 +9589,11 @@
       <c r="X67" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y67" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z67" s="17" t="s">
-        <v>57</v>
+      <c r="Y67" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="17">
+        <v>0</v>
       </c>
       <c r="AA67" s="17">
         <v>0</v>
@@ -9687,154 +9687,154 @@
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19">
-        <v>139135</v>
+        <v>86883</v>
       </c>
       <c r="F68" s="19">
-        <v>131072</v>
+        <v>50179</v>
       </c>
       <c r="G68" s="19">
-        <v>86883</v>
+        <v>31179</v>
       </c>
       <c r="H68" s="19">
-        <v>50179</v>
+        <v>47299</v>
       </c>
       <c r="I68" s="19">
-        <v>31179</v>
+        <v>108744</v>
       </c>
       <c r="J68" s="19">
-        <v>47299</v>
+        <v>93112</v>
       </c>
       <c r="K68" s="19">
-        <v>108744</v>
+        <v>132197</v>
       </c>
       <c r="L68" s="19">
-        <v>93112</v>
+        <v>144163</v>
       </c>
       <c r="M68" s="19">
-        <v>132197</v>
+        <v>142011</v>
       </c>
       <c r="N68" s="19">
-        <v>144163</v>
+        <v>141685</v>
       </c>
       <c r="O68" s="19">
-        <v>142011</v>
+        <v>139061</v>
       </c>
       <c r="P68" s="19">
-        <v>141685</v>
+        <v>138027</v>
       </c>
       <c r="Q68" s="19">
-        <v>139061</v>
+        <v>128008</v>
       </c>
       <c r="R68" s="19">
-        <v>138027</v>
+        <v>71756</v>
       </c>
       <c r="S68" s="19">
-        <v>128008</v>
+        <v>36868</v>
       </c>
       <c r="T68" s="19">
-        <v>71756</v>
+        <v>18907</v>
       </c>
       <c r="U68" s="19">
-        <v>36868</v>
+        <v>110484</v>
       </c>
       <c r="V68" s="19">
-        <v>18907</v>
+        <v>134244</v>
       </c>
       <c r="W68" s="19">
-        <v>110484</v>
+        <v>206785</v>
       </c>
       <c r="X68" s="19">
-        <v>134244</v>
+        <v>218151</v>
       </c>
       <c r="Y68" s="19">
-        <v>206785</v>
+        <v>215507</v>
       </c>
       <c r="Z68" s="19">
-        <v>218151</v>
+        <v>184335</v>
       </c>
       <c r="AA68" s="19">
-        <v>215507</v>
+        <v>168485</v>
       </c>
       <c r="AB68" s="19">
-        <v>184335</v>
+        <v>157636</v>
       </c>
       <c r="AC68" s="19">
-        <v>168485</v>
+        <v>165019</v>
       </c>
       <c r="AD68" s="19">
-        <v>157636</v>
+        <v>106660</v>
       </c>
       <c r="AE68" s="19">
-        <v>165019</v>
+        <v>56803</v>
       </c>
       <c r="AF68" s="19">
-        <v>106660</v>
+        <v>102051</v>
       </c>
       <c r="AG68" s="19">
-        <v>56803</v>
+        <v>115893</v>
       </c>
       <c r="AH68" s="19">
-        <v>102051</v>
+        <v>155210</v>
       </c>
       <c r="AI68" s="19">
-        <v>115893</v>
+        <v>186880</v>
       </c>
       <c r="AJ68" s="19">
-        <v>155210</v>
+        <v>183225</v>
       </c>
       <c r="AK68" s="19">
-        <v>186880</v>
+        <v>159512</v>
       </c>
       <c r="AL68" s="19">
-        <v>183225</v>
+        <v>148999</v>
       </c>
       <c r="AM68" s="19">
-        <v>159512</v>
+        <v>190413</v>
       </c>
       <c r="AN68" s="19">
-        <v>148999</v>
+        <v>153584</v>
       </c>
       <c r="AO68" s="19">
-        <v>190413</v>
+        <v>137152</v>
       </c>
       <c r="AP68" s="19">
-        <v>153584</v>
+        <v>0</v>
       </c>
       <c r="AQ68" s="19">
-        <v>137152</v>
+        <v>24937</v>
       </c>
       <c r="AR68" s="19">
-        <v>0</v>
+        <v>43459</v>
       </c>
       <c r="AS68" s="19">
-        <v>24937</v>
+        <v>145495</v>
       </c>
       <c r="AT68" s="19">
-        <v>43459</v>
+        <v>185259</v>
       </c>
       <c r="AU68" s="19">
-        <v>145495</v>
+        <v>156588</v>
       </c>
       <c r="AV68" s="19">
-        <v>185259</v>
+        <v>175403</v>
       </c>
       <c r="AW68" s="19">
-        <v>156588</v>
+        <v>131443</v>
       </c>
       <c r="AX68" s="19">
-        <v>175403</v>
+        <v>135292</v>
       </c>
       <c r="AY68" s="19">
-        <v>131443</v>
+        <v>159635</v>
       </c>
       <c r="AZ68" s="19">
-        <v>135292</v>
+        <v>136000</v>
       </c>
       <c r="BA68" s="19">
-        <v>159635</v>
+        <v>152885</v>
       </c>
       <c r="BB68" s="19">
-        <v>136000</v>
+        <v>127437</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -10330,21 +10330,21 @@
       <c r="U75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V75" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W75" s="11" t="s">
-        <v>57</v>
+      <c r="V75" s="11">
+        <v>4987</v>
+      </c>
+      <c r="W75" s="11">
+        <v>1635</v>
       </c>
       <c r="X75" s="11">
-        <v>4987</v>
-      </c>
-      <c r="Y75" s="11">
-        <v>1635</v>
-      </c>
-      <c r="Z75" s="11">
         <v>4293</v>
       </c>
+      <c r="Y75" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z75" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA75" s="11" t="s">
         <v>57</v>
       </c>
@@ -10402,32 +10402,32 @@
       <c r="AS75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT75" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU75" s="11" t="s">
-        <v>57</v>
+      <c r="AT75" s="11">
+        <v>92839</v>
+      </c>
+      <c r="AU75" s="11">
+        <v>21774</v>
       </c>
       <c r="AV75" s="11">
-        <v>92839</v>
+        <v>23054</v>
       </c>
       <c r="AW75" s="11">
-        <v>21774</v>
+        <v>4120</v>
       </c>
       <c r="AX75" s="11">
-        <v>23054</v>
+        <v>51638</v>
       </c>
       <c r="AY75" s="11">
-        <v>4120</v>
+        <v>18378</v>
       </c>
       <c r="AZ75" s="11">
-        <v>51638</v>
+        <v>6116</v>
       </c>
       <c r="BA75" s="11">
-        <v>18378</v>
+        <v>50303</v>
       </c>
       <c r="BB75" s="11">
-        <v>6116</v>
+        <v>72710</v>
       </c>
     </row>
     <row r="76" spans="2:54" x14ac:dyDescent="0.3">
@@ -10489,20 +10489,20 @@
       <c r="U76" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V76" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W76" s="13" t="s">
-        <v>57</v>
+      <c r="V76" s="13">
+        <v>258581</v>
+      </c>
+      <c r="W76" s="13">
+        <v>405263</v>
       </c>
       <c r="X76" s="13">
-        <v>258581</v>
-      </c>
-      <c r="Y76" s="13">
-        <v>405263</v>
-      </c>
-      <c r="Z76" s="13">
         <v>427191</v>
+      </c>
+      <c r="Y76" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z76" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA76" s="13" t="s">
         <v>57</v>
@@ -10621,20 +10621,20 @@
       <c r="L77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N77" s="11" t="s">
-        <v>57</v>
+      <c r="M77" s="11">
+        <v>6328</v>
+      </c>
+      <c r="N77" s="11">
+        <v>4670</v>
       </c>
       <c r="O77" s="11">
-        <v>6328</v>
+        <v>57</v>
       </c>
       <c r="P77" s="11">
-        <v>4670</v>
+        <v>0</v>
       </c>
       <c r="Q77" s="11">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="R77" s="11">
         <v>0</v>
@@ -10646,85 +10646,85 @@
         <v>0</v>
       </c>
       <c r="U77" s="11">
-        <v>0</v>
-      </c>
-      <c r="V77" s="11">
-        <v>0</v>
-      </c>
-      <c r="W77" s="11">
         <v>929</v>
       </c>
+      <c r="V77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W77" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z77" s="11" t="s">
-        <v>57</v>
+      <c r="Y77" s="11">
+        <v>32</v>
+      </c>
+      <c r="Z77" s="11">
+        <v>0</v>
       </c>
       <c r="AA77" s="11">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="AB77" s="11">
         <v>0</v>
       </c>
       <c r="AC77" s="11">
-        <v>0</v>
+        <v>1499</v>
       </c>
       <c r="AD77" s="11">
-        <v>0</v>
+        <v>3337</v>
       </c>
       <c r="AE77" s="11">
-        <v>1499</v>
+        <v>0</v>
       </c>
       <c r="AF77" s="11">
-        <v>3337</v>
+        <v>183</v>
       </c>
       <c r="AG77" s="11">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="AH77" s="11">
-        <v>183</v>
+        <v>31616</v>
       </c>
       <c r="AI77" s="11">
-        <v>1750</v>
+        <v>35500</v>
       </c>
       <c r="AJ77" s="11">
-        <v>31616</v>
+        <v>46354</v>
       </c>
       <c r="AK77" s="11">
-        <v>35500</v>
+        <v>37105</v>
       </c>
       <c r="AL77" s="11">
-        <v>46354</v>
+        <v>19254</v>
       </c>
       <c r="AM77" s="11">
-        <v>37105</v>
+        <v>48675</v>
       </c>
       <c r="AN77" s="11">
-        <v>19254</v>
+        <v>6628</v>
       </c>
       <c r="AO77" s="11">
-        <v>48675</v>
-      </c>
-      <c r="AP77" s="11">
-        <v>6628</v>
+        <v>22867</v>
+      </c>
+      <c r="AP77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ77" s="11">
-        <v>22867</v>
-      </c>
-      <c r="AR77" s="11" t="s">
-        <v>57</v>
+        <v>162</v>
+      </c>
+      <c r="AR77" s="11">
+        <v>19886</v>
       </c>
       <c r="AS77" s="11">
-        <v>162</v>
-      </c>
-      <c r="AT77" s="11">
-        <v>19886</v>
-      </c>
-      <c r="AU77" s="11">
         <v>83647</v>
+      </c>
+      <c r="AT77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV77" s="11" t="s">
         <v>57</v>
@@ -10757,25 +10757,25 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>50068</v>
+        <v>40770</v>
       </c>
       <c r="F78" s="13">
-        <v>47879</v>
+        <v>32151</v>
       </c>
       <c r="G78" s="13">
-        <v>40770</v>
+        <v>13195</v>
       </c>
       <c r="H78" s="13">
-        <v>32151</v>
+        <v>18338</v>
       </c>
       <c r="I78" s="13">
-        <v>13195</v>
-      </c>
-      <c r="J78" s="13">
-        <v>18338</v>
-      </c>
-      <c r="K78" s="13">
         <v>46230</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K78" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L78" s="13" t="s">
         <v>57</v>
@@ -10916,26 +10916,26 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>32800</v>
+        <v>24209</v>
       </c>
       <c r="F79" s="11">
-        <v>30409</v>
+        <v>13931</v>
       </c>
       <c r="G79" s="11">
-        <v>24209</v>
+        <v>5725</v>
       </c>
       <c r="H79" s="11">
-        <v>13931</v>
+        <v>3367</v>
       </c>
       <c r="I79" s="11">
-        <v>5725</v>
-      </c>
-      <c r="J79" s="11">
-        <v>3367</v>
-      </c>
-      <c r="K79" s="11">
         <v>10163</v>
       </c>
+      <c r="J79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K79" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L79" s="11" t="s">
         <v>57</v>
       </c>
@@ -11038,23 +11038,23 @@
       <c r="AS79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT79" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU79" s="11" t="s">
-        <v>57</v>
+      <c r="AT79" s="11">
+        <v>383</v>
+      </c>
+      <c r="AU79" s="11">
+        <v>5982</v>
       </c>
       <c r="AV79" s="11">
-        <v>383</v>
+        <v>27963</v>
       </c>
       <c r="AW79" s="11">
-        <v>5982</v>
+        <v>4364</v>
       </c>
       <c r="AX79" s="11">
-        <v>27963</v>
+        <v>0</v>
       </c>
       <c r="AY79" s="11">
-        <v>4364</v>
+        <v>0</v>
       </c>
       <c r="AZ79" s="11">
         <v>0</v>
@@ -11075,25 +11075,25 @@
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13">
-        <v>17022</v>
+        <v>15051</v>
       </c>
       <c r="F80" s="13">
-        <v>17752</v>
+        <v>8595</v>
       </c>
       <c r="G80" s="13">
-        <v>15051</v>
+        <v>4733</v>
       </c>
       <c r="H80" s="13">
-        <v>8595</v>
+        <v>13052</v>
       </c>
       <c r="I80" s="13">
-        <v>4733</v>
-      </c>
-      <c r="J80" s="13">
-        <v>13052</v>
-      </c>
-      <c r="K80" s="13">
         <v>31389</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K80" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L80" s="13" t="s">
         <v>57</v>
@@ -11234,26 +11234,26 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>1656</v>
+        <v>266</v>
       </c>
       <c r="F81" s="11">
-        <v>1283</v>
+        <v>110</v>
       </c>
       <c r="G81" s="11">
-        <v>266</v>
+        <v>101</v>
       </c>
       <c r="H81" s="11">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="I81" s="11">
-        <v>101</v>
-      </c>
-      <c r="J81" s="11">
-        <v>39</v>
-      </c>
-      <c r="K81" s="11">
         <v>232</v>
       </c>
+      <c r="J81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K81" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L81" s="11" t="s">
         <v>57</v>
       </c>
@@ -11359,14 +11359,14 @@
       <c r="AT81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AV81" s="11" t="s">
-        <v>57</v>
+      <c r="AU81" s="11">
+        <v>514</v>
+      </c>
+      <c r="AV81" s="11">
+        <v>0</v>
       </c>
       <c r="AW81" s="11">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="AX81" s="11">
         <v>0</v>
@@ -11407,119 +11407,119 @@
       <c r="I82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J82" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K82" s="13" t="s">
-        <v>57</v>
+      <c r="J82" s="13">
+        <v>3762</v>
+      </c>
+      <c r="K82" s="13">
+        <v>5112</v>
       </c>
       <c r="L82" s="13">
-        <v>3762</v>
+        <v>0</v>
       </c>
       <c r="M82" s="13">
-        <v>5112</v>
+        <v>16021</v>
       </c>
       <c r="N82" s="13">
-        <v>0</v>
+        <v>19179</v>
       </c>
       <c r="O82" s="13">
-        <v>16021</v>
+        <v>8391</v>
       </c>
       <c r="P82" s="13">
-        <v>19179</v>
+        <v>7761</v>
       </c>
       <c r="Q82" s="13">
-        <v>8391</v>
+        <v>8351</v>
       </c>
       <c r="R82" s="13">
-        <v>7761</v>
+        <v>3271</v>
       </c>
       <c r="S82" s="13">
-        <v>8351</v>
+        <v>347</v>
       </c>
       <c r="T82" s="13">
-        <v>3271</v>
+        <v>1557</v>
       </c>
       <c r="U82" s="13">
-        <v>347</v>
-      </c>
-      <c r="V82" s="13">
-        <v>1557</v>
-      </c>
-      <c r="W82" s="13">
         <v>4655</v>
       </c>
+      <c r="V82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W82" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y82" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z82" s="13" t="s">
-        <v>57</v>
+      <c r="Y82" s="13">
+        <v>32084</v>
+      </c>
+      <c r="Z82" s="13">
+        <v>32354</v>
       </c>
       <c r="AA82" s="13">
-        <v>32084</v>
+        <v>36962</v>
       </c>
       <c r="AB82" s="13">
-        <v>32354</v>
+        <v>13634</v>
       </c>
       <c r="AC82" s="13">
-        <v>36962</v>
+        <v>13630</v>
       </c>
       <c r="AD82" s="13">
-        <v>13634</v>
+        <v>24835</v>
       </c>
       <c r="AE82" s="13">
-        <v>13630</v>
+        <v>7977</v>
       </c>
       <c r="AF82" s="13">
-        <v>24835</v>
+        <v>26884</v>
       </c>
       <c r="AG82" s="13">
-        <v>7977</v>
+        <v>8819</v>
       </c>
       <c r="AH82" s="13">
-        <v>26884</v>
+        <v>31546</v>
       </c>
       <c r="AI82" s="13">
-        <v>8819</v>
+        <v>12261</v>
       </c>
       <c r="AJ82" s="13">
-        <v>31546</v>
+        <v>8184</v>
       </c>
       <c r="AK82" s="13">
-        <v>12261</v>
+        <v>15536</v>
       </c>
       <c r="AL82" s="13">
-        <v>8184</v>
+        <v>35926</v>
       </c>
       <c r="AM82" s="13">
-        <v>15536</v>
+        <v>58209</v>
       </c>
       <c r="AN82" s="13">
-        <v>35926</v>
+        <v>28979</v>
       </c>
       <c r="AO82" s="13">
-        <v>58209</v>
-      </c>
-      <c r="AP82" s="13">
-        <v>28979</v>
+        <v>19680</v>
+      </c>
+      <c r="AP82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ82" s="13">
-        <v>19680</v>
-      </c>
-      <c r="AR82" s="13" t="s">
-        <v>57</v>
+        <v>3969</v>
+      </c>
+      <c r="AR82" s="13">
+        <v>2769</v>
       </c>
       <c r="AS82" s="13">
-        <v>3969</v>
-      </c>
-      <c r="AT82" s="13">
-        <v>2769</v>
-      </c>
-      <c r="AU82" s="13">
         <v>15476</v>
+      </c>
+      <c r="AT82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV82" s="13" t="s">
         <v>57</v>
@@ -11566,119 +11566,119 @@
       <c r="I83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K83" s="11" t="s">
-        <v>57</v>
+      <c r="J83" s="11">
+        <v>121393</v>
+      </c>
+      <c r="K83" s="11">
+        <v>183872</v>
       </c>
       <c r="L83" s="11">
-        <v>121393</v>
+        <v>205340</v>
       </c>
       <c r="M83" s="11">
-        <v>183872</v>
+        <v>219034</v>
       </c>
       <c r="N83" s="11">
-        <v>205340</v>
+        <v>238664</v>
       </c>
       <c r="O83" s="11">
-        <v>219034</v>
+        <v>254342</v>
       </c>
       <c r="P83" s="11">
-        <v>238664</v>
+        <v>252994</v>
       </c>
       <c r="Q83" s="11">
-        <v>254342</v>
+        <v>232675</v>
       </c>
       <c r="R83" s="11">
-        <v>252994</v>
+        <v>130641</v>
       </c>
       <c r="S83" s="11">
-        <v>232675</v>
+        <v>69759</v>
       </c>
       <c r="T83" s="11">
-        <v>130641</v>
+        <v>34147</v>
       </c>
       <c r="U83" s="11">
-        <v>69759</v>
-      </c>
-      <c r="V83" s="11">
-        <v>34147</v>
-      </c>
-      <c r="W83" s="11">
         <v>207849</v>
       </c>
+      <c r="V83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W83" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z83" s="11" t="s">
-        <v>57</v>
+      <c r="Y83" s="11">
+        <v>466204</v>
+      </c>
+      <c r="Z83" s="11">
+        <v>417403</v>
       </c>
       <c r="AA83" s="11">
-        <v>466204</v>
+        <v>385661</v>
       </c>
       <c r="AB83" s="11">
-        <v>417403</v>
+        <v>391458</v>
       </c>
       <c r="AC83" s="11">
-        <v>385661</v>
+        <v>426897</v>
       </c>
       <c r="AD83" s="11">
-        <v>391458</v>
+        <v>252556</v>
       </c>
       <c r="AE83" s="11">
-        <v>426897</v>
+        <v>140203</v>
       </c>
       <c r="AF83" s="11">
-        <v>252556</v>
+        <v>255954</v>
       </c>
       <c r="AG83" s="11">
-        <v>140203</v>
+        <v>303757</v>
       </c>
       <c r="AH83" s="11">
-        <v>255954</v>
+        <v>401076</v>
       </c>
       <c r="AI83" s="11">
-        <v>303757</v>
+        <v>656034</v>
       </c>
       <c r="AJ83" s="11">
-        <v>401076</v>
+        <v>659971</v>
       </c>
       <c r="AK83" s="11">
-        <v>656034</v>
+        <v>710324</v>
       </c>
       <c r="AL83" s="11">
-        <v>659971</v>
+        <v>812328</v>
       </c>
       <c r="AM83" s="11">
-        <v>710324</v>
+        <v>1031697</v>
       </c>
       <c r="AN83" s="11">
-        <v>812328</v>
+        <v>684173</v>
       </c>
       <c r="AO83" s="11">
-        <v>1031697</v>
-      </c>
-      <c r="AP83" s="11">
-        <v>684173</v>
+        <v>574236</v>
+      </c>
+      <c r="AP83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ83" s="11">
-        <v>574236</v>
-      </c>
-      <c r="AR83" s="11" t="s">
-        <v>57</v>
+        <v>102713</v>
+      </c>
+      <c r="AR83" s="11">
+        <v>185729</v>
       </c>
       <c r="AS83" s="11">
-        <v>102713</v>
-      </c>
-      <c r="AT83" s="11">
-        <v>185729</v>
-      </c>
-      <c r="AU83" s="11">
         <v>642327</v>
+      </c>
+      <c r="AT83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV83" s="11" t="s">
         <v>57</v>
@@ -11734,14 +11734,14 @@
       <c r="L84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N84" s="13" t="s">
-        <v>57</v>
+      <c r="M84" s="13">
+        <v>279</v>
+      </c>
+      <c r="N84" s="13">
+        <v>0</v>
       </c>
       <c r="O84" s="13">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="P84" s="13">
         <v>0</v>
@@ -11761,20 +11761,20 @@
       <c r="U84" s="13">
         <v>0</v>
       </c>
-      <c r="V84" s="13">
-        <v>0</v>
-      </c>
-      <c r="W84" s="13">
-        <v>0</v>
+      <c r="V84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z84" s="13" t="s">
-        <v>57</v>
+      <c r="Y84" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z84" s="13">
+        <v>0</v>
       </c>
       <c r="AA84" s="13">
         <v>0</v>
@@ -11821,23 +11821,23 @@
       <c r="AO84" s="13">
         <v>0</v>
       </c>
-      <c r="AP84" s="13">
-        <v>0</v>
+      <c r="AP84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ84" s="13">
         <v>0</v>
       </c>
-      <c r="AR84" s="13" t="s">
-        <v>57</v>
+      <c r="AR84" s="13">
+        <v>0</v>
       </c>
       <c r="AS84" s="13">
         <v>0</v>
       </c>
-      <c r="AT84" s="13">
-        <v>0</v>
-      </c>
-      <c r="AU84" s="13">
-        <v>0</v>
+      <c r="AT84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV84" s="13" t="s">
         <v>57</v>
@@ -11992,32 +11992,32 @@
       <c r="AS85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT85" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU85" s="11" t="s">
-        <v>57</v>
+      <c r="AT85" s="11">
+        <v>150039</v>
+      </c>
+      <c r="AU85" s="11">
+        <v>92996</v>
       </c>
       <c r="AV85" s="11">
-        <v>150039</v>
+        <v>192156</v>
       </c>
       <c r="AW85" s="11">
-        <v>92996</v>
+        <v>303024</v>
       </c>
       <c r="AX85" s="11">
-        <v>192156</v>
+        <v>298832</v>
       </c>
       <c r="AY85" s="11">
-        <v>303024</v>
+        <v>366656</v>
       </c>
       <c r="AZ85" s="11">
-        <v>298832</v>
+        <v>279784</v>
       </c>
       <c r="BA85" s="11">
-        <v>366656</v>
+        <v>270096</v>
       </c>
       <c r="BB85" s="11">
-        <v>279784</v>
+        <v>196334</v>
       </c>
     </row>
     <row r="86" spans="2:54" x14ac:dyDescent="0.3">
@@ -12151,32 +12151,32 @@
       <c r="AS86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU86" s="13" t="s">
-        <v>57</v>
+      <c r="AT86" s="13">
+        <v>297429</v>
+      </c>
+      <c r="AU86" s="13">
+        <v>208702</v>
       </c>
       <c r="AV86" s="13">
-        <v>297429</v>
+        <v>371216</v>
       </c>
       <c r="AW86" s="13">
-        <v>208702</v>
+        <v>400535</v>
       </c>
       <c r="AX86" s="13">
-        <v>371216</v>
+        <v>366469</v>
       </c>
       <c r="AY86" s="13">
-        <v>400535</v>
+        <v>466541</v>
       </c>
       <c r="AZ86" s="13">
-        <v>366469</v>
+        <v>367281</v>
       </c>
       <c r="BA86" s="13">
-        <v>466541</v>
+        <v>342216</v>
       </c>
       <c r="BB86" s="13">
-        <v>367281</v>
+        <v>218913</v>
       </c>
     </row>
     <row r="87" spans="2:54" x14ac:dyDescent="0.3">
@@ -12188,25 +12188,25 @@
       </c>
       <c r="D87" s="11"/>
       <c r="E87" s="11">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="F87" s="11">
-        <v>68</v>
+        <v>0</v>
       </c>
       <c r="G87" s="11">
         <v>0</v>
       </c>
       <c r="H87" s="11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="I87" s="11">
         <v>0</v>
       </c>
-      <c r="J87" s="11">
-        <v>28</v>
-      </c>
-      <c r="K87" s="11">
-        <v>0</v>
+      <c r="J87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K87" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L87" s="11" t="s">
         <v>57</v>
@@ -12347,25 +12347,25 @@
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>25128</v>
+        <v>10965</v>
       </c>
       <c r="F88" s="13">
-        <v>23277</v>
+        <v>4144</v>
       </c>
       <c r="G88" s="13">
-        <v>10965</v>
+        <v>3803</v>
       </c>
       <c r="H88" s="13">
-        <v>4144</v>
+        <v>16730</v>
       </c>
       <c r="I88" s="13">
-        <v>3803</v>
-      </c>
-      <c r="J88" s="13">
-        <v>16730</v>
-      </c>
-      <c r="K88" s="13">
         <v>36561</v>
+      </c>
+      <c r="J88" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K88" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L88" s="13" t="s">
         <v>57</v>
@@ -12506,25 +12506,25 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>56659</v>
+        <v>24213</v>
       </c>
       <c r="F89" s="11">
-        <v>71656</v>
+        <v>4180</v>
       </c>
       <c r="G89" s="11">
-        <v>24213</v>
+        <v>1902</v>
       </c>
       <c r="H89" s="11">
-        <v>4180</v>
+        <v>5374</v>
       </c>
       <c r="I89" s="11">
-        <v>1902</v>
-      </c>
-      <c r="J89" s="11">
-        <v>5374</v>
-      </c>
-      <c r="K89" s="11">
         <v>7659</v>
+      </c>
+      <c r="J89" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K89" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L89" s="11" t="s">
         <v>57</v>
@@ -12665,10 +12665,10 @@
       </c>
       <c r="D90" s="13"/>
       <c r="E90" s="13">
-        <v>605</v>
+        <v>0</v>
       </c>
       <c r="F90" s="13">
-        <v>549</v>
+        <v>0</v>
       </c>
       <c r="G90" s="13">
         <v>0</v>
@@ -12679,11 +12679,11 @@
       <c r="I90" s="13">
         <v>0</v>
       </c>
-      <c r="J90" s="13">
-        <v>0</v>
-      </c>
-      <c r="K90" s="13">
-        <v>0</v>
+      <c r="J90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K90" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L90" s="13" t="s">
         <v>57</v>
@@ -12824,26 +12824,26 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>2404</v>
+        <v>3085</v>
       </c>
       <c r="F91" s="11">
-        <v>4768</v>
+        <v>2849</v>
       </c>
       <c r="G91" s="11">
-        <v>3085</v>
+        <v>2396</v>
       </c>
       <c r="H91" s="11">
-        <v>2849</v>
+        <v>2474</v>
       </c>
       <c r="I91" s="11">
-        <v>2396</v>
-      </c>
-      <c r="J91" s="11">
-        <v>2474</v>
-      </c>
-      <c r="K91" s="11">
         <v>586</v>
       </c>
+      <c r="J91" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K91" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L91" s="11" t="s">
         <v>57</v>
       </c>
@@ -12946,23 +12946,23 @@
       <c r="AS91" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT91" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU91" s="11" t="s">
-        <v>57</v>
+      <c r="AT91" s="11">
+        <v>166</v>
+      </c>
+      <c r="AU91" s="11">
+        <v>3486</v>
       </c>
       <c r="AV91" s="11">
-        <v>166</v>
+        <v>5883</v>
       </c>
       <c r="AW91" s="11">
-        <v>3486</v>
+        <v>619</v>
       </c>
       <c r="AX91" s="11">
-        <v>5883</v>
+        <v>0</v>
       </c>
       <c r="AY91" s="11">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="AZ91" s="11">
         <v>0</v>
@@ -12983,26 +12983,26 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
-        <v>11726</v>
+        <v>6118</v>
       </c>
       <c r="F92" s="13">
-        <v>3044</v>
+        <v>5135</v>
       </c>
       <c r="G92" s="13">
-        <v>6118</v>
+        <v>1605</v>
       </c>
       <c r="H92" s="13">
-        <v>5135</v>
+        <v>2602</v>
       </c>
       <c r="I92" s="13">
-        <v>1605</v>
-      </c>
-      <c r="J92" s="13">
-        <v>2602</v>
-      </c>
-      <c r="K92" s="13">
         <v>4927</v>
       </c>
+      <c r="J92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K92" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="L92" s="13" t="s">
         <v>57</v>
       </c>
@@ -13105,32 +13105,32 @@
       <c r="AS92" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT92" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU92" s="13" t="s">
-        <v>57</v>
+      <c r="AT92" s="13">
+        <v>148012</v>
+      </c>
+      <c r="AU92" s="13">
+        <v>220950</v>
       </c>
       <c r="AV92" s="13">
-        <v>148012</v>
+        <v>193683</v>
       </c>
       <c r="AW92" s="13">
-        <v>220950</v>
+        <v>42458</v>
       </c>
       <c r="AX92" s="13">
-        <v>193683</v>
+        <v>64244</v>
       </c>
       <c r="AY92" s="13">
-        <v>42458</v>
+        <v>35298</v>
       </c>
       <c r="AZ92" s="13">
-        <v>64244</v>
+        <v>62922</v>
       </c>
       <c r="BA92" s="13">
-        <v>35298</v>
+        <v>100129</v>
       </c>
       <c r="BB92" s="13">
-        <v>62922</v>
+        <v>124937</v>
       </c>
     </row>
     <row r="93" spans="2:54" x14ac:dyDescent="0.3">
@@ -13142,26 +13142,26 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>4021</v>
+        <v>1335</v>
       </c>
       <c r="F93" s="11">
-        <v>4073</v>
+        <v>812</v>
       </c>
       <c r="G93" s="11">
-        <v>1335</v>
+        <v>2813</v>
       </c>
       <c r="H93" s="11">
-        <v>812</v>
+        <v>4845</v>
       </c>
       <c r="I93" s="11">
-        <v>2813</v>
-      </c>
-      <c r="J93" s="11">
-        <v>4845</v>
-      </c>
-      <c r="K93" s="11">
         <v>11520</v>
       </c>
+      <c r="J93" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K93" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L93" s="11" t="s">
         <v>57</v>
       </c>
@@ -13264,32 +13264,32 @@
       <c r="AS93" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT93" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU93" s="11" t="s">
-        <v>57</v>
+      <c r="AT93" s="11">
+        <v>129823</v>
+      </c>
+      <c r="AU93" s="11">
+        <v>244427</v>
       </c>
       <c r="AV93" s="11">
-        <v>129823</v>
+        <v>247658</v>
       </c>
       <c r="AW93" s="11">
-        <v>244427</v>
+        <v>57581</v>
       </c>
       <c r="AX93" s="11">
-        <v>247658</v>
+        <v>30235</v>
       </c>
       <c r="AY93" s="11">
-        <v>57581</v>
+        <v>30629</v>
       </c>
       <c r="AZ93" s="11">
-        <v>30235</v>
+        <v>33683</v>
       </c>
       <c r="BA93" s="11">
-        <v>30629</v>
+        <v>53545</v>
       </c>
       <c r="BB93" s="11">
-        <v>33683</v>
+        <v>37553</v>
       </c>
     </row>
     <row r="94" spans="2:54" x14ac:dyDescent="0.3">
@@ -13423,32 +13423,32 @@
       <c r="AS94" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT94" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU94" s="13" t="s">
-        <v>57</v>
+      <c r="AT94" s="13">
+        <v>150205</v>
+      </c>
+      <c r="AU94" s="13">
+        <v>44996</v>
       </c>
       <c r="AV94" s="13">
-        <v>150205</v>
+        <v>35002</v>
       </c>
       <c r="AW94" s="13">
-        <v>44996</v>
+        <v>26078</v>
       </c>
       <c r="AX94" s="13">
-        <v>35002</v>
+        <v>33744</v>
       </c>
       <c r="AY94" s="13">
-        <v>26078</v>
+        <v>49053</v>
       </c>
       <c r="AZ94" s="13">
-        <v>33744</v>
+        <v>61861</v>
       </c>
       <c r="BA94" s="13">
-        <v>49053</v>
+        <v>62877</v>
       </c>
       <c r="BB94" s="13">
-        <v>61861</v>
+        <v>29791</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -13582,20 +13582,20 @@
       <c r="AS95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT95" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU95" s="11" t="s">
-        <v>57</v>
+      <c r="AT95" s="11">
+        <v>10245</v>
+      </c>
+      <c r="AU95" s="11">
+        <v>3038</v>
       </c>
       <c r="AV95" s="11">
-        <v>10245</v>
+        <v>147</v>
       </c>
       <c r="AW95" s="11">
-        <v>3038</v>
+        <v>0</v>
       </c>
       <c r="AX95" s="11">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AY95" s="11">
         <v>0</v>
@@ -13741,11 +13741,11 @@
       <c r="AS96" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT96" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU96" s="13" t="s">
-        <v>57</v>
+      <c r="AT96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU96" s="13">
+        <v>0</v>
       </c>
       <c r="AV96" s="13">
         <v>0</v>
@@ -13894,11 +13894,11 @@
       <c r="X98" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y98" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z98" s="17" t="s">
-        <v>57</v>
+      <c r="Y98" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z98" s="17">
+        <v>0</v>
       </c>
       <c r="AA98" s="17">
         <v>0</v>
@@ -14110,11 +14110,11 @@
       <c r="X100" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="Y100" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z100" s="17" t="s">
-        <v>57</v>
+      <c r="Y100" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="17">
+        <v>0</v>
       </c>
       <c r="AA100" s="17">
         <v>0</v>
@@ -14326,11 +14326,11 @@
       <c r="X102" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y102" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z102" s="11" t="s">
-        <v>57</v>
+      <c r="Y102" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="11">
+        <v>0</v>
       </c>
       <c r="AA102" s="11">
         <v>0</v>
@@ -14424,154 +14424,154 @@
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
       <c r="E103" s="19">
-        <v>202184</v>
+        <v>126012</v>
       </c>
       <c r="F103" s="19">
-        <v>204758</v>
+        <v>71907</v>
       </c>
       <c r="G103" s="19">
-        <v>126012</v>
+        <v>36273</v>
       </c>
       <c r="H103" s="19">
-        <v>71907</v>
+        <v>66849</v>
       </c>
       <c r="I103" s="19">
-        <v>36273</v>
+        <v>149267</v>
       </c>
       <c r="J103" s="19">
-        <v>66849</v>
+        <v>125155</v>
       </c>
       <c r="K103" s="19">
-        <v>149267</v>
+        <v>188984</v>
       </c>
       <c r="L103" s="19">
-        <v>125155</v>
+        <v>205340</v>
       </c>
       <c r="M103" s="19">
-        <v>188984</v>
+        <v>241662</v>
       </c>
       <c r="N103" s="19">
-        <v>205340</v>
+        <v>262513</v>
       </c>
       <c r="O103" s="19">
-        <v>241662</v>
+        <v>262790</v>
       </c>
       <c r="P103" s="19">
-        <v>262513</v>
+        <v>260755</v>
       </c>
       <c r="Q103" s="19">
-        <v>262790</v>
+        <v>241026</v>
       </c>
       <c r="R103" s="19">
-        <v>260755</v>
+        <v>133912</v>
       </c>
       <c r="S103" s="19">
-        <v>241026</v>
+        <v>70106</v>
       </c>
       <c r="T103" s="19">
-        <v>133912</v>
+        <v>35704</v>
       </c>
       <c r="U103" s="19">
-        <v>70106</v>
+        <v>213433</v>
       </c>
       <c r="V103" s="19">
-        <v>35704</v>
+        <v>263568</v>
       </c>
       <c r="W103" s="19">
-        <v>213433</v>
+        <v>406898</v>
       </c>
       <c r="X103" s="19">
-        <v>263568</v>
+        <v>431484</v>
       </c>
       <c r="Y103" s="19">
-        <v>406898</v>
+        <v>498320</v>
       </c>
       <c r="Z103" s="19">
-        <v>431484</v>
+        <v>449757</v>
       </c>
       <c r="AA103" s="19">
-        <v>498320</v>
+        <v>422623</v>
       </c>
       <c r="AB103" s="19">
-        <v>449757</v>
+        <v>405092</v>
       </c>
       <c r="AC103" s="19">
-        <v>422623</v>
+        <v>442026</v>
       </c>
       <c r="AD103" s="19">
-        <v>405092</v>
+        <v>280728</v>
       </c>
       <c r="AE103" s="19">
-        <v>442026</v>
+        <v>148180</v>
       </c>
       <c r="AF103" s="19">
-        <v>280728</v>
+        <v>283021</v>
       </c>
       <c r="AG103" s="19">
-        <v>148180</v>
+        <v>314326</v>
       </c>
       <c r="AH103" s="19">
-        <v>283021</v>
+        <v>464238</v>
       </c>
       <c r="AI103" s="19">
-        <v>314326</v>
+        <v>703795</v>
       </c>
       <c r="AJ103" s="19">
-        <v>464238</v>
+        <v>714509</v>
       </c>
       <c r="AK103" s="19">
-        <v>703795</v>
+        <v>762965</v>
       </c>
       <c r="AL103" s="19">
-        <v>714509</v>
+        <v>867508</v>
       </c>
       <c r="AM103" s="19">
-        <v>762965</v>
+        <v>1138581</v>
       </c>
       <c r="AN103" s="19">
-        <v>867508</v>
+        <v>719780</v>
       </c>
       <c r="AO103" s="19">
-        <v>1138581</v>
+        <v>616783</v>
       </c>
       <c r="AP103" s="19">
-        <v>719780</v>
+        <v>0</v>
       </c>
       <c r="AQ103" s="19">
-        <v>616783</v>
+        <v>106844</v>
       </c>
       <c r="AR103" s="19">
-        <v>0</v>
+        <v>208384</v>
       </c>
       <c r="AS103" s="19">
-        <v>106844</v>
+        <v>741450</v>
       </c>
       <c r="AT103" s="19">
-        <v>208384</v>
+        <v>979141</v>
       </c>
       <c r="AU103" s="19">
-        <v>741450</v>
+        <v>846865</v>
       </c>
       <c r="AV103" s="19">
-        <v>979141</v>
+        <v>1096762</v>
       </c>
       <c r="AW103" s="19">
-        <v>846865</v>
+        <v>838779</v>
       </c>
       <c r="AX103" s="19">
-        <v>1096762</v>
+        <v>845162</v>
       </c>
       <c r="AY103" s="19">
-        <v>838779</v>
+        <v>966555</v>
       </c>
       <c r="AZ103" s="19">
-        <v>845162</v>
+        <v>811647</v>
       </c>
       <c r="BA103" s="19">
-        <v>966555</v>
+        <v>879166</v>
       </c>
       <c r="BB103" s="19">
-        <v>811647</v>
+        <v>680238</v>
       </c>
     </row>
     <row r="104" spans="2:54" x14ac:dyDescent="0.3">
@@ -15067,21 +15067,21 @@
       <c r="U110" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="V110" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="W110" s="11" t="s">
-        <v>57</v>
+      <c r="V110" s="11">
+        <v>1114912</v>
+      </c>
+      <c r="W110" s="11">
+        <v>1216518</v>
       </c>
       <c r="X110" s="11">
-        <v>1114912</v>
-      </c>
-      <c r="Y110" s="11">
-        <v>1216518</v>
-      </c>
-      <c r="Z110" s="11">
         <v>1325818</v>
       </c>
+      <c r="Y110" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z110" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AA110" s="11" t="s">
         <v>57</v>
       </c>
@@ -15139,32 +15139,32 @@
       <c r="AS110" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT110" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU110" s="11" t="s">
-        <v>57</v>
+      <c r="AT110" s="11">
+        <v>6713356</v>
+      </c>
+      <c r="AU110" s="11">
+        <v>6785291</v>
       </c>
       <c r="AV110" s="11">
-        <v>6713356</v>
+        <v>7738839</v>
       </c>
       <c r="AW110" s="11">
-        <v>6785291</v>
+        <v>8174603</v>
       </c>
       <c r="AX110" s="11">
-        <v>7738839</v>
+        <v>7912657</v>
       </c>
       <c r="AY110" s="11">
-        <v>8174603</v>
+        <v>5440497</v>
       </c>
       <c r="AZ110" s="11">
-        <v>7912657</v>
+        <v>4444767</v>
       </c>
       <c r="BA110" s="11">
-        <v>5440497</v>
+        <v>4168642</v>
       </c>
       <c r="BB110" s="11">
-        <v>4444767</v>
+        <v>3604323</v>
       </c>
     </row>
     <row r="111" spans="2:54" x14ac:dyDescent="0.3">
@@ -15226,20 +15226,20 @@
       <c r="U111" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="V111" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="W111" s="13" t="s">
-        <v>57</v>
+      <c r="V111" s="13">
+        <v>1992595</v>
+      </c>
+      <c r="W111" s="13">
+        <v>1972649</v>
       </c>
       <c r="X111" s="13">
-        <v>1992595</v>
-      </c>
-      <c r="Y111" s="13">
-        <v>1972649</v>
-      </c>
-      <c r="Z111" s="13">
         <v>1987739</v>
+      </c>
+      <c r="Y111" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="Z111" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AA111" s="13" t="s">
         <v>57</v>
@@ -15358,20 +15358,20 @@
       <c r="L112" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="M112" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="N112" s="11" t="s">
-        <v>57</v>
+      <c r="M112" s="11">
+        <v>953012</v>
+      </c>
+      <c r="N112" s="11">
+        <v>1068894</v>
       </c>
       <c r="O112" s="11">
-        <v>953012</v>
+        <v>1075472</v>
       </c>
       <c r="P112" s="11">
-        <v>1068894</v>
+        <v>0</v>
       </c>
       <c r="Q112" s="11">
-        <v>1075472</v>
+        <v>0</v>
       </c>
       <c r="R112" s="11">
         <v>0</v>
@@ -15383,85 +15383,85 @@
         <v>0</v>
       </c>
       <c r="U112" s="11">
-        <v>0</v>
-      </c>
-      <c r="V112" s="11">
-        <v>0</v>
-      </c>
-      <c r="W112" s="11">
         <v>696402</v>
       </c>
+      <c r="V112" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W112" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X112" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y112" s="11" t="s">
-        <v>57</v>
+      <c r="Y112" s="11">
+        <v>1391304</v>
       </c>
       <c r="Z112" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AA112" s="11">
-        <v>1391304</v>
+      <c r="AA112" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AB112" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AC112" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AD112" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AE112" s="11">
+      <c r="AC112" s="11">
         <v>3674020</v>
       </c>
+      <c r="AD112" s="11">
+        <v>2995512</v>
+      </c>
+      <c r="AE112" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AF112" s="11">
-        <v>2995512</v>
-      </c>
-      <c r="AG112" s="11" t="s">
-        <v>57</v>
+        <v>2407895</v>
+      </c>
+      <c r="AG112" s="11">
+        <v>3507014</v>
       </c>
       <c r="AH112" s="11">
-        <v>2407895</v>
+        <v>4146361</v>
       </c>
       <c r="AI112" s="11">
-        <v>3507014</v>
+        <v>4389761</v>
       </c>
       <c r="AJ112" s="11">
-        <v>4146361</v>
+        <v>5168246</v>
       </c>
       <c r="AK112" s="11">
-        <v>4389761</v>
+        <v>5451807</v>
       </c>
       <c r="AL112" s="11">
-        <v>5168246</v>
+        <v>6544528</v>
       </c>
       <c r="AM112" s="11">
-        <v>5451807</v>
+        <v>7080000</v>
       </c>
       <c r="AN112" s="11">
-        <v>6544528</v>
+        <v>6595025</v>
       </c>
       <c r="AO112" s="11">
-        <v>7080000</v>
-      </c>
-      <c r="AP112" s="11">
-        <v>6595025</v>
+        <v>6088126</v>
+      </c>
+      <c r="AP112" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ112" s="11">
-        <v>6088126</v>
-      </c>
-      <c r="AR112" s="11" t="s">
-        <v>57</v>
+        <v>6480000</v>
+      </c>
+      <c r="AR112" s="11">
+        <v>5916691</v>
       </c>
       <c r="AS112" s="11">
-        <v>6480000</v>
-      </c>
-      <c r="AT112" s="11">
-        <v>5916691</v>
-      </c>
-      <c r="AU112" s="11">
         <v>6021669</v>
+      </c>
+      <c r="AT112" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU112" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV112" s="11" t="s">
         <v>57</v>
@@ -15494,25 +15494,25 @@
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13">
-        <v>1268251</v>
+        <v>1296302</v>
       </c>
       <c r="F113" s="13">
-        <v>1320654</v>
+        <v>1302134</v>
       </c>
       <c r="G113" s="13">
-        <v>1296302</v>
+        <v>934027</v>
       </c>
       <c r="H113" s="13">
-        <v>1302134</v>
+        <v>1271089</v>
       </c>
       <c r="I113" s="13">
-        <v>934027</v>
-      </c>
-      <c r="J113" s="13">
-        <v>1271089</v>
-      </c>
-      <c r="K113" s="13">
         <v>1221755</v>
+      </c>
+      <c r="J113" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K113" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L113" s="13" t="s">
         <v>57</v>
@@ -15653,26 +15653,26 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>1481415</v>
+        <v>1481579</v>
       </c>
       <c r="F114" s="11">
-        <v>1481198</v>
+        <v>1651571</v>
       </c>
       <c r="G114" s="11">
-        <v>1481579</v>
+        <v>1449000</v>
       </c>
       <c r="H114" s="11">
-        <v>1651571</v>
+        <v>1640838</v>
       </c>
       <c r="I114" s="11">
-        <v>1449000</v>
-      </c>
-      <c r="J114" s="11">
-        <v>1640838</v>
-      </c>
-      <c r="K114" s="11">
         <v>1621928</v>
       </c>
+      <c r="J114" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K114" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L114" s="11" t="s">
         <v>57</v>
       </c>
@@ -15775,23 +15775,23 @@
       <c r="AS114" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT114" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU114" s="11" t="s">
-        <v>57</v>
+      <c r="AT114" s="11">
+        <v>5471429</v>
+      </c>
+      <c r="AU114" s="11">
+        <v>5940417</v>
       </c>
       <c r="AV114" s="11">
-        <v>5471429</v>
+        <v>6136274</v>
       </c>
       <c r="AW114" s="11">
-        <v>5940417</v>
-      </c>
-      <c r="AX114" s="11">
-        <v>6136274</v>
-      </c>
-      <c r="AY114" s="11">
         <v>7359191</v>
+      </c>
+      <c r="AX114" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY114" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AZ114" s="11" t="s">
         <v>57</v>
@@ -15812,25 +15812,25 @@
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13">
-        <v>1519550</v>
+        <v>1530040</v>
       </c>
       <c r="F115" s="13">
-        <v>1525741</v>
+        <v>1642775</v>
       </c>
       <c r="G115" s="13">
-        <v>1530040</v>
+        <v>1452732</v>
       </c>
       <c r="H115" s="13">
-        <v>1642775</v>
+        <v>1503513</v>
       </c>
       <c r="I115" s="13">
-        <v>1452732</v>
-      </c>
-      <c r="J115" s="13">
-        <v>1503513</v>
-      </c>
-      <c r="K115" s="13">
         <v>1493363</v>
+      </c>
+      <c r="J115" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K115" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L115" s="13" t="s">
         <v>57</v>
@@ -15971,26 +15971,26 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>1314286</v>
+        <v>1316832</v>
       </c>
       <c r="F116" s="11">
-        <v>1313204</v>
+        <v>1325301</v>
       </c>
       <c r="G116" s="11">
-        <v>1316832</v>
+        <v>1294872</v>
       </c>
       <c r="H116" s="11">
-        <v>1325301</v>
+        <v>1258065</v>
       </c>
       <c r="I116" s="11">
-        <v>1294872</v>
-      </c>
-      <c r="J116" s="11">
-        <v>1258065</v>
-      </c>
-      <c r="K116" s="11">
         <v>1234043</v>
       </c>
+      <c r="J116" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K116" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L116" s="11" t="s">
         <v>57</v>
       </c>
@@ -16096,14 +16096,14 @@
       <c r="AT116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU116" s="11" t="s">
-        <v>57</v>
+      <c r="AU116" s="11">
+        <v>3449664</v>
       </c>
       <c r="AV116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AW116" s="11">
-        <v>3449664</v>
+      <c r="AW116" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AX116" s="11" t="s">
         <v>57</v>
@@ -16144,119 +16144,119 @@
       <c r="I117" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="J117" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="K117" s="13" t="s">
-        <v>57</v>
+      <c r="J117" s="13">
+        <v>1529890</v>
+      </c>
+      <c r="K117" s="13">
+        <v>1522335</v>
       </c>
       <c r="L117" s="13">
-        <v>1529890</v>
+        <v>0</v>
       </c>
       <c r="M117" s="13">
-        <v>1522335</v>
+        <v>1469277</v>
       </c>
       <c r="N117" s="13">
-        <v>0</v>
+        <v>1594662</v>
       </c>
       <c r="O117" s="13">
-        <v>1469277</v>
+        <v>1597069</v>
       </c>
       <c r="P117" s="13">
-        <v>1594662</v>
+        <v>1510216</v>
       </c>
       <c r="Q117" s="13">
-        <v>1597069</v>
+        <v>1474660</v>
       </c>
       <c r="R117" s="13">
-        <v>1510216</v>
+        <v>1423412</v>
       </c>
       <c r="S117" s="13">
-        <v>1474660</v>
+        <v>1410569</v>
       </c>
       <c r="T117" s="13">
-        <v>1423412</v>
+        <v>1435023</v>
       </c>
       <c r="U117" s="13">
-        <v>1410569</v>
-      </c>
-      <c r="V117" s="13">
-        <v>1435023</v>
-      </c>
-      <c r="W117" s="13">
         <v>1378034</v>
       </c>
+      <c r="V117" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W117" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="X117" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y117" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z117" s="13" t="s">
-        <v>57</v>
+      <c r="Y117" s="13">
+        <v>2602742</v>
+      </c>
+      <c r="Z117" s="13">
+        <v>2535381</v>
       </c>
       <c r="AA117" s="13">
-        <v>2602742</v>
+        <v>2872843</v>
       </c>
       <c r="AB117" s="13">
-        <v>2535381</v>
+        <v>3327801</v>
       </c>
       <c r="AC117" s="13">
-        <v>2872843</v>
+        <v>4089409</v>
       </c>
       <c r="AD117" s="13">
-        <v>3327801</v>
+        <v>3424573</v>
       </c>
       <c r="AE117" s="13">
-        <v>4089409</v>
+        <v>3407518</v>
       </c>
       <c r="AF117" s="13">
-        <v>3424573</v>
+        <v>3337969</v>
       </c>
       <c r="AG117" s="13">
-        <v>3407518</v>
+        <v>3072822</v>
       </c>
       <c r="AH117" s="13">
-        <v>3337969</v>
+        <v>4817654</v>
       </c>
       <c r="AI117" s="13">
-        <v>3072822</v>
+        <v>3418177</v>
       </c>
       <c r="AJ117" s="13">
-        <v>4817654</v>
+        <v>4057511</v>
       </c>
       <c r="AK117" s="13">
-        <v>3418177</v>
+        <v>5715968</v>
       </c>
       <c r="AL117" s="13">
-        <v>4057511</v>
+        <v>7033281</v>
       </c>
       <c r="AM117" s="13">
-        <v>5715968</v>
+        <v>7640982</v>
       </c>
       <c r="AN117" s="13">
-        <v>7033281</v>
+        <v>7775423</v>
       </c>
       <c r="AO117" s="13">
-        <v>7640982</v>
-      </c>
-      <c r="AP117" s="13">
-        <v>7775423</v>
+        <v>7133019</v>
+      </c>
+      <c r="AP117" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ117" s="13">
-        <v>7133019</v>
-      </c>
-      <c r="AR117" s="13" t="s">
-        <v>57</v>
+        <v>9472554</v>
+      </c>
+      <c r="AR117" s="13">
+        <v>8599379</v>
       </c>
       <c r="AS117" s="13">
-        <v>9472554</v>
-      </c>
-      <c r="AT117" s="13">
-        <v>8599379</v>
-      </c>
-      <c r="AU117" s="13">
         <v>8324906</v>
+      </c>
+      <c r="AT117" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU117" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AV117" s="13" t="s">
         <v>57</v>
@@ -16303,119 +16303,119 @@
       <c r="I118" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="J118" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="K118" s="11" t="s">
-        <v>57</v>
+      <c r="J118" s="11">
+        <v>1339095</v>
+      </c>
+      <c r="K118" s="11">
+        <v>1427146</v>
       </c>
       <c r="L118" s="11">
-        <v>1339095</v>
+        <v>1424360</v>
       </c>
       <c r="M118" s="11">
-        <v>1427146</v>
+        <v>1764568</v>
       </c>
       <c r="N118" s="11">
-        <v>1424360</v>
+        <v>1904908</v>
       </c>
       <c r="O118" s="11">
-        <v>1764568</v>
+        <v>1901566</v>
       </c>
       <c r="P118" s="11">
-        <v>1904908</v>
+        <v>1903814</v>
       </c>
       <c r="Q118" s="11">
-        <v>1901566</v>
+        <v>1901794</v>
       </c>
       <c r="R118" s="11">
-        <v>1903814</v>
+        <v>1880863</v>
       </c>
       <c r="S118" s="11">
-        <v>1901794</v>
+        <v>1904839</v>
       </c>
       <c r="T118" s="11">
-        <v>1880863</v>
+        <v>1916003</v>
       </c>
       <c r="U118" s="11">
-        <v>1904839</v>
-      </c>
-      <c r="V118" s="11">
-        <v>1916003</v>
-      </c>
-      <c r="W118" s="11">
         <v>1965066</v>
       </c>
+      <c r="V118" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="W118" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="X118" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y118" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="Z118" s="11" t="s">
-        <v>57</v>
+      <c r="Y118" s="11">
+        <v>2294797</v>
+      </c>
+      <c r="Z118" s="11">
+        <v>2432787</v>
       </c>
       <c r="AA118" s="11">
-        <v>2294797</v>
+        <v>2478239</v>
       </c>
       <c r="AB118" s="11">
-        <v>2432787</v>
+        <v>2549567</v>
       </c>
       <c r="AC118" s="11">
-        <v>2478239</v>
+        <v>2646964</v>
       </c>
       <c r="AD118" s="11">
-        <v>2549567</v>
+        <v>2569394</v>
       </c>
       <c r="AE118" s="11">
-        <v>2646964</v>
+        <v>2574327</v>
       </c>
       <c r="AF118" s="11">
-        <v>2569394</v>
+        <v>2725205</v>
       </c>
       <c r="AG118" s="11">
-        <v>2574327</v>
+        <v>2699486</v>
       </c>
       <c r="AH118" s="11">
-        <v>2725205</v>
+        <v>2843764</v>
       </c>
       <c r="AI118" s="11">
-        <v>2699486</v>
+        <v>3744358</v>
       </c>
       <c r="AJ118" s="11">
-        <v>2843764</v>
+        <v>3831716</v>
       </c>
       <c r="AK118" s="11">
-        <v>3744358</v>
+        <v>4735872</v>
       </c>
       <c r="AL118" s="11">
-        <v>3831716</v>
+        <v>5763276</v>
       </c>
       <c r="AM118" s="11">
-        <v>4735872</v>
+        <v>5864580</v>
       </c>
       <c r="AN118" s="11">
-        <v>5763276</v>
+        <v>4596331</v>
       </c>
       <c r="AO118" s="11">
-        <v>5864580</v>
-      </c>
-      <c r="AP118" s="11">
-        <v>4596331</v>
+        <v>4395661</v>
+      </c>
+      <c r="AP118" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AQ118" s="11">
-        <v>4395661</v>
-      </c>
-      <c r="AR118" s="11" t="s">
-        <v>57</v>
+        <v>4193566</v>
+      </c>
+      <c r="AR118" s="11">
+        <v>4669373</v>
       </c>
       <c r="AS118" s="11">
-        <v>4193566</v>
-      </c>
-      <c r="AT118" s="11">
-        <v>4669373</v>
-      </c>
-      <c r="AU118" s="11">
         <v>4950688</v>
+      </c>
+      <c r="AT118" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AU118" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV118" s="11" t="s">
         <v>57</v>
@@ -16471,14 +16471,14 @@
       <c r="L119" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="M119" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="N119" s="13" t="s">
-        <v>57</v>
+      <c r="M119" s="13">
+        <v>825444</v>
+      </c>
+      <c r="N119" s="13">
+        <v>0</v>
       </c>
       <c r="O119" s="13">
-        <v>825444</v>
+        <v>0</v>
       </c>
       <c r="P119" s="13">
         <v>0</v>
@@ -16498,11 +16498,11 @@
       <c r="U119" s="13">
         <v>0</v>
       </c>
-      <c r="V119" s="13">
-        <v>0</v>
-      </c>
-      <c r="W119" s="13">
-        <v>0</v>
+      <c r="V119" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="W119" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="X119" s="13" t="s">
         <v>57</v>
@@ -16729,32 +16729,32 @@
       <c r="AS120" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT120" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU120" s="11" t="s">
-        <v>57</v>
+      <c r="AT120" s="11">
+        <v>4902755</v>
+      </c>
+      <c r="AU120" s="11">
+        <v>5139604</v>
       </c>
       <c r="AV120" s="11">
-        <v>4902755</v>
+        <v>5988780</v>
       </c>
       <c r="AW120" s="11">
-        <v>5139604</v>
+        <v>5470834</v>
       </c>
       <c r="AX120" s="11">
-        <v>5988780</v>
+        <v>5350714</v>
       </c>
       <c r="AY120" s="11">
-        <v>5470834</v>
+        <v>5212402</v>
       </c>
       <c r="AZ120" s="11">
-        <v>5350714</v>
+        <v>5224334</v>
       </c>
       <c r="BA120" s="11">
-        <v>5212402</v>
+        <v>5229959</v>
       </c>
       <c r="BB120" s="11">
-        <v>5224334</v>
+        <v>5256459</v>
       </c>
     </row>
     <row r="121" spans="2:54" x14ac:dyDescent="0.3">
@@ -16888,32 +16888,32 @@
       <c r="AS121" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT121" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU121" s="13" t="s">
-        <v>57</v>
+      <c r="AT121" s="13">
+        <v>5633979</v>
+      </c>
+      <c r="AU121" s="13">
+        <v>5990470</v>
       </c>
       <c r="AV121" s="13">
-        <v>5633979</v>
+        <v>7077117</v>
       </c>
       <c r="AW121" s="13">
-        <v>5990470</v>
+        <v>7231962</v>
       </c>
       <c r="AX121" s="13">
-        <v>7077117</v>
+        <v>7066097</v>
       </c>
       <c r="AY121" s="13">
-        <v>7231962</v>
+        <v>6948675</v>
       </c>
       <c r="AZ121" s="13">
-        <v>7066097</v>
+        <v>6901832</v>
       </c>
       <c r="BA121" s="13">
-        <v>6948675</v>
+        <v>6885495</v>
       </c>
       <c r="BB121" s="13">
-        <v>6901832</v>
+        <v>6524394</v>
       </c>
     </row>
     <row r="122" spans="2:54" x14ac:dyDescent="0.3">
@@ -16925,25 +16925,25 @@
       </c>
       <c r="D122" s="11"/>
       <c r="E122" s="11">
-        <v>1266667</v>
+        <v>0</v>
       </c>
       <c r="F122" s="11">
-        <v>1307692</v>
+        <v>0</v>
       </c>
       <c r="G122" s="11">
         <v>0</v>
       </c>
       <c r="H122" s="11">
-        <v>0</v>
+        <v>1333333</v>
       </c>
       <c r="I122" s="11">
         <v>0</v>
       </c>
-      <c r="J122" s="11">
-        <v>1333333</v>
-      </c>
-      <c r="K122" s="11">
-        <v>0</v>
+      <c r="J122" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K122" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L122" s="11" t="s">
         <v>57</v>
@@ -17084,25 +17084,25 @@
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="13">
-        <v>1447299</v>
+        <v>1454051</v>
       </c>
       <c r="F123" s="13">
-        <v>1449107</v>
+        <v>1615595</v>
       </c>
       <c r="G123" s="13">
-        <v>1454051</v>
+        <v>1455415</v>
       </c>
       <c r="H123" s="13">
-        <v>1615595</v>
+        <v>1519942</v>
       </c>
       <c r="I123" s="13">
-        <v>1455415</v>
-      </c>
-      <c r="J123" s="13">
-        <v>1519942</v>
-      </c>
-      <c r="K123" s="13">
         <v>1446929</v>
+      </c>
+      <c r="J123" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K123" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L123" s="13" t="s">
         <v>57</v>
@@ -17243,25 +17243,25 @@
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>1687787</v>
+        <v>1789182</v>
       </c>
       <c r="F124" s="11">
-        <v>1973288</v>
+        <v>1626459</v>
       </c>
       <c r="G124" s="11">
-        <v>1789182</v>
+        <v>1665499</v>
       </c>
       <c r="H124" s="11">
-        <v>1626459</v>
+        <v>1582450</v>
       </c>
       <c r="I124" s="11">
-        <v>1665499</v>
-      </c>
-      <c r="J124" s="11">
-        <v>1582450</v>
-      </c>
-      <c r="K124" s="11">
         <v>1556391</v>
+      </c>
+      <c r="J124" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K124" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="L124" s="11" t="s">
         <v>57</v>
@@ -17402,10 +17402,10 @@
       </c>
       <c r="D125" s="13"/>
       <c r="E125" s="13">
-        <v>1098004</v>
+        <v>0</v>
       </c>
       <c r="F125" s="13">
-        <v>1291765</v>
+        <v>0</v>
       </c>
       <c r="G125" s="13">
         <v>0</v>
@@ -17416,11 +17416,11 @@
       <c r="I125" s="13">
         <v>0</v>
       </c>
-      <c r="J125" s="13">
-        <v>0</v>
-      </c>
-      <c r="K125" s="13">
-        <v>0</v>
+      <c r="J125" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K125" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="L125" s="13" t="s">
         <v>57</v>
@@ -17561,26 +17561,26 @@
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>1314379</v>
+        <v>1313325</v>
       </c>
       <c r="F126" s="11">
+        <v>1313509</v>
+      </c>
+      <c r="G126" s="11">
+        <v>1313596</v>
+      </c>
+      <c r="H126" s="11">
         <v>1313861</v>
       </c>
-      <c r="G126" s="11">
-        <v>1313325</v>
-      </c>
-      <c r="H126" s="11">
-        <v>1313509</v>
-      </c>
       <c r="I126" s="11">
-        <v>1313596</v>
-      </c>
-      <c r="J126" s="11">
-        <v>1313861</v>
-      </c>
-      <c r="K126" s="11">
         <v>1316854</v>
       </c>
+      <c r="J126" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K126" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L126" s="11" t="s">
         <v>57</v>
       </c>
@@ -17683,23 +17683,23 @@
       <c r="AS126" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT126" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU126" s="11" t="s">
-        <v>57</v>
+      <c r="AT126" s="11">
+        <v>3458333</v>
+      </c>
+      <c r="AU126" s="11">
+        <v>3448071</v>
       </c>
       <c r="AV126" s="11">
-        <v>3458333</v>
+        <v>3450440</v>
       </c>
       <c r="AW126" s="11">
-        <v>3448071</v>
-      </c>
-      <c r="AX126" s="11">
-        <v>3450440</v>
-      </c>
-      <c r="AY126" s="11">
         <v>3438889</v>
+      </c>
+      <c r="AX126" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY126" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AZ126" s="11" t="s">
         <v>57</v>
@@ -17720,26 +17720,26 @@
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>1338432</v>
+        <v>1310345</v>
       </c>
       <c r="F127" s="13">
-        <v>1280606</v>
+        <v>1313971</v>
       </c>
       <c r="G127" s="13">
-        <v>1310345</v>
+        <v>1118467</v>
       </c>
       <c r="H127" s="13">
-        <v>1313971</v>
+        <v>1205188</v>
       </c>
       <c r="I127" s="13">
-        <v>1118467</v>
-      </c>
-      <c r="J127" s="13">
-        <v>1205188</v>
-      </c>
-      <c r="K127" s="13">
         <v>1119264</v>
       </c>
+      <c r="J127" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K127" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="L127" s="13" t="s">
         <v>57</v>
       </c>
@@ -17842,32 +17842,32 @@
       <c r="AS127" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT127" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU127" s="13" t="s">
-        <v>57</v>
+      <c r="AT127" s="13">
+        <v>4563061</v>
+      </c>
+      <c r="AU127" s="13">
+        <v>4880716</v>
       </c>
       <c r="AV127" s="13">
-        <v>4563061</v>
+        <v>5302171</v>
       </c>
       <c r="AW127" s="13">
-        <v>4880716</v>
+        <v>5515459</v>
       </c>
       <c r="AX127" s="13">
-        <v>5302171</v>
+        <v>5490940</v>
       </c>
       <c r="AY127" s="13">
-        <v>5515459</v>
+        <v>5422120</v>
       </c>
       <c r="AZ127" s="13">
-        <v>5490940</v>
+        <v>5192441</v>
       </c>
       <c r="BA127" s="13">
-        <v>5422120</v>
+        <v>5042504</v>
       </c>
       <c r="BB127" s="13">
-        <v>5192441</v>
+        <v>5001081</v>
       </c>
     </row>
     <row r="128" spans="2:54" x14ac:dyDescent="0.3">
@@ -17879,26 +17879,26 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>1383689</v>
+        <v>1389178</v>
       </c>
       <c r="F128" s="11">
-        <v>1445864</v>
+        <v>1543726</v>
       </c>
       <c r="G128" s="11">
-        <v>1389178</v>
+        <v>1022537</v>
       </c>
       <c r="H128" s="11">
-        <v>1543726</v>
+        <v>1330313</v>
       </c>
       <c r="I128" s="11">
-        <v>1022537</v>
-      </c>
-      <c r="J128" s="11">
-        <v>1330313</v>
-      </c>
-      <c r="K128" s="11">
         <v>1372082</v>
       </c>
+      <c r="J128" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K128" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="L128" s="11" t="s">
         <v>57</v>
       </c>
@@ -18001,32 +18001,32 @@
       <c r="AS128" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT128" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU128" s="11" t="s">
-        <v>57</v>
+      <c r="AT128" s="11">
+        <v>5588592</v>
+      </c>
+      <c r="AU128" s="11">
+        <v>5610499</v>
       </c>
       <c r="AV128" s="11">
-        <v>5588592</v>
+        <v>6267601</v>
       </c>
       <c r="AW128" s="11">
-        <v>5610499</v>
+        <v>7335159</v>
       </c>
       <c r="AX128" s="11">
-        <v>6267601</v>
+        <v>7297852</v>
       </c>
       <c r="AY128" s="11">
-        <v>7335159</v>
+        <v>6835305</v>
       </c>
       <c r="AZ128" s="11">
-        <v>7297852</v>
+        <v>6484983</v>
       </c>
       <c r="BA128" s="11">
-        <v>6835305</v>
+        <v>6139074</v>
       </c>
       <c r="BB128" s="11">
-        <v>6484983</v>
+        <v>5999840</v>
       </c>
     </row>
     <row r="129" spans="2:54" x14ac:dyDescent="0.3">
@@ -18160,32 +18160,32 @@
       <c r="AS129" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AT129" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU129" s="13" t="s">
-        <v>57</v>
+      <c r="AT129" s="13">
+        <v>4974664</v>
+      </c>
+      <c r="AU129" s="13">
+        <v>5067117</v>
       </c>
       <c r="AV129" s="13">
-        <v>4974664</v>
+        <v>6307803</v>
       </c>
       <c r="AW129" s="13">
-        <v>5067117</v>
+        <v>6782315</v>
       </c>
       <c r="AX129" s="13">
-        <v>6307803</v>
+        <v>6475533</v>
       </c>
       <c r="AY129" s="13">
-        <v>6782315</v>
+        <v>6303392</v>
       </c>
       <c r="AZ129" s="13">
-        <v>6475533</v>
+        <v>5867495</v>
       </c>
       <c r="BA129" s="13">
-        <v>6303392</v>
+        <v>5771709</v>
       </c>
       <c r="BB129" s="13">
-        <v>5867495</v>
+        <v>5819691</v>
       </c>
     </row>
     <row r="130" spans="2:54" x14ac:dyDescent="0.3">
@@ -18319,20 +18319,20 @@
       <c r="AS130" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AT130" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AU130" s="11" t="s">
-        <v>57</v>
+      <c r="AT130" s="11">
+        <v>4982977</v>
+      </c>
+      <c r="AU130" s="11">
+        <v>5396092</v>
       </c>
       <c r="AV130" s="11">
-        <v>4982977</v>
-      </c>
-      <c r="AW130" s="11">
-        <v>5396092</v>
-      </c>
-      <c r="AX130" s="11">
         <v>4741935</v>
+      </c>
+      <c r="AW130" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AX130" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AY130" s="11" t="s">
         <v>57</v>

--- a/database/industries/siman/saroum/product/monthly.xlsx
+++ b/database/industries/siman/saroum/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Trade\database\industries\siman\saroum\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\saroum\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76766451-78B9-43C2-BAD9-B44B3656C5B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF04958D-D73A-4EE5-9067-40AA070BB1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3806" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3804" uniqueCount="94">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>ساروم-سیمان‌ارومیه‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>کلینکر</t>
@@ -784,12 +784,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -844,7 +844,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -901,7 +901,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -958,7 +958,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1013,7 +1013,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1070,7 +1070,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1127,7 +1127,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1182,7 +1182,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1339,7 +1339,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1394,7 +1394,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1451,7 +1451,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1504,21 +1504,21 @@
       <c r="S11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U11" s="11" t="s">
-        <v>57</v>
+      <c r="T11" s="11">
+        <v>90828</v>
+      </c>
+      <c r="U11" s="11">
+        <v>192805</v>
       </c>
       <c r="V11" s="11">
-        <v>90828</v>
-      </c>
-      <c r="W11" s="11">
-        <v>192805</v>
-      </c>
-      <c r="X11" s="11">
         <v>189208</v>
       </c>
+      <c r="W11" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X11" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y11" s="11" t="s">
         <v>57</v>
       </c>
@@ -1576,41 +1576,41 @@
       <c r="AQ11" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR11" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS11" s="11" t="s">
-        <v>57</v>
+      <c r="AR11" s="11">
+        <v>191198</v>
+      </c>
+      <c r="AS11" s="11">
+        <v>174439</v>
       </c>
       <c r="AT11" s="11">
-        <v>191198</v>
+        <v>159986</v>
       </c>
       <c r="AU11" s="11">
-        <v>174439</v>
+        <v>85393</v>
       </c>
       <c r="AV11" s="11">
-        <v>159986</v>
+        <v>57318</v>
       </c>
       <c r="AW11" s="11">
-        <v>85393</v>
+        <v>127355</v>
       </c>
       <c r="AX11" s="11">
-        <v>57318</v>
+        <v>166320</v>
       </c>
       <c r="AY11" s="11">
-        <v>127355</v>
+        <v>129812</v>
       </c>
       <c r="AZ11" s="11">
-        <v>166320</v>
+        <v>186785</v>
       </c>
       <c r="BA11" s="11">
-        <v>129812</v>
+        <v>183620</v>
       </c>
       <c r="BB11" s="11">
-        <v>186785</v>
+        <v>114840</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>58</v>
       </c>
@@ -1663,21 +1663,21 @@
       <c r="S12" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T12" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>57</v>
+      <c r="T12" s="13">
+        <v>127821</v>
+      </c>
+      <c r="U12" s="13">
+        <v>209940</v>
       </c>
       <c r="V12" s="13">
-        <v>127821</v>
-      </c>
-      <c r="W12" s="13">
-        <v>209940</v>
-      </c>
-      <c r="X12" s="13">
         <v>205347</v>
       </c>
+      <c r="W12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y12" s="13" t="s">
         <v>57</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1795,20 +1795,20 @@
       <c r="J13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>57</v>
+      <c r="K13" s="11">
+        <v>0</v>
+      </c>
+      <c r="L13" s="11">
+        <v>4369</v>
       </c>
       <c r="M13" s="11">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="N13" s="11">
-        <v>4369</v>
+        <v>0</v>
       </c>
       <c r="O13" s="11">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="P13" s="11">
         <v>0</v>
@@ -1820,86 +1820,86 @@
         <v>0</v>
       </c>
       <c r="S13" s="11">
-        <v>0</v>
-      </c>
-      <c r="T13" s="11">
-        <v>0</v>
-      </c>
-      <c r="U13" s="11">
         <v>1334</v>
       </c>
+      <c r="T13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U13" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V13" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>57</v>
+      <c r="W13" s="11">
+        <v>23</v>
+      </c>
+      <c r="X13" s="11">
+        <v>0</v>
       </c>
       <c r="Y13" s="11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="11">
         <v>0</v>
       </c>
       <c r="AA13" s="11">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="AB13" s="11">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="AC13" s="11">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="AD13" s="11">
-        <v>1114</v>
+        <v>76</v>
       </c>
       <c r="AE13" s="11">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="AF13" s="11">
-        <v>76</v>
+        <v>7625</v>
       </c>
       <c r="AG13" s="11">
-        <v>499</v>
+        <v>8087</v>
       </c>
       <c r="AH13" s="11">
-        <v>7625</v>
+        <v>8969</v>
       </c>
       <c r="AI13" s="11">
-        <v>8087</v>
+        <v>6806</v>
       </c>
       <c r="AJ13" s="11">
-        <v>8969</v>
+        <v>2942</v>
       </c>
       <c r="AK13" s="11">
-        <v>6806</v>
+        <v>6875</v>
       </c>
       <c r="AL13" s="11">
-        <v>2942</v>
+        <v>1005</v>
       </c>
       <c r="AM13" s="11">
-        <v>6875</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>1005</v>
+        <v>3756</v>
+      </c>
+      <c r="AN13" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO13" s="11">
-        <v>3756</v>
-      </c>
-      <c r="AP13" s="11" t="s">
-        <v>57</v>
+        <v>25</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>3362</v>
       </c>
       <c r="AQ13" s="11">
-        <v>25</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>3362</v>
-      </c>
-      <c r="AS13" s="11">
         <v>13890</v>
       </c>
+      <c r="AR13" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS13" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT13" s="11" t="s">
         <v>57</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>60</v>
       </c>
@@ -1937,20 +1937,20 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>29853</v>
+        <v>9229</v>
       </c>
       <c r="F14" s="13">
-        <v>31429</v>
+        <v>17085</v>
       </c>
       <c r="G14" s="13">
-        <v>9229</v>
-      </c>
-      <c r="H14" s="13">
-        <v>17085</v>
-      </c>
-      <c r="I14" s="13">
         <v>37510</v>
       </c>
+      <c r="H14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J14" s="13" t="s">
         <v>57</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>61</v>
       </c>
@@ -2096,20 +2096,20 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>9468</v>
+        <v>4385</v>
       </c>
       <c r="F15" s="11">
-        <v>8792</v>
+        <v>2817</v>
       </c>
       <c r="G15" s="11">
-        <v>4385</v>
-      </c>
-      <c r="H15" s="11">
-        <v>2817</v>
-      </c>
-      <c r="I15" s="11">
         <v>4774</v>
       </c>
+      <c r="H15" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J15" s="11" t="s">
         <v>57</v>
       </c>
@@ -2212,23 +2212,23 @@
       <c r="AQ15" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR15" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS15" s="11" t="s">
-        <v>57</v>
+      <c r="AR15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>1007</v>
       </c>
       <c r="AT15" s="11">
-        <v>0</v>
+        <v>4627</v>
       </c>
       <c r="AU15" s="11">
-        <v>1007</v>
+        <v>593</v>
       </c>
       <c r="AV15" s="11">
-        <v>4627</v>
+        <v>0</v>
       </c>
       <c r="AW15" s="11">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="AX15" s="11">
         <v>0</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>62</v>
       </c>
@@ -2255,20 +2255,20 @@
       </c>
       <c r="D16" s="13"/>
       <c r="E16" s="13">
-        <v>9837</v>
+        <v>3258</v>
       </c>
       <c r="F16" s="13">
-        <v>5232</v>
+        <v>8681</v>
       </c>
       <c r="G16" s="13">
-        <v>3258</v>
-      </c>
-      <c r="H16" s="13">
-        <v>8681</v>
-      </c>
-      <c r="I16" s="13">
         <v>21019</v>
       </c>
+      <c r="H16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J16" s="13" t="s">
         <v>57</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>63</v>
       </c>
@@ -2422,11 +2422,11 @@
       <c r="G17" s="11">
         <v>0</v>
       </c>
-      <c r="H17" s="11">
-        <v>0</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
+      <c r="H17" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J17" s="11" t="s">
         <v>57</v>
@@ -2533,20 +2533,20 @@
       <c r="AR17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS17" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT17" s="11" t="s">
-        <v>57</v>
+      <c r="AS17" s="11">
+        <v>128</v>
+      </c>
+      <c r="AT17" s="11">
+        <v>883</v>
       </c>
       <c r="AU17" s="11">
-        <v>128</v>
+        <v>295</v>
       </c>
       <c r="AV17" s="11">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AW17" s="11">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="AX17" s="11">
         <v>0</v>
@@ -2564,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>64</v>
       </c>
@@ -2581,120 +2581,120 @@
       <c r="G18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>57</v>
+      <c r="H18" s="13">
+        <v>2459</v>
+      </c>
+      <c r="I18" s="13">
+        <v>3358</v>
       </c>
       <c r="J18" s="13">
-        <v>2459</v>
+        <v>0</v>
       </c>
       <c r="K18" s="13">
-        <v>3358</v>
+        <v>10904</v>
       </c>
       <c r="L18" s="13">
-        <v>0</v>
+        <v>12027</v>
       </c>
       <c r="M18" s="13">
-        <v>10904</v>
+        <v>5254</v>
       </c>
       <c r="N18" s="13">
-        <v>12027</v>
+        <v>5139</v>
       </c>
       <c r="O18" s="13">
-        <v>5254</v>
+        <v>5663</v>
       </c>
       <c r="P18" s="13">
-        <v>5139</v>
+        <v>2298</v>
       </c>
       <c r="Q18" s="13">
-        <v>5663</v>
+        <v>246</v>
       </c>
       <c r="R18" s="13">
-        <v>2298</v>
+        <v>1085</v>
       </c>
       <c r="S18" s="13">
-        <v>246</v>
-      </c>
-      <c r="T18" s="13">
-        <v>1085</v>
-      </c>
-      <c r="U18" s="13">
         <v>3378</v>
       </c>
+      <c r="T18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V18" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>57</v>
+      <c r="W18" s="13">
+        <v>12327</v>
+      </c>
+      <c r="X18" s="13">
+        <v>12761</v>
       </c>
       <c r="Y18" s="13">
-        <v>12327</v>
+        <v>12866</v>
       </c>
       <c r="Z18" s="13">
-        <v>12761</v>
+        <v>4097</v>
       </c>
       <c r="AA18" s="13">
-        <v>12866</v>
+        <v>3333</v>
       </c>
       <c r="AB18" s="13">
-        <v>4097</v>
+        <v>7252</v>
       </c>
       <c r="AC18" s="13">
-        <v>3333</v>
+        <v>2341</v>
       </c>
       <c r="AD18" s="13">
-        <v>7252</v>
+        <v>8054</v>
       </c>
       <c r="AE18" s="13">
-        <v>2341</v>
+        <v>2870</v>
       </c>
       <c r="AF18" s="13">
-        <v>8054</v>
+        <v>6548</v>
       </c>
       <c r="AG18" s="13">
-        <v>2870</v>
+        <v>3587</v>
       </c>
       <c r="AH18" s="13">
-        <v>6548</v>
+        <v>2017</v>
       </c>
       <c r="AI18" s="13">
-        <v>3587</v>
+        <v>2718</v>
       </c>
       <c r="AJ18" s="13">
-        <v>2017</v>
+        <v>5108</v>
       </c>
       <c r="AK18" s="13">
-        <v>2718</v>
+        <v>7618</v>
       </c>
       <c r="AL18" s="13">
-        <v>5108</v>
+        <v>3727</v>
       </c>
       <c r="AM18" s="13">
-        <v>7618</v>
-      </c>
-      <c r="AN18" s="13">
-        <v>3727</v>
+        <v>2759</v>
+      </c>
+      <c r="AN18" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO18" s="13">
-        <v>2759</v>
-      </c>
-      <c r="AP18" s="13" t="s">
-        <v>57</v>
+        <v>419</v>
+      </c>
+      <c r="AP18" s="13">
+        <v>322</v>
       </c>
       <c r="AQ18" s="13">
-        <v>419</v>
-      </c>
-      <c r="AR18" s="13">
-        <v>322</v>
-      </c>
-      <c r="AS18" s="13">
         <v>1859</v>
       </c>
+      <c r="AR18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS18" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT18" s="13" t="s">
         <v>57</v>
       </c>
@@ -2723,7 +2723,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>65</v>
       </c>
@@ -2740,120 +2740,120 @@
       <c r="G19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I19" s="11" t="s">
-        <v>57</v>
+      <c r="H19" s="11">
+        <v>99661</v>
+      </c>
+      <c r="I19" s="11">
+        <v>122352</v>
       </c>
       <c r="J19" s="11">
-        <v>99661</v>
+        <v>141225</v>
       </c>
       <c r="K19" s="11">
-        <v>122352</v>
+        <v>108965</v>
       </c>
       <c r="L19" s="11">
-        <v>141225</v>
+        <v>125830</v>
       </c>
       <c r="M19" s="11">
-        <v>108965</v>
+        <v>145024</v>
       </c>
       <c r="N19" s="11">
-        <v>125830</v>
+        <v>139351</v>
       </c>
       <c r="O19" s="11">
-        <v>145024</v>
+        <v>114281</v>
       </c>
       <c r="P19" s="11">
-        <v>139351</v>
+        <v>64182</v>
       </c>
       <c r="Q19" s="11">
-        <v>114281</v>
+        <v>36648</v>
       </c>
       <c r="R19" s="11">
-        <v>64182</v>
+        <v>11680</v>
       </c>
       <c r="S19" s="11">
-        <v>36648</v>
-      </c>
-      <c r="T19" s="11">
-        <v>11680</v>
-      </c>
-      <c r="U19" s="11">
         <v>122536</v>
       </c>
+      <c r="T19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V19" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>57</v>
+      <c r="W19" s="11">
+        <v>195601</v>
+      </c>
+      <c r="X19" s="11">
+        <v>193773</v>
       </c>
       <c r="Y19" s="11">
-        <v>195601</v>
+        <v>148809</v>
       </c>
       <c r="Z19" s="11">
-        <v>193773</v>
+        <v>146814</v>
       </c>
       <c r="AA19" s="11">
-        <v>148809</v>
+        <v>169675</v>
       </c>
       <c r="AB19" s="11">
-        <v>146814</v>
+        <v>90887</v>
       </c>
       <c r="AC19" s="11">
-        <v>169675</v>
+        <v>49019</v>
       </c>
       <c r="AD19" s="11">
-        <v>90887</v>
+        <v>102391</v>
       </c>
       <c r="AE19" s="11">
-        <v>49019</v>
+        <v>115014</v>
       </c>
       <c r="AF19" s="11">
-        <v>102391</v>
+        <v>144227</v>
       </c>
       <c r="AG19" s="11">
-        <v>115014</v>
+        <v>170739</v>
       </c>
       <c r="AH19" s="11">
-        <v>144227</v>
+        <v>162686</v>
       </c>
       <c r="AI19" s="11">
-        <v>170739</v>
+        <v>159511</v>
       </c>
       <c r="AJ19" s="11">
-        <v>162686</v>
+        <v>133373</v>
       </c>
       <c r="AK19" s="11">
-        <v>159511</v>
+        <v>168429</v>
       </c>
       <c r="AL19" s="11">
-        <v>133373</v>
+        <v>159450</v>
       </c>
       <c r="AM19" s="11">
-        <v>168429</v>
-      </c>
-      <c r="AN19" s="11">
-        <v>159450</v>
+        <v>133042</v>
+      </c>
+      <c r="AN19" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO19" s="11">
-        <v>133042</v>
-      </c>
-      <c r="AP19" s="11" t="s">
-        <v>57</v>
+        <v>14108</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>40261</v>
       </c>
       <c r="AQ19" s="11">
-        <v>14108</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>40261</v>
-      </c>
-      <c r="AS19" s="11">
         <v>141110</v>
       </c>
+      <c r="AR19" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS19" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT19" s="11" t="s">
         <v>57</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>66</v>
       </c>
@@ -2908,111 +2908,111 @@
       <c r="J20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>57</v>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
+        <v>7910</v>
       </c>
       <c r="M20" s="13">
-        <v>0</v>
+        <v>96867</v>
       </c>
       <c r="N20" s="13">
-        <v>7910</v>
+        <v>152705</v>
       </c>
       <c r="O20" s="13">
-        <v>96867</v>
+        <v>174331</v>
       </c>
       <c r="P20" s="13">
-        <v>152705</v>
+        <v>91557</v>
       </c>
       <c r="Q20" s="13">
-        <v>174331</v>
+        <v>0</v>
       </c>
       <c r="R20" s="13">
-        <v>91557</v>
+        <v>78414</v>
       </c>
       <c r="S20" s="13">
-        <v>0</v>
-      </c>
-      <c r="T20" s="13">
-        <v>78414</v>
-      </c>
-      <c r="U20" s="13">
         <v>107129</v>
       </c>
+      <c r="T20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U20" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V20" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W20" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>57</v>
+      <c r="W20" s="13">
+        <v>102013</v>
+      </c>
+      <c r="X20" s="13">
+        <v>120681</v>
       </c>
       <c r="Y20" s="13">
-        <v>102013</v>
+        <v>133927</v>
       </c>
       <c r="Z20" s="13">
-        <v>120681</v>
+        <v>161699</v>
       </c>
       <c r="AA20" s="13">
-        <v>133927</v>
+        <v>173974</v>
       </c>
       <c r="AB20" s="13">
-        <v>161699</v>
+        <v>124332</v>
       </c>
       <c r="AC20" s="13">
-        <v>173974</v>
+        <v>121700</v>
       </c>
       <c r="AD20" s="13">
-        <v>124332</v>
+        <v>99071</v>
       </c>
       <c r="AE20" s="13">
-        <v>121700</v>
+        <v>184574</v>
       </c>
       <c r="AF20" s="13">
-        <v>99071</v>
+        <v>181446</v>
       </c>
       <c r="AG20" s="13">
-        <v>184574</v>
+        <v>143437</v>
       </c>
       <c r="AH20" s="13">
-        <v>181446</v>
+        <v>123720</v>
       </c>
       <c r="AI20" s="13">
-        <v>143437</v>
+        <v>123775</v>
       </c>
       <c r="AJ20" s="13">
-        <v>123720</v>
+        <v>188126</v>
       </c>
       <c r="AK20" s="13">
-        <v>123775</v>
+        <v>121643</v>
       </c>
       <c r="AL20" s="13">
-        <v>188126</v>
+        <v>172918</v>
       </c>
       <c r="AM20" s="13">
-        <v>121643</v>
-      </c>
-      <c r="AN20" s="13">
-        <v>172918</v>
+        <v>145867</v>
+      </c>
+      <c r="AN20" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO20" s="13">
-        <v>145867</v>
-      </c>
-      <c r="AP20" s="13" t="s">
-        <v>57</v>
+        <v>93514</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>72101</v>
       </c>
       <c r="AQ20" s="13">
-        <v>93514</v>
-      </c>
-      <c r="AR20" s="13">
-        <v>72101</v>
-      </c>
-      <c r="AS20" s="13">
         <v>78311</v>
       </c>
+      <c r="AR20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS20" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT20" s="13" t="s">
         <v>57</v>
       </c>
@@ -3041,7 +3041,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>67</v>
       </c>
@@ -3166,41 +3166,41 @@
       <c r="AQ21" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR21" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS21" s="11" t="s">
-        <v>57</v>
+      <c r="AR21" s="11">
+        <v>28834</v>
+      </c>
+      <c r="AS21" s="11">
+        <v>6614</v>
       </c>
       <c r="AT21" s="11">
-        <v>28834</v>
+        <v>33797</v>
       </c>
       <c r="AU21" s="11">
-        <v>6614</v>
+        <v>80643</v>
       </c>
       <c r="AV21" s="11">
-        <v>33797</v>
+        <v>42931</v>
       </c>
       <c r="AW21" s="11">
-        <v>80643</v>
+        <v>72813</v>
       </c>
       <c r="AX21" s="11">
-        <v>42931</v>
+        <v>61805</v>
       </c>
       <c r="AY21" s="11">
-        <v>72813</v>
+        <v>47222</v>
       </c>
       <c r="AZ21" s="11">
-        <v>61805</v>
+        <v>39493</v>
       </c>
       <c r="BA21" s="11">
-        <v>47222</v>
+        <v>25435</v>
       </c>
       <c r="BB21" s="11">
-        <v>39493</v>
+        <v>168</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>68</v>
       </c>
@@ -3325,41 +3325,41 @@
       <c r="AQ22" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR22" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS22" s="13" t="s">
-        <v>57</v>
+      <c r="AR22" s="13">
+        <v>52792</v>
+      </c>
+      <c r="AS22" s="13">
+        <v>34839</v>
       </c>
       <c r="AT22" s="13">
-        <v>52792</v>
+        <v>52453</v>
       </c>
       <c r="AU22" s="13">
-        <v>34839</v>
+        <v>55384</v>
       </c>
       <c r="AV22" s="13">
-        <v>52453</v>
+        <v>51863</v>
       </c>
       <c r="AW22" s="13">
-        <v>55384</v>
+        <v>67141</v>
       </c>
       <c r="AX22" s="13">
-        <v>51863</v>
+        <v>53215</v>
       </c>
       <c r="AY22" s="13">
-        <v>67141</v>
+        <v>49701</v>
       </c>
       <c r="AZ22" s="13">
-        <v>53215</v>
+        <v>33553</v>
       </c>
       <c r="BA22" s="13">
-        <v>49701</v>
+        <v>18678</v>
       </c>
       <c r="BB22" s="13">
-        <v>33553</v>
+        <v>16834</v>
       </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>69</v>
       </c>
@@ -3376,11 +3376,11 @@
       <c r="G23" s="11">
         <v>0</v>
       </c>
-      <c r="H23" s="11">
-        <v>0</v>
-      </c>
-      <c r="I23" s="11">
-        <v>0</v>
+      <c r="H23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J23" s="11" t="s">
         <v>57</v>
@@ -3518,7 +3518,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>70</v>
       </c>
@@ -3527,20 +3527,20 @@
       </c>
       <c r="D24" s="13"/>
       <c r="E24" s="13">
-        <v>5137</v>
+        <v>5720</v>
       </c>
       <c r="F24" s="13">
-        <v>1324</v>
+        <v>7494</v>
       </c>
       <c r="G24" s="13">
-        <v>5720</v>
-      </c>
-      <c r="H24" s="13">
-        <v>7494</v>
-      </c>
-      <c r="I24" s="13">
         <v>29394</v>
       </c>
+      <c r="H24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J24" s="13" t="s">
         <v>57</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="10" t="s">
         <v>71</v>
       </c>
@@ -3686,20 +3686,20 @@
       </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11">
-        <v>13533</v>
+        <v>1142</v>
       </c>
       <c r="F25" s="11">
-        <v>2570</v>
+        <v>3396</v>
       </c>
       <c r="G25" s="11">
-        <v>1142</v>
-      </c>
-      <c r="H25" s="11">
-        <v>3396</v>
-      </c>
-      <c r="I25" s="11">
         <v>4921</v>
       </c>
+      <c r="H25" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I25" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J25" s="11" t="s">
         <v>57</v>
       </c>
@@ -3836,7 +3836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="12" t="s">
         <v>72</v>
       </c>
@@ -3853,11 +3853,11 @@
       <c r="G26" s="13">
         <v>0</v>
       </c>
-      <c r="H26" s="13">
-        <v>0</v>
-      </c>
-      <c r="I26" s="13">
-        <v>0</v>
+      <c r="H26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="J26" s="13" t="s">
         <v>57</v>
@@ -3995,7 +3995,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>73</v>
       </c>
@@ -4004,7 +4004,7 @@
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11">
-        <v>4567</v>
+        <v>0</v>
       </c>
       <c r="F27" s="11">
         <v>0</v>
@@ -4012,11 +4012,11 @@
       <c r="G27" s="11">
         <v>0</v>
       </c>
-      <c r="H27" s="11">
-        <v>0</v>
-      </c>
-      <c r="I27" s="11">
-        <v>0</v>
+      <c r="H27" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J27" s="11" t="s">
         <v>57</v>
@@ -4120,23 +4120,23 @@
       <c r="AQ27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR27" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS27" s="11" t="s">
-        <v>57</v>
+      <c r="AR27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="11">
+        <v>1011</v>
       </c>
       <c r="AT27" s="11">
-        <v>0</v>
+        <v>1753</v>
       </c>
       <c r="AU27" s="11">
-        <v>1011</v>
+        <v>180</v>
       </c>
       <c r="AV27" s="11">
-        <v>1753</v>
+        <v>0</v>
       </c>
       <c r="AW27" s="11">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AX27" s="11">
         <v>0</v>
@@ -4154,7 +4154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>74</v>
       </c>
@@ -4166,17 +4166,17 @@
         <v>0</v>
       </c>
       <c r="F28" s="13">
-        <v>4329</v>
+        <v>3253</v>
       </c>
       <c r="G28" s="13">
-        <v>0</v>
-      </c>
-      <c r="H28" s="13">
-        <v>3253</v>
-      </c>
-      <c r="I28" s="13">
         <v>6138</v>
       </c>
+      <c r="H28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J28" s="13" t="s">
         <v>57</v>
       </c>
@@ -4279,41 +4279,41 @@
       <c r="AQ28" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR28" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS28" s="13" t="s">
-        <v>57</v>
+      <c r="AR28" s="13">
+        <v>33062</v>
+      </c>
+      <c r="AS28" s="13">
+        <v>30286</v>
       </c>
       <c r="AT28" s="13">
-        <v>33062</v>
+        <v>41291</v>
       </c>
       <c r="AU28" s="13">
-        <v>30286</v>
+        <v>9926</v>
       </c>
       <c r="AV28" s="13">
-        <v>41291</v>
+        <v>9670</v>
       </c>
       <c r="AW28" s="13">
-        <v>9926</v>
+        <v>2836</v>
       </c>
       <c r="AX28" s="13">
-        <v>9670</v>
+        <v>12622</v>
       </c>
       <c r="AY28" s="13">
-        <v>2836</v>
+        <v>21035</v>
       </c>
       <c r="AZ28" s="13">
-        <v>12622</v>
+        <v>24850</v>
       </c>
       <c r="BA28" s="13">
-        <v>21035</v>
+        <v>14841</v>
       </c>
       <c r="BB28" s="13">
-        <v>24850</v>
+        <v>9801</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>75</v>
       </c>
@@ -4322,20 +4322,20 @@
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
-        <v>3238</v>
+        <v>1509</v>
       </c>
       <c r="F29" s="11">
-        <v>646</v>
+        <v>4884</v>
       </c>
       <c r="G29" s="11">
-        <v>1509</v>
-      </c>
-      <c r="H29" s="11">
-        <v>4884</v>
-      </c>
-      <c r="I29" s="11">
         <v>8396</v>
       </c>
+      <c r="H29" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J29" s="11" t="s">
         <v>57</v>
       </c>
@@ -4438,41 +4438,41 @@
       <c r="AQ29" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR29" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS29" s="11" t="s">
-        <v>57</v>
+      <c r="AR29" s="11">
+        <v>23230</v>
+      </c>
+      <c r="AS29" s="11">
+        <v>43566</v>
       </c>
       <c r="AT29" s="11">
-        <v>23230</v>
+        <v>39514</v>
       </c>
       <c r="AU29" s="11">
-        <v>43566</v>
+        <v>7850</v>
       </c>
       <c r="AV29" s="11">
-        <v>39514</v>
+        <v>4143</v>
       </c>
       <c r="AW29" s="11">
-        <v>7850</v>
+        <v>4481</v>
       </c>
       <c r="AX29" s="11">
-        <v>4143</v>
+        <v>5194</v>
       </c>
       <c r="AY29" s="11">
-        <v>4481</v>
+        <v>8722</v>
       </c>
       <c r="AZ29" s="11">
-        <v>5194</v>
+        <v>6259</v>
       </c>
       <c r="BA29" s="11">
-        <v>8722</v>
+        <v>5389</v>
       </c>
       <c r="BB29" s="11">
-        <v>6259</v>
+        <v>6243</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>76</v>
       </c>
@@ -4597,41 +4597,41 @@
       <c r="AQ30" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR30" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS30" s="13" t="s">
-        <v>57</v>
+      <c r="AR30" s="13">
+        <v>24302</v>
+      </c>
+      <c r="AS30" s="13">
+        <v>6842</v>
       </c>
       <c r="AT30" s="13">
-        <v>24302</v>
+        <v>6493</v>
       </c>
       <c r="AU30" s="13">
-        <v>6842</v>
+        <v>4962</v>
       </c>
       <c r="AV30" s="13">
-        <v>6493</v>
+        <v>3811</v>
       </c>
       <c r="AW30" s="13">
-        <v>4962</v>
+        <v>9312</v>
       </c>
       <c r="AX30" s="13">
-        <v>3811</v>
+        <v>10988</v>
       </c>
       <c r="AY30" s="13">
-        <v>9312</v>
+        <v>11569</v>
       </c>
       <c r="AZ30" s="13">
-        <v>10988</v>
+        <v>3546</v>
       </c>
       <c r="BA30" s="13">
-        <v>11569</v>
+        <v>3537</v>
       </c>
       <c r="BB30" s="13">
-        <v>3546</v>
+        <v>2556</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>77</v>
       </c>
@@ -4756,14 +4756,14 @@
       <c r="AQ31" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR31" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS31" s="11" t="s">
-        <v>57</v>
+      <c r="AR31" s="11">
+        <v>3041</v>
+      </c>
+      <c r="AS31" s="11">
+        <v>0</v>
       </c>
       <c r="AT31" s="11">
-        <v>3041</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="11">
         <v>0</v>
@@ -4790,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>78</v>
       </c>
@@ -4915,11 +4915,11 @@
       <c r="AQ32" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR32" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS32" s="13" t="s">
-        <v>57</v>
+      <c r="AR32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="13">
+        <v>0</v>
       </c>
       <c r="AT32" s="13">
         <v>0</v>
@@ -4949,7 +4949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>79</v>
       </c>
@@ -5006,7 +5006,7 @@
       <c r="BA33" s="15"/>
       <c r="BB33" s="15"/>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>80</v>
       </c>
@@ -5066,11 +5066,11 @@
       <c r="V34" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W34" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X34" s="17" t="s">
-        <v>57</v>
+      <c r="W34" s="17">
+        <v>0</v>
+      </c>
+      <c r="X34" s="17">
+        <v>0</v>
       </c>
       <c r="Y34" s="17">
         <v>0</v>
@@ -5163,164 +5163,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C35" s="19"/>
       <c r="D35" s="19"/>
       <c r="E35" s="19">
-        <v>75633</v>
+        <v>25243</v>
       </c>
       <c r="F35" s="19">
-        <v>54322</v>
+        <v>47610</v>
       </c>
       <c r="G35" s="19">
-        <v>25243</v>
+        <v>112152</v>
       </c>
       <c r="H35" s="19">
-        <v>47610</v>
+        <v>102120</v>
       </c>
       <c r="I35" s="19">
-        <v>112152</v>
+        <v>125710</v>
       </c>
       <c r="J35" s="19">
-        <v>102120</v>
+        <v>141225</v>
       </c>
       <c r="K35" s="19">
-        <v>125710</v>
+        <v>119869</v>
       </c>
       <c r="L35" s="19">
-        <v>141225</v>
+        <v>150136</v>
       </c>
       <c r="M35" s="19">
-        <v>119869</v>
+        <v>247198</v>
       </c>
       <c r="N35" s="19">
-        <v>150136</v>
+        <v>297195</v>
       </c>
       <c r="O35" s="19">
-        <v>247198</v>
+        <v>294275</v>
       </c>
       <c r="P35" s="19">
-        <v>297195</v>
+        <v>158037</v>
       </c>
       <c r="Q35" s="19">
-        <v>294275</v>
+        <v>36894</v>
       </c>
       <c r="R35" s="19">
-        <v>158037</v>
+        <v>91179</v>
       </c>
       <c r="S35" s="19">
-        <v>36894</v>
+        <v>234377</v>
       </c>
       <c r="T35" s="19">
-        <v>91179</v>
+        <v>218649</v>
       </c>
       <c r="U35" s="19">
-        <v>234377</v>
+        <v>402745</v>
       </c>
       <c r="V35" s="19">
-        <v>218649</v>
+        <v>394555</v>
       </c>
       <c r="W35" s="19">
-        <v>402745</v>
+        <v>309964</v>
       </c>
       <c r="X35" s="19">
-        <v>394555</v>
+        <v>327215</v>
       </c>
       <c r="Y35" s="19">
-        <v>309964</v>
+        <v>295602</v>
       </c>
       <c r="Z35" s="19">
-        <v>327215</v>
+        <v>312610</v>
       </c>
       <c r="AA35" s="19">
-        <v>295602</v>
+        <v>347390</v>
       </c>
       <c r="AB35" s="19">
-        <v>312610</v>
+        <v>223585</v>
       </c>
       <c r="AC35" s="19">
-        <v>347390</v>
+        <v>173060</v>
       </c>
       <c r="AD35" s="19">
-        <v>223585</v>
+        <v>209592</v>
       </c>
       <c r="AE35" s="19">
-        <v>173060</v>
+        <v>302957</v>
       </c>
       <c r="AF35" s="19">
-        <v>209592</v>
+        <v>339846</v>
       </c>
       <c r="AG35" s="19">
-        <v>302957</v>
+        <v>325850</v>
       </c>
       <c r="AH35" s="19">
-        <v>339846</v>
+        <v>297392</v>
       </c>
       <c r="AI35" s="19">
-        <v>325850</v>
+        <v>292810</v>
       </c>
       <c r="AJ35" s="19">
-        <v>297392</v>
+        <v>329549</v>
       </c>
       <c r="AK35" s="19">
-        <v>292810</v>
+        <v>304565</v>
       </c>
       <c r="AL35" s="19">
-        <v>329549</v>
+        <v>337100</v>
       </c>
       <c r="AM35" s="19">
-        <v>304565</v>
+        <v>285424</v>
       </c>
       <c r="AN35" s="19">
-        <v>337100</v>
+        <v>0</v>
       </c>
       <c r="AO35" s="19">
-        <v>285424</v>
+        <v>108066</v>
       </c>
       <c r="AP35" s="19">
-        <v>0</v>
+        <v>116046</v>
       </c>
       <c r="AQ35" s="19">
-        <v>108066</v>
+        <v>235170</v>
       </c>
       <c r="AR35" s="19">
-        <v>116046</v>
+        <v>356459</v>
       </c>
       <c r="AS35" s="19">
-        <v>235170</v>
+        <v>298732</v>
       </c>
       <c r="AT35" s="19">
-        <v>356459</v>
+        <v>340797</v>
       </c>
       <c r="AU35" s="19">
-        <v>298732</v>
+        <v>245226</v>
       </c>
       <c r="AV35" s="19">
-        <v>340797</v>
+        <v>169736</v>
       </c>
       <c r="AW35" s="19">
-        <v>245226</v>
+        <v>283938</v>
       </c>
       <c r="AX35" s="19">
-        <v>169736</v>
+        <v>310144</v>
       </c>
       <c r="AY35" s="19">
-        <v>283938</v>
+        <v>268061</v>
       </c>
       <c r="AZ35" s="19">
-        <v>310144</v>
+        <v>294486</v>
       </c>
       <c r="BA35" s="19">
-        <v>268061</v>
+        <v>251500</v>
       </c>
       <c r="BB35" s="19">
-        <v>294486</v>
+        <v>150442</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -5375,7 +5375,7 @@
       <c r="BA36" s="1"/>
       <c r="BB36" s="1"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5430,7 +5430,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5485,7 +5485,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B39" s="7" t="s">
         <v>82</v>
       </c>
@@ -5642,7 +5642,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -5697,7 +5697,7 @@
       <c r="BA40" s="1"/>
       <c r="BB40" s="1"/>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="8" t="s">
         <v>82</v>
       </c>
@@ -5754,7 +5754,7 @@
       <c r="BA41" s="9"/>
       <c r="BB41" s="9"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="10" t="s">
         <v>55</v>
       </c>
@@ -5807,21 +5807,21 @@
       <c r="S42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T42" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U42" s="11" t="s">
-        <v>57</v>
+      <c r="T42" s="11">
+        <v>4473</v>
+      </c>
+      <c r="U42" s="11">
+        <v>1344</v>
       </c>
       <c r="V42" s="11">
-        <v>4473</v>
-      </c>
-      <c r="W42" s="11">
-        <v>1344</v>
-      </c>
-      <c r="X42" s="11">
         <v>3238</v>
       </c>
+      <c r="W42" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X42" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y42" s="11" t="s">
         <v>57</v>
       </c>
@@ -5879,41 +5879,41 @@
       <c r="AQ42" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR42" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS42" s="11" t="s">
-        <v>57</v>
+      <c r="AR42" s="11">
+        <v>13829</v>
+      </c>
+      <c r="AS42" s="11">
+        <v>3209</v>
       </c>
       <c r="AT42" s="11">
-        <v>13829</v>
+        <v>2979</v>
       </c>
       <c r="AU42" s="11">
-        <v>3209</v>
+        <v>504</v>
       </c>
       <c r="AV42" s="11">
-        <v>2979</v>
+        <v>6526</v>
       </c>
       <c r="AW42" s="11">
-        <v>504</v>
+        <v>3378</v>
       </c>
       <c r="AX42" s="11">
-        <v>6526</v>
+        <v>1376</v>
       </c>
       <c r="AY42" s="11">
-        <v>3378</v>
+        <v>12067</v>
       </c>
       <c r="AZ42" s="11">
-        <v>1376</v>
+        <v>20173</v>
       </c>
       <c r="BA42" s="11">
-        <v>12067</v>
+        <v>44112</v>
       </c>
       <c r="BB42" s="11">
-        <v>20173</v>
+        <v>53970</v>
       </c>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="12" t="s">
         <v>58</v>
       </c>
@@ -5966,21 +5966,21 @@
       <c r="S43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T43" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U43" s="13" t="s">
-        <v>57</v>
+      <c r="T43" s="13">
+        <v>129771</v>
+      </c>
+      <c r="U43" s="13">
+        <v>205441</v>
       </c>
       <c r="V43" s="13">
-        <v>129771</v>
-      </c>
-      <c r="W43" s="13">
-        <v>205441</v>
-      </c>
-      <c r="X43" s="13">
         <v>214913</v>
       </c>
+      <c r="W43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X43" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y43" s="13" t="s">
         <v>57</v>
       </c>
@@ -6072,7 +6072,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
         <v>59</v>
       </c>
@@ -6098,20 +6098,20 @@
       <c r="J44" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L44" s="11" t="s">
-        <v>57</v>
+      <c r="K44" s="11">
+        <v>6640</v>
+      </c>
+      <c r="L44" s="11">
+        <v>4369</v>
       </c>
       <c r="M44" s="11">
-        <v>6640</v>
+        <v>53</v>
       </c>
       <c r="N44" s="11">
-        <v>4369</v>
+        <v>0</v>
       </c>
       <c r="O44" s="11">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="P44" s="11">
         <v>0</v>
@@ -6123,86 +6123,86 @@
         <v>0</v>
       </c>
       <c r="S44" s="11">
-        <v>0</v>
-      </c>
-      <c r="T44" s="11">
-        <v>0</v>
-      </c>
-      <c r="U44" s="11">
         <v>1334</v>
       </c>
+      <c r="T44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U44" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V44" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W44" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X44" s="11" t="s">
-        <v>57</v>
+      <c r="W44" s="11">
+        <v>23</v>
+      </c>
+      <c r="X44" s="11">
+        <v>0</v>
       </c>
       <c r="Y44" s="11">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="11">
         <v>0</v>
       </c>
       <c r="AA44" s="11">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="AB44" s="11">
-        <v>0</v>
+        <v>1114</v>
       </c>
       <c r="AC44" s="11">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="AD44" s="11">
-        <v>1114</v>
+        <v>76</v>
       </c>
       <c r="AE44" s="11">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="AF44" s="11">
-        <v>76</v>
+        <v>7625</v>
       </c>
       <c r="AG44" s="11">
-        <v>499</v>
+        <v>8087</v>
       </c>
       <c r="AH44" s="11">
-        <v>7625</v>
+        <v>8969</v>
       </c>
       <c r="AI44" s="11">
-        <v>8087</v>
+        <v>6806</v>
       </c>
       <c r="AJ44" s="11">
-        <v>8969</v>
+        <v>2942</v>
       </c>
       <c r="AK44" s="11">
-        <v>6806</v>
+        <v>6875</v>
       </c>
       <c r="AL44" s="11">
-        <v>2942</v>
+        <v>1005</v>
       </c>
       <c r="AM44" s="11">
-        <v>6875</v>
-      </c>
-      <c r="AN44" s="11">
-        <v>1005</v>
+        <v>3756</v>
+      </c>
+      <c r="AN44" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO44" s="11">
-        <v>3756</v>
-      </c>
-      <c r="AP44" s="11" t="s">
-        <v>57</v>
+        <v>25</v>
+      </c>
+      <c r="AP44" s="11">
+        <v>3361</v>
       </c>
       <c r="AQ44" s="11">
-        <v>25</v>
-      </c>
-      <c r="AR44" s="11">
-        <v>3361</v>
-      </c>
-      <c r="AS44" s="11">
         <v>13891</v>
       </c>
+      <c r="AR44" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS44" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT44" s="11" t="s">
         <v>57</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="12" t="s">
         <v>60</v>
       </c>
@@ -6240,20 +6240,20 @@
       </c>
       <c r="D45" s="13"/>
       <c r="E45" s="13">
-        <v>31451</v>
+        <v>14127</v>
       </c>
       <c r="F45" s="13">
-        <v>24691</v>
+        <v>14427</v>
       </c>
       <c r="G45" s="13">
-        <v>14127</v>
-      </c>
-      <c r="H45" s="13">
-        <v>14427</v>
-      </c>
-      <c r="I45" s="13">
         <v>37839</v>
       </c>
+      <c r="H45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J45" s="13" t="s">
         <v>57</v>
       </c>
@@ -6390,7 +6390,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
         <v>61</v>
       </c>
@@ -6399,20 +6399,20 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>16340</v>
+        <v>3951</v>
       </c>
       <c r="F46" s="11">
-        <v>8435</v>
+        <v>2052</v>
       </c>
       <c r="G46" s="11">
-        <v>3951</v>
-      </c>
-      <c r="H46" s="11">
-        <v>2052</v>
-      </c>
-      <c r="I46" s="11">
         <v>6266</v>
       </c>
+      <c r="H46" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I46" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J46" s="11" t="s">
         <v>57</v>
       </c>
@@ -6515,23 +6515,23 @@
       <c r="AQ46" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR46" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS46" s="11" t="s">
-        <v>57</v>
+      <c r="AR46" s="11">
+        <v>70</v>
+      </c>
+      <c r="AS46" s="11">
+        <v>1007</v>
       </c>
       <c r="AT46" s="11">
-        <v>70</v>
+        <v>4557</v>
       </c>
       <c r="AU46" s="11">
-        <v>1007</v>
+        <v>593</v>
       </c>
       <c r="AV46" s="11">
-        <v>4557</v>
+        <v>0</v>
       </c>
       <c r="AW46" s="11">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="AX46" s="11">
         <v>0</v>
@@ -6549,7 +6549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="12" t="s">
         <v>62</v>
       </c>
@@ -6558,20 +6558,20 @@
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13">
-        <v>9837</v>
+        <v>3258</v>
       </c>
       <c r="F47" s="13">
-        <v>5232</v>
+        <v>8681</v>
       </c>
       <c r="G47" s="13">
-        <v>3258</v>
-      </c>
-      <c r="H47" s="13">
-        <v>8681</v>
-      </c>
-      <c r="I47" s="13">
         <v>21019</v>
       </c>
+      <c r="H47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J47" s="13" t="s">
         <v>57</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
         <v>63</v>
       </c>
@@ -6717,20 +6717,20 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>202</v>
+        <v>78</v>
       </c>
       <c r="F48" s="11">
-        <v>83</v>
+        <v>31</v>
       </c>
       <c r="G48" s="11">
-        <v>78</v>
-      </c>
-      <c r="H48" s="11">
-        <v>31</v>
-      </c>
-      <c r="I48" s="11">
         <v>188</v>
       </c>
+      <c r="H48" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J48" s="11" t="s">
         <v>57</v>
       </c>
@@ -6836,14 +6836,14 @@
       <c r="AR48" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS48" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT48" s="11" t="s">
-        <v>57</v>
+      <c r="AS48" s="11">
+        <v>149</v>
+      </c>
+      <c r="AT48" s="11">
+        <v>0</v>
       </c>
       <c r="AU48" s="11">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="11">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="12" t="s">
         <v>64</v>
       </c>
@@ -6884,120 +6884,120 @@
       <c r="G49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H49" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>57</v>
+      <c r="H49" s="13">
+        <v>2459</v>
+      </c>
+      <c r="I49" s="13">
+        <v>3358</v>
       </c>
       <c r="J49" s="13">
-        <v>2459</v>
+        <v>0</v>
       </c>
       <c r="K49" s="13">
-        <v>3358</v>
+        <v>10904</v>
       </c>
       <c r="L49" s="13">
-        <v>0</v>
+        <v>12027</v>
       </c>
       <c r="M49" s="13">
-        <v>10904</v>
+        <v>5254</v>
       </c>
       <c r="N49" s="13">
-        <v>12027</v>
+        <v>5139</v>
       </c>
       <c r="O49" s="13">
-        <v>5254</v>
+        <v>5663</v>
       </c>
       <c r="P49" s="13">
-        <v>5139</v>
+        <v>2298</v>
       </c>
       <c r="Q49" s="13">
-        <v>5663</v>
+        <v>246</v>
       </c>
       <c r="R49" s="13">
-        <v>2298</v>
+        <v>1085</v>
       </c>
       <c r="S49" s="13">
-        <v>246</v>
-      </c>
-      <c r="T49" s="13">
-        <v>1085</v>
-      </c>
-      <c r="U49" s="13">
         <v>3378</v>
       </c>
+      <c r="T49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U49" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V49" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W49" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X49" s="13" t="s">
-        <v>57</v>
+      <c r="W49" s="13">
+        <v>12327</v>
+      </c>
+      <c r="X49" s="13">
+        <v>12761</v>
       </c>
       <c r="Y49" s="13">
-        <v>12327</v>
+        <v>12866</v>
       </c>
       <c r="Z49" s="13">
-        <v>12761</v>
+        <v>4097</v>
       </c>
       <c r="AA49" s="13">
-        <v>12866</v>
+        <v>3333</v>
       </c>
       <c r="AB49" s="13">
-        <v>4097</v>
+        <v>7252</v>
       </c>
       <c r="AC49" s="13">
-        <v>3333</v>
+        <v>2341</v>
       </c>
       <c r="AD49" s="13">
-        <v>7252</v>
+        <v>8054</v>
       </c>
       <c r="AE49" s="13">
-        <v>2341</v>
+        <v>2870</v>
       </c>
       <c r="AF49" s="13">
-        <v>8054</v>
+        <v>6548</v>
       </c>
       <c r="AG49" s="13">
-        <v>2870</v>
+        <v>3587</v>
       </c>
       <c r="AH49" s="13">
-        <v>6548</v>
+        <v>2017</v>
       </c>
       <c r="AI49" s="13">
-        <v>3587</v>
+        <v>2718</v>
       </c>
       <c r="AJ49" s="13">
-        <v>2017</v>
+        <v>5108</v>
       </c>
       <c r="AK49" s="13">
-        <v>2718</v>
+        <v>7618</v>
       </c>
       <c r="AL49" s="13">
-        <v>5108</v>
+        <v>3727</v>
       </c>
       <c r="AM49" s="13">
-        <v>7618</v>
-      </c>
-      <c r="AN49" s="13">
-        <v>3727</v>
+        <v>2759</v>
+      </c>
+      <c r="AN49" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO49" s="13">
-        <v>2759</v>
-      </c>
-      <c r="AP49" s="13" t="s">
-        <v>57</v>
+        <v>419</v>
+      </c>
+      <c r="AP49" s="13">
+        <v>322</v>
       </c>
       <c r="AQ49" s="13">
-        <v>419</v>
-      </c>
-      <c r="AR49" s="13">
-        <v>322</v>
-      </c>
-      <c r="AS49" s="13">
         <v>1859</v>
       </c>
+      <c r="AR49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS49" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT49" s="13" t="s">
         <v>57</v>
       </c>
@@ -7026,7 +7026,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
         <v>65</v>
       </c>
@@ -7043,120 +7043,120 @@
       <c r="G50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I50" s="11" t="s">
-        <v>57</v>
+      <c r="H50" s="11">
+        <v>90653</v>
+      </c>
+      <c r="I50" s="11">
+        <v>128839</v>
       </c>
       <c r="J50" s="11">
-        <v>90653</v>
+        <v>144163</v>
       </c>
       <c r="K50" s="11">
-        <v>128839</v>
+        <v>124129</v>
       </c>
       <c r="L50" s="11">
-        <v>144163</v>
+        <v>125289</v>
       </c>
       <c r="M50" s="11">
-        <v>124129</v>
+        <v>133754</v>
       </c>
       <c r="N50" s="11">
-        <v>125289</v>
+        <v>132888</v>
       </c>
       <c r="O50" s="11">
-        <v>133754</v>
+        <v>122345</v>
       </c>
       <c r="P50" s="11">
-        <v>132888</v>
+        <v>69458</v>
       </c>
       <c r="Q50" s="11">
-        <v>122345</v>
+        <v>36622</v>
       </c>
       <c r="R50" s="11">
-        <v>69458</v>
+        <v>17822</v>
       </c>
       <c r="S50" s="11">
-        <v>36622</v>
-      </c>
-      <c r="T50" s="11">
-        <v>17822</v>
-      </c>
-      <c r="U50" s="11">
         <v>105772</v>
       </c>
+      <c r="T50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U50" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V50" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W50" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X50" s="11" t="s">
-        <v>57</v>
+      <c r="W50" s="11">
+        <v>203157</v>
+      </c>
+      <c r="X50" s="11">
+        <v>171574</v>
       </c>
       <c r="Y50" s="11">
-        <v>203157</v>
+        <v>155619</v>
       </c>
       <c r="Z50" s="11">
-        <v>171574</v>
+        <v>153539</v>
       </c>
       <c r="AA50" s="11">
-        <v>155619</v>
+        <v>161278</v>
       </c>
       <c r="AB50" s="11">
-        <v>153539</v>
+        <v>98294</v>
       </c>
       <c r="AC50" s="11">
-        <v>161278</v>
+        <v>54462</v>
       </c>
       <c r="AD50" s="11">
-        <v>98294</v>
+        <v>93921</v>
       </c>
       <c r="AE50" s="11">
-        <v>54462</v>
+        <v>112524</v>
       </c>
       <c r="AF50" s="11">
-        <v>93921</v>
+        <v>141037</v>
       </c>
       <c r="AG50" s="11">
-        <v>112524</v>
+        <v>175206</v>
       </c>
       <c r="AH50" s="11">
-        <v>141037</v>
+        <v>172239</v>
       </c>
       <c r="AI50" s="11">
-        <v>175206</v>
+        <v>149988</v>
       </c>
       <c r="AJ50" s="11">
-        <v>172239</v>
+        <v>140949</v>
       </c>
       <c r="AK50" s="11">
-        <v>149988</v>
+        <v>175920</v>
       </c>
       <c r="AL50" s="11">
-        <v>140949</v>
+        <v>148852</v>
       </c>
       <c r="AM50" s="11">
-        <v>175920</v>
-      </c>
-      <c r="AN50" s="11">
-        <v>148852</v>
+        <v>130637</v>
+      </c>
+      <c r="AN50" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO50" s="11">
-        <v>130637</v>
-      </c>
-      <c r="AP50" s="11" t="s">
-        <v>57</v>
+        <v>24493</v>
+      </c>
+      <c r="AP50" s="11">
+        <v>39776</v>
       </c>
       <c r="AQ50" s="11">
-        <v>24493</v>
-      </c>
-      <c r="AR50" s="11">
-        <v>39776</v>
-      </c>
-      <c r="AS50" s="11">
         <v>129745</v>
       </c>
+      <c r="AR50" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS50" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT50" s="11" t="s">
         <v>57</v>
       </c>
@@ -7185,7 +7185,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="12" t="s">
         <v>66</v>
       </c>
@@ -7211,14 +7211,14 @@
       <c r="J51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K51" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L51" s="13" t="s">
-        <v>57</v>
+      <c r="K51" s="13">
+        <v>338</v>
+      </c>
+      <c r="L51" s="13">
+        <v>0</v>
       </c>
       <c r="M51" s="13">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="N51" s="13">
         <v>0</v>
@@ -7238,20 +7238,20 @@
       <c r="S51" s="13">
         <v>0</v>
       </c>
-      <c r="T51" s="13">
-        <v>0</v>
-      </c>
-      <c r="U51" s="13">
-        <v>0</v>
+      <c r="T51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U51" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W51" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X51" s="13" t="s">
-        <v>57</v>
+      <c r="W51" s="13">
+        <v>0</v>
+      </c>
+      <c r="X51" s="13">
+        <v>0</v>
       </c>
       <c r="Y51" s="13">
         <v>0</v>
@@ -7298,23 +7298,23 @@
       <c r="AM51" s="13">
         <v>0</v>
       </c>
-      <c r="AN51" s="13">
-        <v>0</v>
+      <c r="AN51" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO51" s="13">
         <v>0</v>
       </c>
-      <c r="AP51" s="13" t="s">
-        <v>57</v>
+      <c r="AP51" s="13">
+        <v>0</v>
       </c>
       <c r="AQ51" s="13">
         <v>0</v>
       </c>
-      <c r="AR51" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS51" s="13">
-        <v>0</v>
+      <c r="AR51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS51" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT51" s="13" t="s">
         <v>57</v>
@@ -7344,7 +7344,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="10" t="s">
         <v>67</v>
       </c>
@@ -7469,41 +7469,41 @@
       <c r="AQ52" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR52" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS52" s="11" t="s">
-        <v>57</v>
+      <c r="AR52" s="11">
+        <v>30603</v>
+      </c>
+      <c r="AS52" s="11">
+        <v>18094</v>
       </c>
       <c r="AT52" s="11">
-        <v>30603</v>
+        <v>32086</v>
       </c>
       <c r="AU52" s="11">
-        <v>18094</v>
+        <v>55389</v>
       </c>
       <c r="AV52" s="11">
-        <v>32086</v>
+        <v>55849</v>
       </c>
       <c r="AW52" s="11">
-        <v>55389</v>
+        <v>70343</v>
       </c>
       <c r="AX52" s="11">
-        <v>55849</v>
+        <v>53554</v>
       </c>
       <c r="AY52" s="11">
-        <v>70343</v>
+        <v>51644</v>
       </c>
       <c r="AZ52" s="11">
-        <v>53554</v>
+        <v>37351</v>
       </c>
       <c r="BA52" s="11">
-        <v>51644</v>
+        <v>19478</v>
       </c>
       <c r="BB52" s="11">
-        <v>37351</v>
+        <v>10454</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="12" t="s">
         <v>68</v>
       </c>
@@ -7628,41 +7628,41 @@
       <c r="AQ53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR53" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS53" s="13" t="s">
-        <v>57</v>
+      <c r="AR53" s="13">
+        <v>52792</v>
+      </c>
+      <c r="AS53" s="13">
+        <v>34839</v>
       </c>
       <c r="AT53" s="13">
-        <v>52792</v>
+        <v>52453</v>
       </c>
       <c r="AU53" s="13">
-        <v>34839</v>
+        <v>55384</v>
       </c>
       <c r="AV53" s="13">
-        <v>52453</v>
+        <v>51863</v>
       </c>
       <c r="AW53" s="13">
-        <v>55384</v>
+        <v>67141</v>
       </c>
       <c r="AX53" s="13">
-        <v>51863</v>
+        <v>53215</v>
       </c>
       <c r="AY53" s="13">
-        <v>67141</v>
+        <v>49701</v>
       </c>
       <c r="AZ53" s="13">
-        <v>53215</v>
+        <v>33553</v>
       </c>
       <c r="BA53" s="13">
-        <v>49701</v>
+        <v>18678</v>
       </c>
       <c r="BB53" s="13">
-        <v>33553</v>
+        <v>20166</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="10" t="s">
         <v>69</v>
       </c>
@@ -7674,16 +7674,16 @@
         <v>0</v>
       </c>
       <c r="F54" s="11">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="G54" s="11">
         <v>0</v>
       </c>
-      <c r="H54" s="11">
-        <v>21</v>
-      </c>
-      <c r="I54" s="11">
-        <v>0</v>
+      <c r="H54" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J54" s="11" t="s">
         <v>57</v>
@@ -7821,7 +7821,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="12" t="s">
         <v>70</v>
       </c>
@@ -7830,20 +7830,20 @@
       </c>
       <c r="D55" s="13"/>
       <c r="E55" s="13">
-        <v>7541</v>
+        <v>2613</v>
       </c>
       <c r="F55" s="13">
-        <v>2565</v>
+        <v>11007</v>
       </c>
       <c r="G55" s="13">
-        <v>2613</v>
-      </c>
-      <c r="H55" s="13">
-        <v>11007</v>
-      </c>
-      <c r="I55" s="13">
         <v>25268</v>
       </c>
+      <c r="H55" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J55" s="13" t="s">
         <v>57</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="10" t="s">
         <v>71</v>
       </c>
@@ -7989,20 +7989,20 @@
       </c>
       <c r="D56" s="11"/>
       <c r="E56" s="11">
-        <v>13533</v>
+        <v>1142</v>
       </c>
       <c r="F56" s="11">
-        <v>2570</v>
+        <v>3396</v>
       </c>
       <c r="G56" s="11">
-        <v>1142</v>
-      </c>
-      <c r="H56" s="11">
-        <v>3396</v>
-      </c>
-      <c r="I56" s="11">
         <v>4921</v>
       </c>
+      <c r="H56" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I56" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J56" s="11" t="s">
         <v>57</v>
       </c>
@@ -8139,7 +8139,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="12" t="s">
         <v>72</v>
       </c>
@@ -8156,11 +8156,11 @@
       <c r="G57" s="13">
         <v>0</v>
       </c>
-      <c r="H57" s="13">
-        <v>0</v>
-      </c>
-      <c r="I57" s="13">
-        <v>0</v>
+      <c r="H57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="J57" s="13" t="s">
         <v>57</v>
@@ -8298,7 +8298,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
         <v>73</v>
       </c>
@@ -8307,20 +8307,20 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>2349</v>
+        <v>1824</v>
       </c>
       <c r="F58" s="11">
-        <v>2169</v>
+        <v>1883</v>
       </c>
       <c r="G58" s="11">
-        <v>1824</v>
-      </c>
-      <c r="H58" s="11">
-        <v>1883</v>
-      </c>
-      <c r="I58" s="11">
         <v>445</v>
       </c>
+      <c r="H58" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I58" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J58" s="11" t="s">
         <v>57</v>
       </c>
@@ -8423,23 +8423,23 @@
       <c r="AQ58" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR58" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS58" s="11" t="s">
-        <v>57</v>
+      <c r="AR58" s="11">
+        <v>48</v>
+      </c>
+      <c r="AS58" s="11">
+        <v>1011</v>
       </c>
       <c r="AT58" s="11">
-        <v>48</v>
+        <v>1705</v>
       </c>
       <c r="AU58" s="11">
-        <v>1011</v>
+        <v>180</v>
       </c>
       <c r="AV58" s="11">
-        <v>1705</v>
+        <v>0</v>
       </c>
       <c r="AW58" s="11">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AX58" s="11">
         <v>0</v>
@@ -8457,7 +8457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
         <v>74</v>
       </c>
@@ -8466,20 +8466,20 @@
       </c>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
-        <v>4669</v>
+        <v>1435</v>
       </c>
       <c r="F59" s="13">
-        <v>3908</v>
+        <v>2159</v>
       </c>
       <c r="G59" s="13">
-        <v>1435</v>
-      </c>
-      <c r="H59" s="13">
-        <v>2159</v>
-      </c>
-      <c r="I59" s="13">
         <v>4402</v>
       </c>
+      <c r="H59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J59" s="13" t="s">
         <v>57</v>
       </c>
@@ -8582,41 +8582,41 @@
       <c r="AQ59" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR59" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS59" s="13" t="s">
-        <v>57</v>
+      <c r="AR59" s="13">
+        <v>32437</v>
+      </c>
+      <c r="AS59" s="13">
+        <v>45270</v>
       </c>
       <c r="AT59" s="13">
-        <v>32437</v>
+        <v>36529</v>
       </c>
       <c r="AU59" s="13">
-        <v>45270</v>
+        <v>7698</v>
       </c>
       <c r="AV59" s="13">
-        <v>36529</v>
+        <v>11700</v>
       </c>
       <c r="AW59" s="13">
-        <v>7698</v>
+        <v>6510</v>
       </c>
       <c r="AX59" s="13">
-        <v>11700</v>
+        <v>12118</v>
       </c>
       <c r="AY59" s="13">
-        <v>6510</v>
+        <v>19857</v>
       </c>
       <c r="AZ59" s="13">
-        <v>12118</v>
+        <v>24982</v>
       </c>
       <c r="BA59" s="13">
-        <v>19857</v>
+        <v>12488</v>
       </c>
       <c r="BB59" s="13">
-        <v>24982</v>
+        <v>9324</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>75</v>
       </c>
@@ -8625,20 +8625,20 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>961</v>
+        <v>2751</v>
       </c>
       <c r="F60" s="11">
-        <v>526</v>
+        <v>3642</v>
       </c>
       <c r="G60" s="11">
-        <v>2751</v>
-      </c>
-      <c r="H60" s="11">
-        <v>3642</v>
-      </c>
-      <c r="I60" s="11">
         <v>8396</v>
       </c>
+      <c r="H60" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I60" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J60" s="11" t="s">
         <v>57</v>
       </c>
@@ -8741,41 +8741,41 @@
       <c r="AQ60" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR60" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS60" s="11" t="s">
-        <v>57</v>
+      <c r="AR60" s="11">
+        <v>23230</v>
+      </c>
+      <c r="AS60" s="11">
+        <v>43566</v>
       </c>
       <c r="AT60" s="11">
-        <v>23230</v>
+        <v>39514</v>
       </c>
       <c r="AU60" s="11">
-        <v>43566</v>
+        <v>7850</v>
       </c>
       <c r="AV60" s="11">
-        <v>39514</v>
+        <v>4143</v>
       </c>
       <c r="AW60" s="11">
-        <v>7850</v>
+        <v>4481</v>
       </c>
       <c r="AX60" s="11">
-        <v>4143</v>
+        <v>5194</v>
       </c>
       <c r="AY60" s="11">
-        <v>4481</v>
+        <v>8722</v>
       </c>
       <c r="AZ60" s="11">
-        <v>5194</v>
+        <v>6259</v>
       </c>
       <c r="BA60" s="11">
-        <v>8722</v>
+        <v>5389</v>
       </c>
       <c r="BB60" s="11">
-        <v>6259</v>
+        <v>6243</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
         <v>76</v>
       </c>
@@ -8900,41 +8900,41 @@
       <c r="AQ61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR61" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS61" s="13" t="s">
-        <v>57</v>
+      <c r="AR61" s="13">
+        <v>30194</v>
+      </c>
+      <c r="AS61" s="13">
+        <v>8880</v>
       </c>
       <c r="AT61" s="13">
-        <v>30194</v>
+        <v>5549</v>
       </c>
       <c r="AU61" s="13">
-        <v>8880</v>
+        <v>3845</v>
       </c>
       <c r="AV61" s="13">
-        <v>5549</v>
+        <v>5211</v>
       </c>
       <c r="AW61" s="13">
-        <v>3845</v>
+        <v>7782</v>
       </c>
       <c r="AX61" s="13">
-        <v>5211</v>
+        <v>10543</v>
       </c>
       <c r="AY61" s="13">
-        <v>7782</v>
+        <v>10894</v>
       </c>
       <c r="AZ61" s="13">
-        <v>10543</v>
+        <v>5119</v>
       </c>
       <c r="BA61" s="13">
-        <v>10894</v>
+        <v>1582</v>
       </c>
       <c r="BB61" s="13">
-        <v>5119</v>
+        <v>1483</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
         <v>77</v>
       </c>
@@ -9059,20 +9059,20 @@
       <c r="AQ62" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR62" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS62" s="11" t="s">
-        <v>57</v>
+      <c r="AR62" s="11">
+        <v>2056</v>
+      </c>
+      <c r="AS62" s="11">
+        <v>563</v>
       </c>
       <c r="AT62" s="11">
-        <v>2056</v>
+        <v>31</v>
       </c>
       <c r="AU62" s="11">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AV62" s="11">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AW62" s="11">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
         <v>78</v>
       </c>
@@ -9218,11 +9218,11 @@
       <c r="AQ63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR63" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS63" s="13" t="s">
-        <v>57</v>
+      <c r="AR63" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS63" s="13">
+        <v>0</v>
       </c>
       <c r="AT63" s="13">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="14" t="s">
         <v>79</v>
       </c>
@@ -9309,7 +9309,7 @@
       <c r="BA64" s="15"/>
       <c r="BB64" s="15"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="16" t="s">
         <v>80</v>
       </c>
@@ -9369,11 +9369,11 @@
       <c r="V65" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W65" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X65" s="17" t="s">
-        <v>57</v>
+      <c r="W65" s="17">
+        <v>0</v>
+      </c>
+      <c r="X65" s="17">
+        <v>0</v>
       </c>
       <c r="Y65" s="17">
         <v>0</v>
@@ -9466,7 +9466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
         <v>83</v>
       </c>
@@ -9523,7 +9523,7 @@
       <c r="BA66" s="15"/>
       <c r="BB66" s="15"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="16" t="s">
         <v>84</v>
       </c>
@@ -9583,11 +9583,11 @@
       <c r="V67" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W67" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X67" s="17" t="s">
-        <v>57</v>
+      <c r="W67" s="17">
+        <v>0</v>
+      </c>
+      <c r="X67" s="17">
+        <v>0</v>
       </c>
       <c r="Y67" s="17">
         <v>0</v>
@@ -9680,164 +9680,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C68" s="19"/>
       <c r="D68" s="19"/>
       <c r="E68" s="19">
-        <v>86883</v>
+        <v>31179</v>
       </c>
       <c r="F68" s="19">
-        <v>50179</v>
+        <v>47299</v>
       </c>
       <c r="G68" s="19">
-        <v>31179</v>
+        <v>108744</v>
       </c>
       <c r="H68" s="19">
-        <v>47299</v>
+        <v>93112</v>
       </c>
       <c r="I68" s="19">
-        <v>108744</v>
+        <v>132197</v>
       </c>
       <c r="J68" s="19">
-        <v>93112</v>
+        <v>144163</v>
       </c>
       <c r="K68" s="19">
-        <v>132197</v>
+        <v>142011</v>
       </c>
       <c r="L68" s="19">
-        <v>144163</v>
+        <v>141685</v>
       </c>
       <c r="M68" s="19">
-        <v>142011</v>
+        <v>139061</v>
       </c>
       <c r="N68" s="19">
-        <v>141685</v>
+        <v>138027</v>
       </c>
       <c r="O68" s="19">
-        <v>139061</v>
+        <v>128008</v>
       </c>
       <c r="P68" s="19">
-        <v>138027</v>
+        <v>71756</v>
       </c>
       <c r="Q68" s="19">
-        <v>128008</v>
+        <v>36868</v>
       </c>
       <c r="R68" s="19">
-        <v>71756</v>
+        <v>18907</v>
       </c>
       <c r="S68" s="19">
-        <v>36868</v>
+        <v>110484</v>
       </c>
       <c r="T68" s="19">
-        <v>18907</v>
+        <v>134244</v>
       </c>
       <c r="U68" s="19">
-        <v>110484</v>
+        <v>206785</v>
       </c>
       <c r="V68" s="19">
-        <v>134244</v>
+        <v>218151</v>
       </c>
       <c r="W68" s="19">
-        <v>206785</v>
+        <v>215507</v>
       </c>
       <c r="X68" s="19">
-        <v>218151</v>
+        <v>184335</v>
       </c>
       <c r="Y68" s="19">
-        <v>215507</v>
+        <v>168485</v>
       </c>
       <c r="Z68" s="19">
-        <v>184335</v>
+        <v>157636</v>
       </c>
       <c r="AA68" s="19">
-        <v>168485</v>
+        <v>165019</v>
       </c>
       <c r="AB68" s="19">
-        <v>157636</v>
+        <v>106660</v>
       </c>
       <c r="AC68" s="19">
-        <v>165019</v>
+        <v>56803</v>
       </c>
       <c r="AD68" s="19">
-        <v>106660</v>
+        <v>102051</v>
       </c>
       <c r="AE68" s="19">
-        <v>56803</v>
+        <v>115893</v>
       </c>
       <c r="AF68" s="19">
-        <v>102051</v>
+        <v>155210</v>
       </c>
       <c r="AG68" s="19">
-        <v>115893</v>
+        <v>186880</v>
       </c>
       <c r="AH68" s="19">
-        <v>155210</v>
+        <v>183225</v>
       </c>
       <c r="AI68" s="19">
-        <v>186880</v>
+        <v>159512</v>
       </c>
       <c r="AJ68" s="19">
-        <v>183225</v>
+        <v>148999</v>
       </c>
       <c r="AK68" s="19">
-        <v>159512</v>
+        <v>190413</v>
       </c>
       <c r="AL68" s="19">
-        <v>148999</v>
+        <v>153584</v>
       </c>
       <c r="AM68" s="19">
-        <v>190413</v>
+        <v>137152</v>
       </c>
       <c r="AN68" s="19">
-        <v>153584</v>
+        <v>0</v>
       </c>
       <c r="AO68" s="19">
-        <v>137152</v>
+        <v>24937</v>
       </c>
       <c r="AP68" s="19">
-        <v>0</v>
+        <v>43459</v>
       </c>
       <c r="AQ68" s="19">
-        <v>24937</v>
+        <v>145495</v>
       </c>
       <c r="AR68" s="19">
-        <v>43459</v>
+        <v>185259</v>
       </c>
       <c r="AS68" s="19">
-        <v>145495</v>
+        <v>156588</v>
       </c>
       <c r="AT68" s="19">
-        <v>185259</v>
+        <v>175403</v>
       </c>
       <c r="AU68" s="19">
-        <v>156588</v>
+        <v>131443</v>
       </c>
       <c r="AV68" s="19">
-        <v>175403</v>
+        <v>135292</v>
       </c>
       <c r="AW68" s="19">
-        <v>131443</v>
+        <v>159635</v>
       </c>
       <c r="AX68" s="19">
-        <v>135292</v>
+        <v>136000</v>
       </c>
       <c r="AY68" s="19">
-        <v>159635</v>
+        <v>152885</v>
       </c>
       <c r="AZ68" s="19">
-        <v>136000</v>
+        <v>127437</v>
       </c>
       <c r="BA68" s="19">
-        <v>152885</v>
+        <v>101727</v>
       </c>
       <c r="BB68" s="19">
-        <v>127437</v>
+        <v>101640</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -9892,7 +9892,7 @@
       <c r="BA69" s="1"/>
       <c r="BB69" s="1"/>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -9947,7 +9947,7 @@
       <c r="BA70" s="1"/>
       <c r="BB70" s="1"/>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -10002,7 +10002,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B72" s="7" t="s">
         <v>85</v>
       </c>
@@ -10159,7 +10159,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -10214,7 +10214,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="8" t="s">
         <v>85</v>
       </c>
@@ -10271,7 +10271,7 @@
       <c r="BA74" s="9"/>
       <c r="BB74" s="9"/>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="10" t="s">
         <v>55</v>
       </c>
@@ -10324,21 +10324,21 @@
       <c r="S75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T75" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U75" s="11" t="s">
-        <v>57</v>
+      <c r="T75" s="11">
+        <v>4987</v>
+      </c>
+      <c r="U75" s="11">
+        <v>1635</v>
       </c>
       <c r="V75" s="11">
-        <v>4987</v>
-      </c>
-      <c r="W75" s="11">
-        <v>1635</v>
-      </c>
-      <c r="X75" s="11">
         <v>4293</v>
       </c>
+      <c r="W75" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X75" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y75" s="11" t="s">
         <v>57</v>
       </c>
@@ -10396,41 +10396,41 @@
       <c r="AQ75" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR75" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS75" s="11" t="s">
-        <v>57</v>
+      <c r="AR75" s="11">
+        <v>92839</v>
+      </c>
+      <c r="AS75" s="11">
+        <v>21774</v>
       </c>
       <c r="AT75" s="11">
-        <v>92839</v>
+        <v>23054</v>
       </c>
       <c r="AU75" s="11">
-        <v>21774</v>
+        <v>4120</v>
       </c>
       <c r="AV75" s="11">
-        <v>23054</v>
+        <v>51638</v>
       </c>
       <c r="AW75" s="11">
-        <v>4120</v>
+        <v>18378</v>
       </c>
       <c r="AX75" s="11">
-        <v>51638</v>
+        <v>6116</v>
       </c>
       <c r="AY75" s="11">
-        <v>18378</v>
+        <v>50303</v>
       </c>
       <c r="AZ75" s="11">
-        <v>6116</v>
+        <v>72710</v>
       </c>
       <c r="BA75" s="11">
-        <v>50303</v>
+        <v>153617</v>
       </c>
       <c r="BB75" s="11">
-        <v>72710</v>
+        <v>217829</v>
       </c>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="12" t="s">
         <v>58</v>
       </c>
@@ -10483,21 +10483,21 @@
       <c r="S76" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T76" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U76" s="13" t="s">
-        <v>57</v>
+      <c r="T76" s="13">
+        <v>258581</v>
+      </c>
+      <c r="U76" s="13">
+        <v>405263</v>
       </c>
       <c r="V76" s="13">
-        <v>258581</v>
-      </c>
-      <c r="W76" s="13">
-        <v>405263</v>
-      </c>
-      <c r="X76" s="13">
         <v>427191</v>
       </c>
+      <c r="W76" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X76" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y76" s="13" t="s">
         <v>57</v>
       </c>
@@ -10589,7 +10589,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>59</v>
       </c>
@@ -10615,20 +10615,20 @@
       <c r="J77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L77" s="11" t="s">
-        <v>57</v>
+      <c r="K77" s="11">
+        <v>6328</v>
+      </c>
+      <c r="L77" s="11">
+        <v>4670</v>
       </c>
       <c r="M77" s="11">
-        <v>6328</v>
+        <v>57</v>
       </c>
       <c r="N77" s="11">
-        <v>4670</v>
+        <v>0</v>
       </c>
       <c r="O77" s="11">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="P77" s="11">
         <v>0</v>
@@ -10640,86 +10640,86 @@
         <v>0</v>
       </c>
       <c r="S77" s="11">
-        <v>0</v>
-      </c>
-      <c r="T77" s="11">
-        <v>0</v>
-      </c>
-      <c r="U77" s="11">
         <v>929</v>
       </c>
+      <c r="T77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U77" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V77" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W77" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X77" s="11" t="s">
-        <v>57</v>
+      <c r="W77" s="11">
+        <v>32</v>
+      </c>
+      <c r="X77" s="11">
+        <v>0</v>
       </c>
       <c r="Y77" s="11">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Z77" s="11">
         <v>0</v>
       </c>
       <c r="AA77" s="11">
-        <v>0</v>
+        <v>1499</v>
       </c>
       <c r="AB77" s="11">
-        <v>0</v>
+        <v>3337</v>
       </c>
       <c r="AC77" s="11">
-        <v>1499</v>
+        <v>0</v>
       </c>
       <c r="AD77" s="11">
-        <v>3337</v>
+        <v>183</v>
       </c>
       <c r="AE77" s="11">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="AF77" s="11">
-        <v>183</v>
+        <v>31616</v>
       </c>
       <c r="AG77" s="11">
-        <v>1750</v>
+        <v>35500</v>
       </c>
       <c r="AH77" s="11">
-        <v>31616</v>
+        <v>46354</v>
       </c>
       <c r="AI77" s="11">
-        <v>35500</v>
+        <v>37105</v>
       </c>
       <c r="AJ77" s="11">
-        <v>46354</v>
+        <v>19254</v>
       </c>
       <c r="AK77" s="11">
-        <v>37105</v>
+        <v>48675</v>
       </c>
       <c r="AL77" s="11">
-        <v>19254</v>
+        <v>6628</v>
       </c>
       <c r="AM77" s="11">
-        <v>48675</v>
-      </c>
-      <c r="AN77" s="11">
-        <v>6628</v>
+        <v>22867</v>
+      </c>
+      <c r="AN77" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO77" s="11">
-        <v>22867</v>
-      </c>
-      <c r="AP77" s="11" t="s">
-        <v>57</v>
+        <v>162</v>
+      </c>
+      <c r="AP77" s="11">
+        <v>19886</v>
       </c>
       <c r="AQ77" s="11">
-        <v>162</v>
-      </c>
-      <c r="AR77" s="11">
-        <v>19886</v>
-      </c>
-      <c r="AS77" s="11">
         <v>83647</v>
       </c>
+      <c r="AR77" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS77" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT77" s="11" t="s">
         <v>57</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>60</v>
       </c>
@@ -10757,20 +10757,20 @@
       </c>
       <c r="D78" s="13"/>
       <c r="E78" s="13">
-        <v>40770</v>
+        <v>13195</v>
       </c>
       <c r="F78" s="13">
-        <v>32151</v>
+        <v>18338</v>
       </c>
       <c r="G78" s="13">
-        <v>13195</v>
-      </c>
-      <c r="H78" s="13">
-        <v>18338</v>
-      </c>
-      <c r="I78" s="13">
         <v>46230</v>
       </c>
+      <c r="H78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J78" s="13" t="s">
         <v>57</v>
       </c>
@@ -10907,7 +10907,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>61</v>
       </c>
@@ -10916,20 +10916,20 @@
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
-        <v>24209</v>
+        <v>5725</v>
       </c>
       <c r="F79" s="11">
-        <v>13931</v>
+        <v>3367</v>
       </c>
       <c r="G79" s="11">
-        <v>5725</v>
-      </c>
-      <c r="H79" s="11">
-        <v>3367</v>
-      </c>
-      <c r="I79" s="11">
         <v>10163</v>
       </c>
+      <c r="H79" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I79" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J79" s="11" t="s">
         <v>57</v>
       </c>
@@ -11032,23 +11032,23 @@
       <c r="AQ79" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR79" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS79" s="11" t="s">
-        <v>57</v>
+      <c r="AR79" s="11">
+        <v>383</v>
+      </c>
+      <c r="AS79" s="11">
+        <v>5982</v>
       </c>
       <c r="AT79" s="11">
-        <v>383</v>
+        <v>27963</v>
       </c>
       <c r="AU79" s="11">
-        <v>5982</v>
+        <v>4364</v>
       </c>
       <c r="AV79" s="11">
-        <v>27963</v>
+        <v>0</v>
       </c>
       <c r="AW79" s="11">
-        <v>4364</v>
+        <v>0</v>
       </c>
       <c r="AX79" s="11">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>62</v>
       </c>
@@ -11075,20 +11075,20 @@
       </c>
       <c r="D80" s="13"/>
       <c r="E80" s="13">
-        <v>15051</v>
+        <v>4733</v>
       </c>
       <c r="F80" s="13">
-        <v>8595</v>
+        <v>13052</v>
       </c>
       <c r="G80" s="13">
-        <v>4733</v>
-      </c>
-      <c r="H80" s="13">
-        <v>13052</v>
-      </c>
-      <c r="I80" s="13">
         <v>31389</v>
       </c>
+      <c r="H80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J80" s="13" t="s">
         <v>57</v>
       </c>
@@ -11225,7 +11225,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>63</v>
       </c>
@@ -11234,20 +11234,20 @@
       </c>
       <c r="D81" s="11"/>
       <c r="E81" s="11">
-        <v>266</v>
+        <v>101</v>
       </c>
       <c r="F81" s="11">
-        <v>110</v>
+        <v>39</v>
       </c>
       <c r="G81" s="11">
-        <v>101</v>
-      </c>
-      <c r="H81" s="11">
-        <v>39</v>
-      </c>
-      <c r="I81" s="11">
         <v>232</v>
       </c>
+      <c r="H81" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I81" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J81" s="11" t="s">
         <v>57</v>
       </c>
@@ -11353,14 +11353,14 @@
       <c r="AR81" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS81" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AT81" s="11" t="s">
-        <v>57</v>
+      <c r="AS81" s="11">
+        <v>514</v>
+      </c>
+      <c r="AT81" s="11">
+        <v>0</v>
       </c>
       <c r="AU81" s="11">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="AV81" s="11">
         <v>0</v>
@@ -11384,7 +11384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>64</v>
       </c>
@@ -11401,120 +11401,120 @@
       <c r="G82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H82" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I82" s="13" t="s">
-        <v>57</v>
+      <c r="H82" s="13">
+        <v>3762</v>
+      </c>
+      <c r="I82" s="13">
+        <v>5112</v>
       </c>
       <c r="J82" s="13">
-        <v>3762</v>
+        <v>0</v>
       </c>
       <c r="K82" s="13">
-        <v>5112</v>
+        <v>16021</v>
       </c>
       <c r="L82" s="13">
-        <v>0</v>
+        <v>19179</v>
       </c>
       <c r="M82" s="13">
-        <v>16021</v>
+        <v>8391</v>
       </c>
       <c r="N82" s="13">
-        <v>19179</v>
+        <v>7761</v>
       </c>
       <c r="O82" s="13">
-        <v>8391</v>
+        <v>8351</v>
       </c>
       <c r="P82" s="13">
-        <v>7761</v>
+        <v>3271</v>
       </c>
       <c r="Q82" s="13">
-        <v>8351</v>
+        <v>347</v>
       </c>
       <c r="R82" s="13">
-        <v>3271</v>
+        <v>1557</v>
       </c>
       <c r="S82" s="13">
-        <v>347</v>
-      </c>
-      <c r="T82" s="13">
-        <v>1557</v>
-      </c>
-      <c r="U82" s="13">
         <v>4655</v>
       </c>
+      <c r="T82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U82" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V82" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W82" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X82" s="13" t="s">
-        <v>57</v>
+      <c r="W82" s="13">
+        <v>32084</v>
+      </c>
+      <c r="X82" s="13">
+        <v>32354</v>
       </c>
       <c r="Y82" s="13">
-        <v>32084</v>
+        <v>36962</v>
       </c>
       <c r="Z82" s="13">
-        <v>32354</v>
+        <v>13634</v>
       </c>
       <c r="AA82" s="13">
-        <v>36962</v>
+        <v>13630</v>
       </c>
       <c r="AB82" s="13">
-        <v>13634</v>
+        <v>24835</v>
       </c>
       <c r="AC82" s="13">
-        <v>13630</v>
+        <v>7977</v>
       </c>
       <c r="AD82" s="13">
-        <v>24835</v>
+        <v>26884</v>
       </c>
       <c r="AE82" s="13">
-        <v>7977</v>
+        <v>8819</v>
       </c>
       <c r="AF82" s="13">
-        <v>26884</v>
+        <v>31546</v>
       </c>
       <c r="AG82" s="13">
-        <v>8819</v>
+        <v>12261</v>
       </c>
       <c r="AH82" s="13">
-        <v>31546</v>
+        <v>8184</v>
       </c>
       <c r="AI82" s="13">
-        <v>12261</v>
+        <v>15536</v>
       </c>
       <c r="AJ82" s="13">
-        <v>8184</v>
+        <v>35926</v>
       </c>
       <c r="AK82" s="13">
-        <v>15536</v>
+        <v>58209</v>
       </c>
       <c r="AL82" s="13">
-        <v>35926</v>
+        <v>28979</v>
       </c>
       <c r="AM82" s="13">
-        <v>58209</v>
-      </c>
-      <c r="AN82" s="13">
-        <v>28979</v>
+        <v>19680</v>
+      </c>
+      <c r="AN82" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO82" s="13">
-        <v>19680</v>
-      </c>
-      <c r="AP82" s="13" t="s">
-        <v>57</v>
+        <v>3969</v>
+      </c>
+      <c r="AP82" s="13">
+        <v>2769</v>
       </c>
       <c r="AQ82" s="13">
-        <v>3969</v>
-      </c>
-      <c r="AR82" s="13">
-        <v>2769</v>
-      </c>
-      <c r="AS82" s="13">
         <v>15476</v>
       </c>
+      <c r="AR82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS82" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT82" s="13" t="s">
         <v>57</v>
       </c>
@@ -11543,7 +11543,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>65</v>
       </c>
@@ -11560,120 +11560,120 @@
       <c r="G83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>57</v>
+      <c r="H83" s="11">
+        <v>121393</v>
+      </c>
+      <c r="I83" s="11">
+        <v>183872</v>
       </c>
       <c r="J83" s="11">
-        <v>121393</v>
+        <v>205340</v>
       </c>
       <c r="K83" s="11">
-        <v>183872</v>
+        <v>219034</v>
       </c>
       <c r="L83" s="11">
-        <v>205340</v>
+        <v>238664</v>
       </c>
       <c r="M83" s="11">
-        <v>219034</v>
+        <v>254342</v>
       </c>
       <c r="N83" s="11">
-        <v>238664</v>
+        <v>252994</v>
       </c>
       <c r="O83" s="11">
-        <v>254342</v>
+        <v>232675</v>
       </c>
       <c r="P83" s="11">
-        <v>252994</v>
+        <v>130641</v>
       </c>
       <c r="Q83" s="11">
-        <v>232675</v>
+        <v>69759</v>
       </c>
       <c r="R83" s="11">
-        <v>130641</v>
+        <v>34147</v>
       </c>
       <c r="S83" s="11">
-        <v>69759</v>
-      </c>
-      <c r="T83" s="11">
-        <v>34147</v>
-      </c>
-      <c r="U83" s="11">
         <v>207849</v>
       </c>
+      <c r="T83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U83" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V83" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W83" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X83" s="11" t="s">
-        <v>57</v>
+      <c r="W83" s="11">
+        <v>466204</v>
+      </c>
+      <c r="X83" s="11">
+        <v>417403</v>
       </c>
       <c r="Y83" s="11">
-        <v>466204</v>
+        <v>385661</v>
       </c>
       <c r="Z83" s="11">
-        <v>417403</v>
+        <v>391458</v>
       </c>
       <c r="AA83" s="11">
-        <v>385661</v>
+        <v>426897</v>
       </c>
       <c r="AB83" s="11">
-        <v>391458</v>
+        <v>252556</v>
       </c>
       <c r="AC83" s="11">
-        <v>426897</v>
+        <v>140203</v>
       </c>
       <c r="AD83" s="11">
-        <v>252556</v>
+        <v>255954</v>
       </c>
       <c r="AE83" s="11">
-        <v>140203</v>
+        <v>303757</v>
       </c>
       <c r="AF83" s="11">
-        <v>255954</v>
+        <v>401076</v>
       </c>
       <c r="AG83" s="11">
-        <v>303757</v>
+        <v>656034</v>
       </c>
       <c r="AH83" s="11">
-        <v>401076</v>
+        <v>659971</v>
       </c>
       <c r="AI83" s="11">
-        <v>656034</v>
+        <v>710324</v>
       </c>
       <c r="AJ83" s="11">
-        <v>659971</v>
+        <v>812328</v>
       </c>
       <c r="AK83" s="11">
-        <v>710324</v>
+        <v>1031697</v>
       </c>
       <c r="AL83" s="11">
-        <v>812328</v>
+        <v>684173</v>
       </c>
       <c r="AM83" s="11">
-        <v>1031697</v>
-      </c>
-      <c r="AN83" s="11">
-        <v>684173</v>
+        <v>574236</v>
+      </c>
+      <c r="AN83" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO83" s="11">
-        <v>574236</v>
-      </c>
-      <c r="AP83" s="11" t="s">
-        <v>57</v>
+        <v>102713</v>
+      </c>
+      <c r="AP83" s="11">
+        <v>185729</v>
       </c>
       <c r="AQ83" s="11">
-        <v>102713</v>
-      </c>
-      <c r="AR83" s="11">
-        <v>185729</v>
-      </c>
-      <c r="AS83" s="11">
         <v>642327</v>
       </c>
+      <c r="AR83" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS83" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT83" s="11" t="s">
         <v>57</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>66</v>
       </c>
@@ -11728,14 +11728,14 @@
       <c r="J84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L84" s="13" t="s">
-        <v>57</v>
+      <c r="K84" s="13">
+        <v>279</v>
+      </c>
+      <c r="L84" s="13">
+        <v>0</v>
       </c>
       <c r="M84" s="13">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="N84" s="13">
         <v>0</v>
@@ -11755,20 +11755,20 @@
       <c r="S84" s="13">
         <v>0</v>
       </c>
-      <c r="T84" s="13">
-        <v>0</v>
-      </c>
-      <c r="U84" s="13">
-        <v>0</v>
+      <c r="T84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V84" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W84" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X84" s="13" t="s">
-        <v>57</v>
+      <c r="W84" s="13">
+        <v>0</v>
+      </c>
+      <c r="X84" s="13">
+        <v>0</v>
       </c>
       <c r="Y84" s="13">
         <v>0</v>
@@ -11815,23 +11815,23 @@
       <c r="AM84" s="13">
         <v>0</v>
       </c>
-      <c r="AN84" s="13">
-        <v>0</v>
+      <c r="AN84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO84" s="13">
         <v>0</v>
       </c>
-      <c r="AP84" s="13" t="s">
-        <v>57</v>
+      <c r="AP84" s="13">
+        <v>0</v>
       </c>
       <c r="AQ84" s="13">
         <v>0</v>
       </c>
-      <c r="AR84" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS84" s="13">
-        <v>0</v>
+      <c r="AR84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS84" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AT84" s="13" t="s">
         <v>57</v>
@@ -11861,7 +11861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>67</v>
       </c>
@@ -11986,41 +11986,41 @@
       <c r="AQ85" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR85" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS85" s="11" t="s">
-        <v>57</v>
+      <c r="AR85" s="11">
+        <v>150039</v>
+      </c>
+      <c r="AS85" s="11">
+        <v>92996</v>
       </c>
       <c r="AT85" s="11">
-        <v>150039</v>
+        <v>192156</v>
       </c>
       <c r="AU85" s="11">
-        <v>92996</v>
+        <v>303024</v>
       </c>
       <c r="AV85" s="11">
-        <v>192156</v>
+        <v>298832</v>
       </c>
       <c r="AW85" s="11">
-        <v>303024</v>
+        <v>366656</v>
       </c>
       <c r="AX85" s="11">
-        <v>298832</v>
+        <v>279784</v>
       </c>
       <c r="AY85" s="11">
-        <v>366656</v>
+        <v>270096</v>
       </c>
       <c r="AZ85" s="11">
-        <v>279784</v>
+        <v>196334</v>
       </c>
       <c r="BA85" s="11">
-        <v>270096</v>
+        <v>103180</v>
       </c>
       <c r="BB85" s="11">
-        <v>196334</v>
+        <v>53671</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>68</v>
       </c>
@@ -12145,41 +12145,41 @@
       <c r="AQ86" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR86" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS86" s="13" t="s">
-        <v>57</v>
+      <c r="AR86" s="13">
+        <v>297429</v>
+      </c>
+      <c r="AS86" s="13">
+        <v>208702</v>
       </c>
       <c r="AT86" s="13">
-        <v>297429</v>
+        <v>371216</v>
       </c>
       <c r="AU86" s="13">
-        <v>208702</v>
+        <v>400535</v>
       </c>
       <c r="AV86" s="13">
-        <v>371216</v>
+        <v>366469</v>
       </c>
       <c r="AW86" s="13">
-        <v>400535</v>
+        <v>466541</v>
       </c>
       <c r="AX86" s="13">
-        <v>366469</v>
+        <v>367281</v>
       </c>
       <c r="AY86" s="13">
-        <v>466541</v>
+        <v>342216</v>
       </c>
       <c r="AZ86" s="13">
-        <v>367281</v>
+        <v>218913</v>
       </c>
       <c r="BA86" s="13">
-        <v>342216</v>
+        <v>123211</v>
       </c>
       <c r="BB86" s="13">
-        <v>218913</v>
+        <v>133140</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>69</v>
       </c>
@@ -12191,16 +12191,16 @@
         <v>0</v>
       </c>
       <c r="F87" s="11">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G87" s="11">
         <v>0</v>
       </c>
-      <c r="H87" s="11">
-        <v>28</v>
-      </c>
-      <c r="I87" s="11">
-        <v>0</v>
+      <c r="H87" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I87" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J87" s="11" t="s">
         <v>57</v>
@@ -12338,7 +12338,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>70</v>
       </c>
@@ -12347,20 +12347,20 @@
       </c>
       <c r="D88" s="13"/>
       <c r="E88" s="13">
-        <v>10965</v>
+        <v>3803</v>
       </c>
       <c r="F88" s="13">
-        <v>4144</v>
+        <v>16730</v>
       </c>
       <c r="G88" s="13">
-        <v>3803</v>
-      </c>
-      <c r="H88" s="13">
-        <v>16730</v>
-      </c>
-      <c r="I88" s="13">
         <v>36561</v>
       </c>
+      <c r="H88" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J88" s="13" t="s">
         <v>57</v>
       </c>
@@ -12497,7 +12497,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>71</v>
       </c>
@@ -12506,20 +12506,20 @@
       </c>
       <c r="D89" s="11"/>
       <c r="E89" s="11">
-        <v>24213</v>
+        <v>1902</v>
       </c>
       <c r="F89" s="11">
-        <v>4180</v>
+        <v>5374</v>
       </c>
       <c r="G89" s="11">
-        <v>1902</v>
-      </c>
-      <c r="H89" s="11">
-        <v>5374</v>
-      </c>
-      <c r="I89" s="11">
         <v>7659</v>
       </c>
+      <c r="H89" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I89" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J89" s="11" t="s">
         <v>57</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>72</v>
       </c>
@@ -12673,11 +12673,11 @@
       <c r="G90" s="13">
         <v>0</v>
       </c>
-      <c r="H90" s="13">
-        <v>0</v>
-      </c>
-      <c r="I90" s="13">
-        <v>0</v>
+      <c r="H90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="J90" s="13" t="s">
         <v>57</v>
@@ -12815,7 +12815,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="10" t="s">
         <v>73</v>
       </c>
@@ -12824,20 +12824,20 @@
       </c>
       <c r="D91" s="11"/>
       <c r="E91" s="11">
-        <v>3085</v>
+        <v>2396</v>
       </c>
       <c r="F91" s="11">
-        <v>2849</v>
+        <v>2474</v>
       </c>
       <c r="G91" s="11">
-        <v>2396</v>
-      </c>
-      <c r="H91" s="11">
-        <v>2474</v>
-      </c>
-      <c r="I91" s="11">
         <v>586</v>
       </c>
+      <c r="H91" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I91" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J91" s="11" t="s">
         <v>57</v>
       </c>
@@ -12940,23 +12940,23 @@
       <c r="AQ91" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR91" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS91" s="11" t="s">
-        <v>57</v>
+      <c r="AR91" s="11">
+        <v>166</v>
+      </c>
+      <c r="AS91" s="11">
+        <v>3486</v>
       </c>
       <c r="AT91" s="11">
-        <v>166</v>
+        <v>5883</v>
       </c>
       <c r="AU91" s="11">
-        <v>3486</v>
+        <v>619</v>
       </c>
       <c r="AV91" s="11">
-        <v>5883</v>
+        <v>0</v>
       </c>
       <c r="AW91" s="11">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="AX91" s="11">
         <v>0</v>
@@ -12974,7 +12974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="12" t="s">
         <v>74</v>
       </c>
@@ -12983,20 +12983,20 @@
       </c>
       <c r="D92" s="13"/>
       <c r="E92" s="13">
-        <v>6118</v>
+        <v>1605</v>
       </c>
       <c r="F92" s="13">
-        <v>5135</v>
+        <v>2602</v>
       </c>
       <c r="G92" s="13">
-        <v>1605</v>
-      </c>
-      <c r="H92" s="13">
-        <v>2602</v>
-      </c>
-      <c r="I92" s="13">
         <v>4927</v>
       </c>
+      <c r="H92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J92" s="13" t="s">
         <v>57</v>
       </c>
@@ -13099,41 +13099,41 @@
       <c r="AQ92" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR92" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS92" s="13" t="s">
-        <v>57</v>
+      <c r="AR92" s="13">
+        <v>148012</v>
+      </c>
+      <c r="AS92" s="13">
+        <v>220950</v>
       </c>
       <c r="AT92" s="13">
-        <v>148012</v>
+        <v>193683</v>
       </c>
       <c r="AU92" s="13">
-        <v>220950</v>
+        <v>42458</v>
       </c>
       <c r="AV92" s="13">
-        <v>193683</v>
+        <v>64244</v>
       </c>
       <c r="AW92" s="13">
-        <v>42458</v>
+        <v>35298</v>
       </c>
       <c r="AX92" s="13">
-        <v>64244</v>
+        <v>62922</v>
       </c>
       <c r="AY92" s="13">
-        <v>35298</v>
+        <v>100129</v>
       </c>
       <c r="AZ92" s="13">
-        <v>62922</v>
+        <v>124937</v>
       </c>
       <c r="BA92" s="13">
-        <v>100129</v>
+        <v>62421</v>
       </c>
       <c r="BB92" s="13">
-        <v>124937</v>
+        <v>44984</v>
       </c>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>75</v>
       </c>
@@ -13142,20 +13142,20 @@
       </c>
       <c r="D93" s="11"/>
       <c r="E93" s="11">
-        <v>1335</v>
+        <v>2813</v>
       </c>
       <c r="F93" s="11">
-        <v>812</v>
+        <v>4845</v>
       </c>
       <c r="G93" s="11">
-        <v>2813</v>
-      </c>
-      <c r="H93" s="11">
-        <v>4845</v>
-      </c>
-      <c r="I93" s="11">
         <v>11520</v>
       </c>
+      <c r="H93" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I93" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J93" s="11" t="s">
         <v>57</v>
       </c>
@@ -13258,41 +13258,41 @@
       <c r="AQ93" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR93" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS93" s="11" t="s">
-        <v>57</v>
+      <c r="AR93" s="11">
+        <v>129823</v>
+      </c>
+      <c r="AS93" s="11">
+        <v>244427</v>
       </c>
       <c r="AT93" s="11">
-        <v>129823</v>
+        <v>247658</v>
       </c>
       <c r="AU93" s="11">
-        <v>244427</v>
+        <v>57581</v>
       </c>
       <c r="AV93" s="11">
-        <v>247658</v>
+        <v>30235</v>
       </c>
       <c r="AW93" s="11">
-        <v>57581</v>
+        <v>30629</v>
       </c>
       <c r="AX93" s="11">
-        <v>30235</v>
+        <v>33683</v>
       </c>
       <c r="AY93" s="11">
-        <v>30629</v>
+        <v>53545</v>
       </c>
       <c r="AZ93" s="11">
-        <v>33683</v>
+        <v>37553</v>
       </c>
       <c r="BA93" s="11">
-        <v>53545</v>
+        <v>31711</v>
       </c>
       <c r="BB93" s="11">
-        <v>37553</v>
+        <v>36811</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>76</v>
       </c>
@@ -13417,41 +13417,41 @@
       <c r="AQ94" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR94" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS94" s="13" t="s">
-        <v>57</v>
+      <c r="AR94" s="13">
+        <v>150205</v>
+      </c>
+      <c r="AS94" s="13">
+        <v>44996</v>
       </c>
       <c r="AT94" s="13">
-        <v>150205</v>
+        <v>35002</v>
       </c>
       <c r="AU94" s="13">
-        <v>44996</v>
+        <v>26078</v>
       </c>
       <c r="AV94" s="13">
-        <v>35002</v>
+        <v>33744</v>
       </c>
       <c r="AW94" s="13">
-        <v>26078</v>
+        <v>49053</v>
       </c>
       <c r="AX94" s="13">
-        <v>33744</v>
+        <v>61861</v>
       </c>
       <c r="AY94" s="13">
-        <v>49053</v>
+        <v>62877</v>
       </c>
       <c r="AZ94" s="13">
-        <v>61861</v>
+        <v>29791</v>
       </c>
       <c r="BA94" s="13">
-        <v>62877</v>
+        <v>9255</v>
       </c>
       <c r="BB94" s="13">
-        <v>29791</v>
+        <v>8790</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>77</v>
       </c>
@@ -13576,20 +13576,20 @@
       <c r="AQ95" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR95" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS95" s="11" t="s">
-        <v>57</v>
+      <c r="AR95" s="11">
+        <v>10245</v>
+      </c>
+      <c r="AS95" s="11">
+        <v>3038</v>
       </c>
       <c r="AT95" s="11">
-        <v>10245</v>
+        <v>147</v>
       </c>
       <c r="AU95" s="11">
-        <v>3038</v>
+        <v>0</v>
       </c>
       <c r="AV95" s="11">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AW95" s="11">
         <v>0</v>
@@ -13610,7 +13610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>78</v>
       </c>
@@ -13735,11 +13735,11 @@
       <c r="AQ96" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR96" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS96" s="13" t="s">
-        <v>57</v>
+      <c r="AR96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS96" s="13">
+        <v>0</v>
       </c>
       <c r="AT96" s="13">
         <v>0</v>
@@ -13769,7 +13769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="14" t="s">
         <v>87</v>
       </c>
@@ -13826,7 +13826,7 @@
       <c r="BA97" s="15"/>
       <c r="BB97" s="15"/>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="16" t="s">
         <v>80</v>
       </c>
@@ -13888,11 +13888,11 @@
       <c r="V98" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W98" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X98" s="17" t="s">
-        <v>57</v>
+      <c r="W98" s="17">
+        <v>0</v>
+      </c>
+      <c r="X98" s="17">
+        <v>0</v>
       </c>
       <c r="Y98" s="17">
         <v>0</v>
@@ -13985,7 +13985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
         <v>88</v>
       </c>
@@ -14042,7 +14042,7 @@
       <c r="BA99" s="15"/>
       <c r="BB99" s="15"/>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="16" t="s">
         <v>84</v>
       </c>
@@ -14104,11 +14104,11 @@
       <c r="V100" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="W100" s="17" t="s">
-        <v>57</v>
-      </c>
-      <c r="X100" s="17" t="s">
-        <v>57</v>
+      <c r="W100" s="17">
+        <v>0</v>
+      </c>
+      <c r="X100" s="17">
+        <v>0</v>
       </c>
       <c r="Y100" s="17">
         <v>0</v>
@@ -14201,7 +14201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
         <v>89</v>
       </c>
@@ -14258,7 +14258,7 @@
       <c r="BA101" s="9"/>
       <c r="BB101" s="9"/>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
         <v>90</v>
       </c>
@@ -14320,11 +14320,11 @@
       <c r="V102" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W102" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X102" s="11" t="s">
-        <v>57</v>
+      <c r="W102" s="11">
+        <v>0</v>
+      </c>
+      <c r="X102" s="11">
+        <v>0</v>
       </c>
       <c r="Y102" s="11">
         <v>0</v>
@@ -14417,164 +14417,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="18" t="s">
         <v>81</v>
       </c>
       <c r="C103" s="19"/>
       <c r="D103" s="19"/>
       <c r="E103" s="19">
-        <v>126012</v>
+        <v>36273</v>
       </c>
       <c r="F103" s="19">
-        <v>71907</v>
+        <v>66849</v>
       </c>
       <c r="G103" s="19">
-        <v>36273</v>
+        <v>149267</v>
       </c>
       <c r="H103" s="19">
-        <v>66849</v>
+        <v>125155</v>
       </c>
       <c r="I103" s="19">
-        <v>149267</v>
+        <v>188984</v>
       </c>
       <c r="J103" s="19">
-        <v>125155</v>
+        <v>205340</v>
       </c>
       <c r="K103" s="19">
-        <v>188984</v>
+        <v>241662</v>
       </c>
       <c r="L103" s="19">
-        <v>205340</v>
+        <v>262513</v>
       </c>
       <c r="M103" s="19">
-        <v>241662</v>
+        <v>262790</v>
       </c>
       <c r="N103" s="19">
-        <v>262513</v>
+        <v>260755</v>
       </c>
       <c r="O103" s="19">
-        <v>262790</v>
+        <v>241026</v>
       </c>
       <c r="P103" s="19">
-        <v>260755</v>
+        <v>133912</v>
       </c>
       <c r="Q103" s="19">
-        <v>241026</v>
+        <v>70106</v>
       </c>
       <c r="R103" s="19">
-        <v>133912</v>
+        <v>35704</v>
       </c>
       <c r="S103" s="19">
-        <v>70106</v>
+        <v>213433</v>
       </c>
       <c r="T103" s="19">
-        <v>35704</v>
+        <v>263568</v>
       </c>
       <c r="U103" s="19">
-        <v>213433</v>
+        <v>406898</v>
       </c>
       <c r="V103" s="19">
-        <v>263568</v>
+        <v>431484</v>
       </c>
       <c r="W103" s="19">
-        <v>406898</v>
+        <v>498320</v>
       </c>
       <c r="X103" s="19">
-        <v>431484</v>
+        <v>449757</v>
       </c>
       <c r="Y103" s="19">
-        <v>498320</v>
+        <v>422623</v>
       </c>
       <c r="Z103" s="19">
-        <v>449757</v>
+        <v>405092</v>
       </c>
       <c r="AA103" s="19">
-        <v>422623</v>
+        <v>442026</v>
       </c>
       <c r="AB103" s="19">
-        <v>405092</v>
+        <v>280728</v>
       </c>
       <c r="AC103" s="19">
-        <v>442026</v>
+        <v>148180</v>
       </c>
       <c r="AD103" s="19">
-        <v>280728</v>
+        <v>283021</v>
       </c>
       <c r="AE103" s="19">
-        <v>148180</v>
+        <v>314326</v>
       </c>
       <c r="AF103" s="19">
-        <v>283021</v>
+        <v>464238</v>
       </c>
       <c r="AG103" s="19">
-        <v>314326</v>
+        <v>703795</v>
       </c>
       <c r="AH103" s="19">
-        <v>464238</v>
+        <v>714509</v>
       </c>
       <c r="AI103" s="19">
-        <v>703795</v>
+        <v>762965</v>
       </c>
       <c r="AJ103" s="19">
-        <v>714509</v>
+        <v>867508</v>
       </c>
       <c r="AK103" s="19">
-        <v>762965</v>
+        <v>1138581</v>
       </c>
       <c r="AL103" s="19">
-        <v>867508</v>
+        <v>719780</v>
       </c>
       <c r="AM103" s="19">
-        <v>1138581</v>
+        <v>616783</v>
       </c>
       <c r="AN103" s="19">
-        <v>719780</v>
+        <v>0</v>
       </c>
       <c r="AO103" s="19">
-        <v>616783</v>
+        <v>106844</v>
       </c>
       <c r="AP103" s="19">
-        <v>0</v>
+        <v>208384</v>
       </c>
       <c r="AQ103" s="19">
-        <v>106844</v>
+        <v>741450</v>
       </c>
       <c r="AR103" s="19">
-        <v>208384</v>
+        <v>979141</v>
       </c>
       <c r="AS103" s="19">
-        <v>741450</v>
+        <v>846865</v>
       </c>
       <c r="AT103" s="19">
-        <v>979141</v>
+        <v>1096762</v>
       </c>
       <c r="AU103" s="19">
-        <v>846865</v>
+        <v>838779</v>
       </c>
       <c r="AV103" s="19">
-        <v>1096762</v>
+        <v>845162</v>
       </c>
       <c r="AW103" s="19">
-        <v>838779</v>
+        <v>966555</v>
       </c>
       <c r="AX103" s="19">
-        <v>845162</v>
+        <v>811647</v>
       </c>
       <c r="AY103" s="19">
-        <v>966555</v>
+        <v>879166</v>
       </c>
       <c r="AZ103" s="19">
-        <v>811647</v>
+        <v>680238</v>
       </c>
       <c r="BA103" s="19">
-        <v>879166</v>
+        <v>483395</v>
       </c>
       <c r="BB103" s="19">
-        <v>680238</v>
+        <v>495225</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -14629,7 +14629,7 @@
       <c r="BA104" s="1"/>
       <c r="BB104" s="1"/>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -14684,7 +14684,7 @@
       <c r="BA105" s="1"/>
       <c r="BB105" s="1"/>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -14739,7 +14739,7 @@
       <c r="BA106" s="1"/>
       <c r="BB106" s="1"/>
     </row>
-    <row r="107" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B107" s="7" t="s">
         <v>91</v>
       </c>
@@ -14896,7 +14896,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -14951,7 +14951,7 @@
       <c r="BA108" s="1"/>
       <c r="BB108" s="1"/>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="8" t="s">
         <v>92</v>
       </c>
@@ -15008,7 +15008,7 @@
       <c r="BA109" s="9"/>
       <c r="BB109" s="9"/>
     </row>
-    <row r="110" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B110" s="10" t="s">
         <v>55</v>
       </c>
@@ -15061,21 +15061,21 @@
       <c r="S110" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="T110" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="U110" s="11" t="s">
-        <v>57</v>
+      <c r="T110" s="11">
+        <v>1114912</v>
+      </c>
+      <c r="U110" s="11">
+        <v>1216518</v>
       </c>
       <c r="V110" s="11">
-        <v>1114912</v>
-      </c>
-      <c r="W110" s="11">
-        <v>1216518</v>
-      </c>
-      <c r="X110" s="11">
         <v>1325818</v>
       </c>
+      <c r="W110" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X110" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="Y110" s="11" t="s">
         <v>57</v>
       </c>
@@ -15133,41 +15133,41 @@
       <c r="AQ110" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR110" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS110" s="11" t="s">
-        <v>57</v>
+      <c r="AR110" s="11">
+        <v>6713356</v>
+      </c>
+      <c r="AS110" s="11">
+        <v>6785291</v>
       </c>
       <c r="AT110" s="11">
-        <v>6713356</v>
+        <v>7738839</v>
       </c>
       <c r="AU110" s="11">
-        <v>6785291</v>
+        <v>8174603</v>
       </c>
       <c r="AV110" s="11">
-        <v>7738839</v>
+        <v>7912657</v>
       </c>
       <c r="AW110" s="11">
-        <v>8174603</v>
+        <v>5440497</v>
       </c>
       <c r="AX110" s="11">
-        <v>7912657</v>
+        <v>4444767</v>
       </c>
       <c r="AY110" s="11">
-        <v>5440497</v>
+        <v>4168642</v>
       </c>
       <c r="AZ110" s="11">
-        <v>4444767</v>
+        <v>3604323</v>
       </c>
       <c r="BA110" s="11">
-        <v>4168642</v>
+        <v>3482431</v>
       </c>
       <c r="BB110" s="11">
-        <v>3604323</v>
+        <v>4036113</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="12" t="s">
         <v>58</v>
       </c>
@@ -15220,21 +15220,21 @@
       <c r="S111" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="T111" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="U111" s="13" t="s">
-        <v>57</v>
+      <c r="T111" s="13">
+        <v>1992595</v>
+      </c>
+      <c r="U111" s="13">
+        <v>1972649</v>
       </c>
       <c r="V111" s="13">
-        <v>1992595</v>
-      </c>
-      <c r="W111" s="13">
-        <v>1972649</v>
-      </c>
-      <c r="X111" s="13">
         <v>1987739</v>
       </c>
+      <c r="W111" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="X111" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="Y111" s="13" t="s">
         <v>57</v>
       </c>
@@ -15326,7 +15326,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="10" t="s">
         <v>59</v>
       </c>
@@ -15352,20 +15352,20 @@
       <c r="J112" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="K112" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="L112" s="11" t="s">
-        <v>57</v>
+      <c r="K112" s="11">
+        <v>953012</v>
+      </c>
+      <c r="L112" s="11">
+        <v>1068894</v>
       </c>
       <c r="M112" s="11">
-        <v>953012</v>
+        <v>1075472</v>
       </c>
       <c r="N112" s="11">
-        <v>1068894</v>
+        <v>0</v>
       </c>
       <c r="O112" s="11">
-        <v>1075472</v>
+        <v>0</v>
       </c>
       <c r="P112" s="11">
         <v>0</v>
@@ -15377,86 +15377,86 @@
         <v>0</v>
       </c>
       <c r="S112" s="11">
-        <v>0</v>
-      </c>
-      <c r="T112" s="11">
-        <v>0</v>
-      </c>
-      <c r="U112" s="11">
         <v>696402</v>
       </c>
+      <c r="T112" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U112" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V112" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W112" s="11" t="s">
-        <v>57</v>
+      <c r="W112" s="11">
+        <v>1391304</v>
       </c>
       <c r="X112" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="Y112" s="11">
-        <v>1391304</v>
+      <c r="Y112" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="Z112" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AA112" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB112" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AC112" s="11">
+      <c r="AA112" s="11">
         <v>3674020</v>
       </c>
+      <c r="AB112" s="11">
+        <v>2995512</v>
+      </c>
+      <c r="AC112" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AD112" s="11">
-        <v>2995512</v>
-      </c>
-      <c r="AE112" s="11" t="s">
-        <v>57</v>
+        <v>2407895</v>
+      </c>
+      <c r="AE112" s="11">
+        <v>3507014</v>
       </c>
       <c r="AF112" s="11">
-        <v>2407895</v>
+        <v>4146361</v>
       </c>
       <c r="AG112" s="11">
-        <v>3507014</v>
+        <v>4389761</v>
       </c>
       <c r="AH112" s="11">
-        <v>4146361</v>
+        <v>5168246</v>
       </c>
       <c r="AI112" s="11">
-        <v>4389761</v>
+        <v>5451807</v>
       </c>
       <c r="AJ112" s="11">
-        <v>5168246</v>
+        <v>6544528</v>
       </c>
       <c r="AK112" s="11">
-        <v>5451807</v>
+        <v>7080000</v>
       </c>
       <c r="AL112" s="11">
-        <v>6544528</v>
+        <v>6595025</v>
       </c>
       <c r="AM112" s="11">
-        <v>7080000</v>
-      </c>
-      <c r="AN112" s="11">
-        <v>6595025</v>
+        <v>6088126</v>
+      </c>
+      <c r="AN112" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO112" s="11">
-        <v>6088126</v>
-      </c>
-      <c r="AP112" s="11" t="s">
-        <v>57</v>
+        <v>6480000</v>
+      </c>
+      <c r="AP112" s="11">
+        <v>5916691</v>
       </c>
       <c r="AQ112" s="11">
-        <v>6480000</v>
-      </c>
-      <c r="AR112" s="11">
-        <v>5916691</v>
-      </c>
-      <c r="AS112" s="11">
         <v>6021669</v>
       </c>
+      <c r="AR112" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS112" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT112" s="11" t="s">
         <v>57</v>
       </c>
@@ -15485,7 +15485,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="12" t="s">
         <v>60</v>
       </c>
@@ -15494,20 +15494,20 @@
       </c>
       <c r="D113" s="13"/>
       <c r="E113" s="13">
-        <v>1296302</v>
+        <v>934027</v>
       </c>
       <c r="F113" s="13">
-        <v>1302134</v>
+        <v>1271089</v>
       </c>
       <c r="G113" s="13">
-        <v>934027</v>
-      </c>
-      <c r="H113" s="13">
-        <v>1271089</v>
-      </c>
-      <c r="I113" s="13">
         <v>1221755</v>
       </c>
+      <c r="H113" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I113" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J113" s="13" t="s">
         <v>57</v>
       </c>
@@ -15644,7 +15644,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
         <v>61</v>
       </c>
@@ -15653,20 +15653,20 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>1481579</v>
+        <v>1449000</v>
       </c>
       <c r="F114" s="11">
-        <v>1651571</v>
+        <v>1640838</v>
       </c>
       <c r="G114" s="11">
-        <v>1449000</v>
-      </c>
-      <c r="H114" s="11">
-        <v>1640838</v>
-      </c>
-      <c r="I114" s="11">
         <v>1621928</v>
       </c>
+      <c r="H114" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I114" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J114" s="11" t="s">
         <v>57</v>
       </c>
@@ -15769,24 +15769,24 @@
       <c r="AQ114" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR114" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS114" s="11" t="s">
-        <v>57</v>
+      <c r="AR114" s="11">
+        <v>5471429</v>
+      </c>
+      <c r="AS114" s="11">
+        <v>5940417</v>
       </c>
       <c r="AT114" s="11">
-        <v>5471429</v>
+        <v>6136274</v>
       </c>
       <c r="AU114" s="11">
-        <v>5940417</v>
-      </c>
-      <c r="AV114" s="11">
-        <v>6136274</v>
-      </c>
-      <c r="AW114" s="11">
         <v>7359191</v>
       </c>
+      <c r="AV114" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW114" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AX114" s="11" t="s">
         <v>57</v>
       </c>
@@ -15803,7 +15803,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B115" s="12" t="s">
         <v>62</v>
       </c>
@@ -15812,20 +15812,20 @@
       </c>
       <c r="D115" s="13"/>
       <c r="E115" s="13">
-        <v>1530040</v>
+        <v>1452732</v>
       </c>
       <c r="F115" s="13">
-        <v>1642775</v>
+        <v>1503513</v>
       </c>
       <c r="G115" s="13">
-        <v>1452732</v>
-      </c>
-      <c r="H115" s="13">
-        <v>1503513</v>
-      </c>
-      <c r="I115" s="13">
         <v>1493363</v>
       </c>
+      <c r="H115" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I115" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J115" s="13" t="s">
         <v>57</v>
       </c>
@@ -15962,7 +15962,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
         <v>63</v>
       </c>
@@ -15971,20 +15971,20 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>1316832</v>
+        <v>1294872</v>
       </c>
       <c r="F116" s="11">
-        <v>1325301</v>
+        <v>1258065</v>
       </c>
       <c r="G116" s="11">
-        <v>1294872</v>
-      </c>
-      <c r="H116" s="11">
-        <v>1258065</v>
-      </c>
-      <c r="I116" s="11">
         <v>1234043</v>
       </c>
+      <c r="H116" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I116" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J116" s="11" t="s">
         <v>57</v>
       </c>
@@ -16090,14 +16090,14 @@
       <c r="AR116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AS116" s="11" t="s">
-        <v>57</v>
+      <c r="AS116" s="11">
+        <v>3449664</v>
       </c>
       <c r="AT116" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AU116" s="11">
-        <v>3449664</v>
+      <c r="AU116" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AV116" s="11" t="s">
         <v>57</v>
@@ -16121,7 +16121,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B117" s="12" t="s">
         <v>64</v>
       </c>
@@ -16138,120 +16138,120 @@
       <c r="G117" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="H117" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="I117" s="13" t="s">
-        <v>57</v>
+      <c r="H117" s="13">
+        <v>1529890</v>
+      </c>
+      <c r="I117" s="13">
+        <v>1522335</v>
       </c>
       <c r="J117" s="13">
-        <v>1529890</v>
+        <v>0</v>
       </c>
       <c r="K117" s="13">
-        <v>1522335</v>
+        <v>1469277</v>
       </c>
       <c r="L117" s="13">
-        <v>0</v>
+        <v>1594662</v>
       </c>
       <c r="M117" s="13">
-        <v>1469277</v>
+        <v>1597069</v>
       </c>
       <c r="N117" s="13">
-        <v>1594662</v>
+        <v>1510216</v>
       </c>
       <c r="O117" s="13">
-        <v>1597069</v>
+        <v>1474660</v>
       </c>
       <c r="P117" s="13">
-        <v>1510216</v>
+        <v>1423412</v>
       </c>
       <c r="Q117" s="13">
-        <v>1474660</v>
+        <v>1410569</v>
       </c>
       <c r="R117" s="13">
-        <v>1423412</v>
+        <v>1435023</v>
       </c>
       <c r="S117" s="13">
-        <v>1410569</v>
-      </c>
-      <c r="T117" s="13">
-        <v>1435023</v>
-      </c>
-      <c r="U117" s="13">
         <v>1378034</v>
       </c>
+      <c r="T117" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U117" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V117" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="W117" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="X117" s="13" t="s">
-        <v>57</v>
+      <c r="W117" s="13">
+        <v>2602742</v>
+      </c>
+      <c r="X117" s="13">
+        <v>2535381</v>
       </c>
       <c r="Y117" s="13">
-        <v>2602742</v>
+        <v>2872843</v>
       </c>
       <c r="Z117" s="13">
-        <v>2535381</v>
+        <v>3327801</v>
       </c>
       <c r="AA117" s="13">
-        <v>2872843</v>
+        <v>4089409</v>
       </c>
       <c r="AB117" s="13">
-        <v>3327801</v>
+        <v>3424573</v>
       </c>
       <c r="AC117" s="13">
-        <v>4089409</v>
+        <v>3407518</v>
       </c>
       <c r="AD117" s="13">
-        <v>3424573</v>
+        <v>3337969</v>
       </c>
       <c r="AE117" s="13">
-        <v>3407518</v>
+        <v>3072822</v>
       </c>
       <c r="AF117" s="13">
-        <v>3337969</v>
+        <v>4817654</v>
       </c>
       <c r="AG117" s="13">
-        <v>3072822</v>
+        <v>3418177</v>
       </c>
       <c r="AH117" s="13">
-        <v>4817654</v>
+        <v>4057511</v>
       </c>
       <c r="AI117" s="13">
-        <v>3418177</v>
+        <v>5715968</v>
       </c>
       <c r="AJ117" s="13">
-        <v>4057511</v>
+        <v>7033281</v>
       </c>
       <c r="AK117" s="13">
-        <v>5715968</v>
+        <v>7640982</v>
       </c>
       <c r="AL117" s="13">
-        <v>7033281</v>
+        <v>7775423</v>
       </c>
       <c r="AM117" s="13">
-        <v>7640982</v>
-      </c>
-      <c r="AN117" s="13">
-        <v>7775423</v>
+        <v>7133019</v>
+      </c>
+      <c r="AN117" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AO117" s="13">
-        <v>7133019</v>
-      </c>
-      <c r="AP117" s="13" t="s">
-        <v>57</v>
+        <v>9472554</v>
+      </c>
+      <c r="AP117" s="13">
+        <v>8599379</v>
       </c>
       <c r="AQ117" s="13">
-        <v>9472554</v>
-      </c>
-      <c r="AR117" s="13">
-        <v>8599379</v>
-      </c>
-      <c r="AS117" s="13">
         <v>8324906</v>
       </c>
+      <c r="AR117" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS117" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="AT117" s="13" t="s">
         <v>57</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
         <v>65</v>
       </c>
@@ -16297,120 +16297,120 @@
       <c r="G118" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="H118" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="I118" s="11" t="s">
-        <v>57</v>
+      <c r="H118" s="11">
+        <v>1339095</v>
+      </c>
+      <c r="I118" s="11">
+        <v>1427146</v>
       </c>
       <c r="J118" s="11">
-        <v>1339095</v>
+        <v>1424360</v>
       </c>
       <c r="K118" s="11">
-        <v>1427146</v>
+        <v>1764568</v>
       </c>
       <c r="L118" s="11">
-        <v>1424360</v>
+        <v>1904908</v>
       </c>
       <c r="M118" s="11">
-        <v>1764568</v>
+        <v>1901566</v>
       </c>
       <c r="N118" s="11">
-        <v>1904908</v>
+        <v>1903814</v>
       </c>
       <c r="O118" s="11">
-        <v>1901566</v>
+        <v>1901794</v>
       </c>
       <c r="P118" s="11">
-        <v>1903814</v>
+        <v>1880863</v>
       </c>
       <c r="Q118" s="11">
-        <v>1901794</v>
+        <v>1904839</v>
       </c>
       <c r="R118" s="11">
-        <v>1880863</v>
+        <v>1916003</v>
       </c>
       <c r="S118" s="11">
-        <v>1904839</v>
-      </c>
-      <c r="T118" s="11">
-        <v>1916003</v>
-      </c>
-      <c r="U118" s="11">
         <v>1965066</v>
       </c>
+      <c r="T118" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="U118" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="V118" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="W118" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="X118" s="11" t="s">
-        <v>57</v>
+      <c r="W118" s="11">
+        <v>2294797</v>
+      </c>
+      <c r="X118" s="11">
+        <v>2432787</v>
       </c>
       <c r="Y118" s="11">
-        <v>2294797</v>
+        <v>2478239</v>
       </c>
       <c r="Z118" s="11">
-        <v>2432787</v>
+        <v>2549567</v>
       </c>
       <c r="AA118" s="11">
-        <v>2478239</v>
+        <v>2646964</v>
       </c>
       <c r="AB118" s="11">
-        <v>2549567</v>
+        <v>2569394</v>
       </c>
       <c r="AC118" s="11">
-        <v>2646964</v>
+        <v>2574327</v>
       </c>
       <c r="AD118" s="11">
-        <v>2569394</v>
+        <v>2725205</v>
       </c>
       <c r="AE118" s="11">
-        <v>2574327</v>
+        <v>2699486</v>
       </c>
       <c r="AF118" s="11">
-        <v>2725205</v>
+        <v>2843764</v>
       </c>
       <c r="AG118" s="11">
-        <v>2699486</v>
+        <v>3744358</v>
       </c>
       <c r="AH118" s="11">
-        <v>2843764</v>
+        <v>3831716</v>
       </c>
       <c r="AI118" s="11">
-        <v>3744358</v>
+        <v>4735872</v>
       </c>
       <c r="AJ118" s="11">
-        <v>3831716</v>
+        <v>5763276</v>
       </c>
       <c r="AK118" s="11">
-        <v>4735872</v>
+        <v>5864580</v>
       </c>
       <c r="AL118" s="11">
-        <v>5763276</v>
+        <v>4596331</v>
       </c>
       <c r="AM118" s="11">
-        <v>5864580</v>
-      </c>
-      <c r="AN118" s="11">
-        <v>4596331</v>
+        <v>4395661</v>
+      </c>
+      <c r="AN118" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AO118" s="11">
-        <v>4395661</v>
-      </c>
-      <c r="AP118" s="11" t="s">
-        <v>57</v>
+        <v>4193566</v>
+      </c>
+      <c r="AP118" s="11">
+        <v>4669373</v>
       </c>
       <c r="AQ118" s="11">
-        <v>4193566</v>
-      </c>
-      <c r="AR118" s="11">
-        <v>4669373</v>
-      </c>
-      <c r="AS118" s="11">
         <v>4950688</v>
       </c>
+      <c r="AR118" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS118" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AT118" s="11" t="s">
         <v>57</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B119" s="12" t="s">
         <v>66</v>
       </c>
@@ -16465,14 +16465,14 @@
       <c r="J119" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="K119" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="L119" s="13" t="s">
-        <v>57</v>
+      <c r="K119" s="13">
+        <v>825444</v>
+      </c>
+      <c r="L119" s="13">
+        <v>0</v>
       </c>
       <c r="M119" s="13">
-        <v>825444</v>
+        <v>0</v>
       </c>
       <c r="N119" s="13">
         <v>0</v>
@@ -16492,11 +16492,11 @@
       <c r="S119" s="13">
         <v>0</v>
       </c>
-      <c r="T119" s="13">
-        <v>0</v>
-      </c>
-      <c r="U119" s="13">
-        <v>0</v>
+      <c r="T119" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="U119" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="V119" s="13" t="s">
         <v>57</v>
@@ -16598,7 +16598,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
         <v>67</v>
       </c>
@@ -16723,41 +16723,41 @@
       <c r="AQ120" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR120" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS120" s="11" t="s">
-        <v>57</v>
+      <c r="AR120" s="11">
+        <v>4902755</v>
+      </c>
+      <c r="AS120" s="11">
+        <v>5139604</v>
       </c>
       <c r="AT120" s="11">
-        <v>4902755</v>
+        <v>5988780</v>
       </c>
       <c r="AU120" s="11">
-        <v>5139604</v>
+        <v>5470834</v>
       </c>
       <c r="AV120" s="11">
-        <v>5988780</v>
+        <v>5350714</v>
       </c>
       <c r="AW120" s="11">
-        <v>5470834</v>
+        <v>5212402</v>
       </c>
       <c r="AX120" s="11">
-        <v>5350714</v>
+        <v>5224334</v>
       </c>
       <c r="AY120" s="11">
-        <v>5212402</v>
+        <v>5229959</v>
       </c>
       <c r="AZ120" s="11">
-        <v>5224334</v>
+        <v>5256459</v>
       </c>
       <c r="BA120" s="11">
-        <v>5229959</v>
+        <v>5297258</v>
       </c>
       <c r="BB120" s="11">
-        <v>5256459</v>
+        <v>5134016</v>
       </c>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B121" s="12" t="s">
         <v>68</v>
       </c>
@@ -16882,41 +16882,41 @@
       <c r="AQ121" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR121" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS121" s="13" t="s">
-        <v>57</v>
+      <c r="AR121" s="13">
+        <v>5633979</v>
+      </c>
+      <c r="AS121" s="13">
+        <v>5990470</v>
       </c>
       <c r="AT121" s="13">
-        <v>5633979</v>
+        <v>7077117</v>
       </c>
       <c r="AU121" s="13">
-        <v>5990470</v>
+        <v>7231962</v>
       </c>
       <c r="AV121" s="13">
-        <v>7077117</v>
+        <v>7066097</v>
       </c>
       <c r="AW121" s="13">
-        <v>7231962</v>
+        <v>6948675</v>
       </c>
       <c r="AX121" s="13">
-        <v>7066097</v>
+        <v>6901832</v>
       </c>
       <c r="AY121" s="13">
-        <v>6948675</v>
+        <v>6885495</v>
       </c>
       <c r="AZ121" s="13">
-        <v>6901832</v>
+        <v>6524394</v>
       </c>
       <c r="BA121" s="13">
-        <v>6885495</v>
+        <v>6596584</v>
       </c>
       <c r="BB121" s="13">
-        <v>6524394</v>
+        <v>6602202</v>
       </c>
     </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B122" s="10" t="s">
         <v>69</v>
       </c>
@@ -16928,16 +16928,16 @@
         <v>0</v>
       </c>
       <c r="F122" s="11">
-        <v>0</v>
+        <v>1333333</v>
       </c>
       <c r="G122" s="11">
         <v>0</v>
       </c>
-      <c r="H122" s="11">
-        <v>1333333</v>
-      </c>
-      <c r="I122" s="11">
-        <v>0</v>
+      <c r="H122" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I122" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="J122" s="11" t="s">
         <v>57</v>
@@ -17075,7 +17075,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="123" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B123" s="12" t="s">
         <v>70</v>
       </c>
@@ -17084,20 +17084,20 @@
       </c>
       <c r="D123" s="13"/>
       <c r="E123" s="13">
-        <v>1454051</v>
+        <v>1455415</v>
       </c>
       <c r="F123" s="13">
-        <v>1615595</v>
+        <v>1519942</v>
       </c>
       <c r="G123" s="13">
-        <v>1455415</v>
-      </c>
-      <c r="H123" s="13">
-        <v>1519942</v>
-      </c>
-      <c r="I123" s="13">
         <v>1446929</v>
       </c>
+      <c r="H123" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I123" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J123" s="13" t="s">
         <v>57</v>
       </c>
@@ -17234,7 +17234,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="124" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B124" s="10" t="s">
         <v>71</v>
       </c>
@@ -17243,20 +17243,20 @@
       </c>
       <c r="D124" s="11"/>
       <c r="E124" s="11">
-        <v>1789182</v>
+        <v>1665499</v>
       </c>
       <c r="F124" s="11">
-        <v>1626459</v>
+        <v>1582450</v>
       </c>
       <c r="G124" s="11">
-        <v>1665499</v>
-      </c>
-      <c r="H124" s="11">
-        <v>1582450</v>
-      </c>
-      <c r="I124" s="11">
         <v>1556391</v>
       </c>
+      <c r="H124" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I124" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J124" s="11" t="s">
         <v>57</v>
       </c>
@@ -17393,7 +17393,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="125" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B125" s="12" t="s">
         <v>72</v>
       </c>
@@ -17410,11 +17410,11 @@
       <c r="G125" s="13">
         <v>0</v>
       </c>
-      <c r="H125" s="13">
-        <v>0</v>
-      </c>
-      <c r="I125" s="13">
-        <v>0</v>
+      <c r="H125" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I125" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="J125" s="13" t="s">
         <v>57</v>
@@ -17552,7 +17552,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="126" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B126" s="10" t="s">
         <v>73</v>
       </c>
@@ -17561,20 +17561,20 @@
       </c>
       <c r="D126" s="11"/>
       <c r="E126" s="11">
-        <v>1313325</v>
+        <v>1313596</v>
       </c>
       <c r="F126" s="11">
-        <v>1313509</v>
+        <v>1313861</v>
       </c>
       <c r="G126" s="11">
-        <v>1313596</v>
-      </c>
-      <c r="H126" s="11">
-        <v>1313861</v>
-      </c>
-      <c r="I126" s="11">
         <v>1316854</v>
       </c>
+      <c r="H126" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I126" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J126" s="11" t="s">
         <v>57</v>
       </c>
@@ -17677,24 +17677,24 @@
       <c r="AQ126" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR126" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS126" s="11" t="s">
-        <v>57</v>
+      <c r="AR126" s="11">
+        <v>3458333</v>
+      </c>
+      <c r="AS126" s="11">
+        <v>3448071</v>
       </c>
       <c r="AT126" s="11">
-        <v>3458333</v>
+        <v>3450440</v>
       </c>
       <c r="AU126" s="11">
-        <v>3448071</v>
-      </c>
-      <c r="AV126" s="11">
-        <v>3450440</v>
-      </c>
-      <c r="AW126" s="11">
         <v>3438889</v>
       </c>
+      <c r="AV126" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AW126" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="AX126" s="11" t="s">
         <v>57</v>
       </c>
@@ -17711,7 +17711,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="127" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B127" s="12" t="s">
         <v>74</v>
       </c>
@@ -17720,20 +17720,20 @@
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13">
-        <v>1310345</v>
+        <v>1118467</v>
       </c>
       <c r="F127" s="13">
-        <v>1313971</v>
+        <v>1205188</v>
       </c>
       <c r="G127" s="13">
-        <v>1118467</v>
-      </c>
-      <c r="H127" s="13">
-        <v>1205188</v>
-      </c>
-      <c r="I127" s="13">
         <v>1119264</v>
       </c>
+      <c r="H127" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="I127" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="J127" s="13" t="s">
         <v>57</v>
       </c>
@@ -17836,41 +17836,41 @@
       <c r="AQ127" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR127" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS127" s="13" t="s">
-        <v>57</v>
+      <c r="AR127" s="13">
+        <v>4563061</v>
+      </c>
+      <c r="AS127" s="13">
+        <v>4880716</v>
       </c>
       <c r="AT127" s="13">
-        <v>4563061</v>
+        <v>5302171</v>
       </c>
       <c r="AU127" s="13">
-        <v>4880716</v>
+        <v>5515459</v>
       </c>
       <c r="AV127" s="13">
-        <v>5302171</v>
+        <v>5490940</v>
       </c>
       <c r="AW127" s="13">
-        <v>5515459</v>
+        <v>5422120</v>
       </c>
       <c r="AX127" s="13">
-        <v>5490940</v>
+        <v>5192441</v>
       </c>
       <c r="AY127" s="13">
-        <v>5422120</v>
+        <v>5042504</v>
       </c>
       <c r="AZ127" s="13">
-        <v>5192441</v>
+        <v>5001081</v>
       </c>
       <c r="BA127" s="13">
-        <v>5042504</v>
+        <v>4998479</v>
       </c>
       <c r="BB127" s="13">
-        <v>5001081</v>
+        <v>4824539</v>
       </c>
     </row>
-    <row r="128" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
         <v>75</v>
       </c>
@@ -17879,20 +17879,20 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>1389178</v>
+        <v>1022537</v>
       </c>
       <c r="F128" s="11">
-        <v>1543726</v>
+        <v>1330313</v>
       </c>
       <c r="G128" s="11">
-        <v>1022537</v>
-      </c>
-      <c r="H128" s="11">
-        <v>1330313</v>
-      </c>
-      <c r="I128" s="11">
         <v>1372082</v>
       </c>
+      <c r="H128" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>57</v>
+      </c>
       <c r="J128" s="11" t="s">
         <v>57</v>
       </c>
@@ -17995,41 +17995,41 @@
       <c r="AQ128" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR128" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS128" s="11" t="s">
-        <v>57</v>
+      <c r="AR128" s="11">
+        <v>5588592</v>
+      </c>
+      <c r="AS128" s="11">
+        <v>5610499</v>
       </c>
       <c r="AT128" s="11">
-        <v>5588592</v>
+        <v>6267601</v>
       </c>
       <c r="AU128" s="11">
-        <v>5610499</v>
+        <v>7335159</v>
       </c>
       <c r="AV128" s="11">
-        <v>6267601</v>
+        <v>7297852</v>
       </c>
       <c r="AW128" s="11">
-        <v>7335159</v>
+        <v>6835305</v>
       </c>
       <c r="AX128" s="11">
-        <v>7297852</v>
+        <v>6484983</v>
       </c>
       <c r="AY128" s="11">
-        <v>6835305</v>
+        <v>6139074</v>
       </c>
       <c r="AZ128" s="11">
-        <v>6484983</v>
+        <v>5999840</v>
       </c>
       <c r="BA128" s="11">
-        <v>6139074</v>
+        <v>5884394</v>
       </c>
       <c r="BB128" s="11">
-        <v>5999840</v>
+        <v>5896364</v>
       </c>
     </row>
-    <row r="129" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B129" s="12" t="s">
         <v>76</v>
       </c>
@@ -18154,41 +18154,41 @@
       <c r="AQ129" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AR129" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS129" s="13" t="s">
-        <v>57</v>
+      <c r="AR129" s="13">
+        <v>4974664</v>
+      </c>
+      <c r="AS129" s="13">
+        <v>5067117</v>
       </c>
       <c r="AT129" s="13">
-        <v>4974664</v>
+        <v>6307803</v>
       </c>
       <c r="AU129" s="13">
-        <v>5067117</v>
+        <v>6782315</v>
       </c>
       <c r="AV129" s="13">
-        <v>6307803</v>
+        <v>6475533</v>
       </c>
       <c r="AW129" s="13">
-        <v>6782315</v>
+        <v>6303392</v>
       </c>
       <c r="AX129" s="13">
-        <v>6475533</v>
+        <v>5867495</v>
       </c>
       <c r="AY129" s="13">
-        <v>6303392</v>
+        <v>5771709</v>
       </c>
       <c r="AZ129" s="13">
-        <v>5867495</v>
+        <v>5819691</v>
       </c>
       <c r="BA129" s="13">
-        <v>5771709</v>
+        <v>5850190</v>
       </c>
       <c r="BB129" s="13">
-        <v>5819691</v>
+        <v>5927175</v>
       </c>
     </row>
-    <row r="130" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
         <v>77</v>
       </c>
@@ -18313,20 +18313,20 @@
       <c r="AQ130" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AR130" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="AS130" s="11" t="s">
-        <v>57</v>
+      <c r="AR130" s="11">
+        <v>4982977</v>
+      </c>
+      <c r="AS130" s="11">
+        <v>5396092</v>
       </c>
       <c r="AT130" s="11">
-        <v>4982977</v>
-      </c>
-      <c r="AU130" s="11">
-        <v>5396092</v>
-      </c>
-      <c r="AV130" s="11">
         <v>4741935</v>
+      </c>
+      <c r="AU130" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AV130" s="11" t="s">
+        <v>57</v>
       </c>
       <c r="AW130" s="11" t="s">
         <v>57</v>

--- a/database/industries/siman/saroum/product/monthly.xlsx
+++ b/database/industries/siman/saroum/product/monthly.xlsx
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3506,18 +3506,18 @@
       <c r="Q11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="13" t="s">
-        <v>57</v>
+      <c r="R11" s="13" t="n">
+        <v>90828</v>
       </c>
       <c r="S11" s="13" t="n">
-        <v>90828</v>
+        <v>192805</v>
       </c>
       <c r="T11" s="13" t="n">
-        <v>192805</v>
-      </c>
-      <c r="U11" s="13" t="n">
         <v>189208</v>
       </c>
+      <c r="U11" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V11" s="13" t="s">
         <v>57</v>
       </c>
@@ -3578,44 +3578,44 @@
       <c r="AO11" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP11" s="13" t="s">
-        <v>57</v>
+      <c r="AP11" s="13" t="n">
+        <v>191198</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>191198</v>
+        <v>174439</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>174439</v>
+        <v>159986</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>159986</v>
+        <v>85393</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>85393</v>
+        <v>57318</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>57318</v>
+        <v>127355</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>127355</v>
+        <v>166320</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>166320</v>
+        <v>129812</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>129812</v>
+        <v>186785</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>186785</v>
+        <v>183620</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>183620</v>
+        <v>114840</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>114840</v>
+        <v>142373</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>142373</v>
+        <v>190588</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3665,17 +3665,17 @@
       <c r="Q12" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="16" t="s">
-        <v>57</v>
+      <c r="R12" s="16" t="n">
+        <v>127821</v>
       </c>
       <c r="S12" s="16" t="n">
-        <v>127821</v>
+        <v>209940</v>
       </c>
       <c r="T12" s="16" t="n">
-        <v>209940</v>
-      </c>
-      <c r="U12" s="16" t="n">
         <v>205347</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V12" s="16" t="s">
         <v>57</v>
@@ -3797,17 +3797,17 @@
       <c r="H13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I13" s="13" t="s">
-        <v>57</v>
+      <c r="I13" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="J13" s="13" t="n">
-        <v>0</v>
+        <v>4369</v>
       </c>
       <c r="K13" s="13" t="n">
-        <v>4369</v>
+        <v>53</v>
       </c>
       <c r="L13" s="13" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="M13" s="13" t="n">
         <v>0</v>
@@ -3822,22 +3822,22 @@
         <v>0</v>
       </c>
       <c r="Q13" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" s="13" t="n">
         <v>1334</v>
       </c>
+      <c r="R13" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S13" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T13" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>57</v>
+      <c r="U13" s="13" t="n">
+        <v>23</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="W13" s="13" t="n">
         <v>0</v>
@@ -3846,58 +3846,58 @@
         <v>0</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>408</v>
+        <v>1114</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>1114</v>
+        <v>0</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>76</v>
+        <v>499</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>499</v>
+        <v>7625</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>7625</v>
+        <v>8087</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>8087</v>
+        <v>8969</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>8969</v>
+        <v>6806</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>6806</v>
+        <v>2942</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>2942</v>
+        <v>6875</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>6875</v>
+        <v>1005</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>1005</v>
-      </c>
-      <c r="AL13" s="13" t="n">
         <v>3756</v>
       </c>
-      <c r="AM13" s="13" t="s">
-        <v>57</v>
+      <c r="AL13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM13" s="13" t="n">
+        <v>25</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>25</v>
+        <v>3362</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>3362</v>
-      </c>
-      <c r="AP13" s="13" t="n">
         <v>13890</v>
+      </c>
+      <c r="AP13" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ13" s="13" t="s">
         <v>57</v>
@@ -4088,11 +4088,11 @@
       <c r="AZ14" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BA14" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB14" s="16" t="n">
-        <v>0</v>
+      <c r="BA14" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB14" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4104,10 +4104,10 @@
       </c>
       <c r="D15" s="13"/>
       <c r="E15" s="13" t="n">
-        <v>17085</v>
-      </c>
-      <c r="F15" s="13" t="n">
         <v>37510</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G15" s="13" t="s">
         <v>57</v>
@@ -4263,11 +4263,11 @@
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="16" t="n">
-        <v>2817</v>
-      </c>
-      <c r="F16" s="16" t="n">
         <v>4774</v>
       </c>
+      <c r="F16" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G16" s="16" t="s">
         <v>57</v>
       </c>
@@ -4373,20 +4373,20 @@
       <c r="AO16" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP16" s="16" t="s">
-        <v>57</v>
+      <c r="AP16" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ16" s="16" t="n">
-        <v>0</v>
+        <v>1007</v>
       </c>
       <c r="AR16" s="16" t="n">
-        <v>1007</v>
+        <v>4627</v>
       </c>
       <c r="AS16" s="16" t="n">
-        <v>4627</v>
+        <v>593</v>
       </c>
       <c r="AT16" s="16" t="n">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="AU16" s="16" t="n">
         <v>0</v>
@@ -4422,10 +4422,10 @@
       </c>
       <c r="D17" s="13"/>
       <c r="E17" s="13" t="n">
-        <v>8681</v>
-      </c>
-      <c r="F17" s="13" t="n">
         <v>21019</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G17" s="13" t="s">
         <v>57</v>
@@ -4583,8 +4583,8 @@
       <c r="E18" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="F18" s="16" t="n">
-        <v>0</v>
+      <c r="F18" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G18" s="16" t="s">
         <v>57</v>
@@ -4694,17 +4694,17 @@
       <c r="AP18" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AQ18" s="16" t="s">
-        <v>57</v>
+      <c r="AQ18" s="16" t="n">
+        <v>128</v>
       </c>
       <c r="AR18" s="16" t="n">
-        <v>128</v>
+        <v>883</v>
       </c>
       <c r="AS18" s="16" t="n">
-        <v>883</v>
+        <v>295</v>
       </c>
       <c r="AT18" s="16" t="n">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="AU18" s="16" t="n">
         <v>0</v>
@@ -4742,116 +4742,116 @@
       <c r="E19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="13" t="s">
-        <v>57</v>
+      <c r="F19" s="13" t="n">
+        <v>2459</v>
       </c>
       <c r="G19" s="13" t="n">
-        <v>2459</v>
+        <v>3358</v>
       </c>
       <c r="H19" s="13" t="n">
-        <v>3358</v>
+        <v>0</v>
       </c>
       <c r="I19" s="13" t="n">
-        <v>0</v>
+        <v>10904</v>
       </c>
       <c r="J19" s="13" t="n">
-        <v>10904</v>
+        <v>12027</v>
       </c>
       <c r="K19" s="13" t="n">
-        <v>12027</v>
+        <v>5254</v>
       </c>
       <c r="L19" s="13" t="n">
-        <v>5254</v>
+        <v>5139</v>
       </c>
       <c r="M19" s="13" t="n">
-        <v>5139</v>
+        <v>5663</v>
       </c>
       <c r="N19" s="13" t="n">
-        <v>5663</v>
+        <v>2298</v>
       </c>
       <c r="O19" s="13" t="n">
-        <v>2298</v>
+        <v>246</v>
       </c>
       <c r="P19" s="13" t="n">
-        <v>246</v>
+        <v>1085</v>
       </c>
       <c r="Q19" s="13" t="n">
-        <v>1085</v>
-      </c>
-      <c r="R19" s="13" t="n">
         <v>3378</v>
       </c>
+      <c r="R19" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S19" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T19" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>57</v>
+      <c r="U19" s="13" t="n">
+        <v>12327</v>
       </c>
       <c r="V19" s="13" t="n">
-        <v>12327</v>
+        <v>12761</v>
       </c>
       <c r="W19" s="13" t="n">
-        <v>12761</v>
+        <v>12866</v>
       </c>
       <c r="X19" s="13" t="n">
-        <v>12866</v>
+        <v>4097</v>
       </c>
       <c r="Y19" s="13" t="n">
-        <v>4097</v>
+        <v>3333</v>
       </c>
       <c r="Z19" s="13" t="n">
-        <v>3333</v>
+        <v>7252</v>
       </c>
       <c r="AA19" s="13" t="n">
-        <v>7252</v>
+        <v>2341</v>
       </c>
       <c r="AB19" s="13" t="n">
-        <v>2341</v>
+        <v>8054</v>
       </c>
       <c r="AC19" s="13" t="n">
-        <v>8054</v>
+        <v>2870</v>
       </c>
       <c r="AD19" s="13" t="n">
-        <v>2870</v>
+        <v>6548</v>
       </c>
       <c r="AE19" s="13" t="n">
-        <v>6548</v>
+        <v>3587</v>
       </c>
       <c r="AF19" s="13" t="n">
-        <v>3587</v>
+        <v>2017</v>
       </c>
       <c r="AG19" s="13" t="n">
-        <v>2017</v>
+        <v>2718</v>
       </c>
       <c r="AH19" s="13" t="n">
-        <v>2718</v>
+        <v>5108</v>
       </c>
       <c r="AI19" s="13" t="n">
-        <v>5108</v>
+        <v>7618</v>
       </c>
       <c r="AJ19" s="13" t="n">
-        <v>7618</v>
+        <v>3727</v>
       </c>
       <c r="AK19" s="13" t="n">
-        <v>3727</v>
-      </c>
-      <c r="AL19" s="13" t="n">
         <v>2759</v>
       </c>
-      <c r="AM19" s="13" t="s">
-        <v>57</v>
+      <c r="AL19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM19" s="13" t="n">
+        <v>419</v>
       </c>
       <c r="AN19" s="13" t="n">
-        <v>419</v>
+        <v>322</v>
       </c>
       <c r="AO19" s="13" t="n">
-        <v>322</v>
-      </c>
-      <c r="AP19" s="13" t="n">
         <v>1859</v>
+      </c>
+      <c r="AP19" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ19" s="13" t="s">
         <v>57</v>
@@ -4901,116 +4901,116 @@
       <c r="E20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F20" s="16" t="s">
-        <v>57</v>
+      <c r="F20" s="16" t="n">
+        <v>99661</v>
       </c>
       <c r="G20" s="16" t="n">
-        <v>99661</v>
+        <v>122352</v>
       </c>
       <c r="H20" s="16" t="n">
-        <v>122352</v>
+        <v>141225</v>
       </c>
       <c r="I20" s="16" t="n">
-        <v>141225</v>
+        <v>108965</v>
       </c>
       <c r="J20" s="16" t="n">
-        <v>108965</v>
+        <v>125830</v>
       </c>
       <c r="K20" s="16" t="n">
-        <v>125830</v>
+        <v>145024</v>
       </c>
       <c r="L20" s="16" t="n">
-        <v>145024</v>
+        <v>139351</v>
       </c>
       <c r="M20" s="16" t="n">
-        <v>139351</v>
+        <v>114281</v>
       </c>
       <c r="N20" s="16" t="n">
-        <v>114281</v>
+        <v>64182</v>
       </c>
       <c r="O20" s="16" t="n">
-        <v>64182</v>
+        <v>36648</v>
       </c>
       <c r="P20" s="16" t="n">
-        <v>36648</v>
+        <v>11680</v>
       </c>
       <c r="Q20" s="16" t="n">
-        <v>11680</v>
-      </c>
-      <c r="R20" s="16" t="n">
         <v>122536</v>
       </c>
+      <c r="R20" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S20" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T20" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U20" s="16" t="s">
-        <v>57</v>
+      <c r="U20" s="16" t="n">
+        <v>195601</v>
       </c>
       <c r="V20" s="16" t="n">
-        <v>195601</v>
+        <v>193773</v>
       </c>
       <c r="W20" s="16" t="n">
-        <v>193773</v>
+        <v>148809</v>
       </c>
       <c r="X20" s="16" t="n">
-        <v>148809</v>
+        <v>146814</v>
       </c>
       <c r="Y20" s="16" t="n">
-        <v>146814</v>
+        <v>169675</v>
       </c>
       <c r="Z20" s="16" t="n">
-        <v>169675</v>
+        <v>90887</v>
       </c>
       <c r="AA20" s="16" t="n">
-        <v>90887</v>
+        <v>49019</v>
       </c>
       <c r="AB20" s="16" t="n">
-        <v>49019</v>
+        <v>102391</v>
       </c>
       <c r="AC20" s="16" t="n">
-        <v>102391</v>
+        <v>115014</v>
       </c>
       <c r="AD20" s="16" t="n">
-        <v>115014</v>
+        <v>144227</v>
       </c>
       <c r="AE20" s="16" t="n">
-        <v>144227</v>
+        <v>170739</v>
       </c>
       <c r="AF20" s="16" t="n">
-        <v>170739</v>
+        <v>162686</v>
       </c>
       <c r="AG20" s="16" t="n">
-        <v>162686</v>
+        <v>159511</v>
       </c>
       <c r="AH20" s="16" t="n">
-        <v>159511</v>
+        <v>133373</v>
       </c>
       <c r="AI20" s="16" t="n">
-        <v>133373</v>
+        <v>168429</v>
       </c>
       <c r="AJ20" s="16" t="n">
-        <v>168429</v>
+        <v>159450</v>
       </c>
       <c r="AK20" s="16" t="n">
-        <v>159450</v>
-      </c>
-      <c r="AL20" s="16" t="n">
         <v>133042</v>
       </c>
-      <c r="AM20" s="16" t="s">
-        <v>57</v>
+      <c r="AL20" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM20" s="16" t="n">
+        <v>14108</v>
       </c>
       <c r="AN20" s="16" t="n">
-        <v>14108</v>
+        <v>40261</v>
       </c>
       <c r="AO20" s="16" t="n">
-        <v>40261</v>
-      </c>
-      <c r="AP20" s="16" t="n">
         <v>141110</v>
+      </c>
+      <c r="AP20" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ20" s="16" t="s">
         <v>57</v>
@@ -5069,107 +5069,107 @@
       <c r="H21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I21" s="13" t="s">
-        <v>57</v>
+      <c r="I21" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="J21" s="13" t="n">
-        <v>0</v>
+        <v>7910</v>
       </c>
       <c r="K21" s="13" t="n">
-        <v>7910</v>
+        <v>96867</v>
       </c>
       <c r="L21" s="13" t="n">
-        <v>96867</v>
+        <v>152705</v>
       </c>
       <c r="M21" s="13" t="n">
-        <v>152705</v>
+        <v>174331</v>
       </c>
       <c r="N21" s="13" t="n">
-        <v>174331</v>
+        <v>91557</v>
       </c>
       <c r="O21" s="13" t="n">
-        <v>91557</v>
+        <v>0</v>
       </c>
       <c r="P21" s="13" t="n">
-        <v>0</v>
+        <v>78414</v>
       </c>
       <c r="Q21" s="13" t="n">
-        <v>78414</v>
-      </c>
-      <c r="R21" s="13" t="n">
         <v>107129</v>
       </c>
+      <c r="R21" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S21" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T21" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U21" s="13" t="s">
-        <v>57</v>
+      <c r="U21" s="13" t="n">
+        <v>102013</v>
       </c>
       <c r="V21" s="13" t="n">
-        <v>102013</v>
+        <v>120681</v>
       </c>
       <c r="W21" s="13" t="n">
-        <v>120681</v>
+        <v>133927</v>
       </c>
       <c r="X21" s="13" t="n">
-        <v>133927</v>
+        <v>161699</v>
       </c>
       <c r="Y21" s="13" t="n">
-        <v>161699</v>
+        <v>173974</v>
       </c>
       <c r="Z21" s="13" t="n">
-        <v>173974</v>
+        <v>124332</v>
       </c>
       <c r="AA21" s="13" t="n">
-        <v>124332</v>
+        <v>121700</v>
       </c>
       <c r="AB21" s="13" t="n">
-        <v>121700</v>
+        <v>99071</v>
       </c>
       <c r="AC21" s="13" t="n">
-        <v>99071</v>
+        <v>184574</v>
       </c>
       <c r="AD21" s="13" t="n">
-        <v>184574</v>
+        <v>181446</v>
       </c>
       <c r="AE21" s="13" t="n">
-        <v>181446</v>
+        <v>143437</v>
       </c>
       <c r="AF21" s="13" t="n">
-        <v>143437</v>
+        <v>123720</v>
       </c>
       <c r="AG21" s="13" t="n">
-        <v>123720</v>
+        <v>123775</v>
       </c>
       <c r="AH21" s="13" t="n">
-        <v>123775</v>
+        <v>188126</v>
       </c>
       <c r="AI21" s="13" t="n">
-        <v>188126</v>
+        <v>121643</v>
       </c>
       <c r="AJ21" s="13" t="n">
-        <v>121643</v>
+        <v>172918</v>
       </c>
       <c r="AK21" s="13" t="n">
-        <v>172918</v>
-      </c>
-      <c r="AL21" s="13" t="n">
         <v>145867</v>
       </c>
-      <c r="AM21" s="13" t="s">
-        <v>57</v>
+      <c r="AL21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM21" s="13" t="n">
+        <v>93514</v>
       </c>
       <c r="AN21" s="13" t="n">
-        <v>93514</v>
+        <v>72101</v>
       </c>
       <c r="AO21" s="13" t="n">
-        <v>72101</v>
-      </c>
-      <c r="AP21" s="13" t="n">
         <v>78311</v>
+      </c>
+      <c r="AP21" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ21" s="13" t="s">
         <v>57</v>
@@ -5327,44 +5327,44 @@
       <c r="AO22" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP22" s="16" t="s">
-        <v>57</v>
+      <c r="AP22" s="16" t="n">
+        <v>28834</v>
       </c>
       <c r="AQ22" s="16" t="n">
-        <v>28834</v>
+        <v>6614</v>
       </c>
       <c r="AR22" s="16" t="n">
-        <v>6614</v>
+        <v>33797</v>
       </c>
       <c r="AS22" s="16" t="n">
-        <v>33797</v>
+        <v>80643</v>
       </c>
       <c r="AT22" s="16" t="n">
-        <v>80643</v>
+        <v>42931</v>
       </c>
       <c r="AU22" s="16" t="n">
-        <v>42931</v>
+        <v>72813</v>
       </c>
       <c r="AV22" s="16" t="n">
-        <v>72813</v>
+        <v>61805</v>
       </c>
       <c r="AW22" s="16" t="n">
-        <v>61805</v>
+        <v>47222</v>
       </c>
       <c r="AX22" s="16" t="n">
-        <v>47222</v>
+        <v>39493</v>
       </c>
       <c r="AY22" s="16" t="n">
-        <v>39493</v>
+        <v>25435</v>
       </c>
       <c r="AZ22" s="16" t="n">
-        <v>25435</v>
+        <v>168</v>
       </c>
       <c r="BA22" s="16" t="n">
-        <v>168</v>
+        <v>40082</v>
       </c>
       <c r="BB22" s="16" t="n">
-        <v>40082</v>
+        <v>32694</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5486,44 +5486,44 @@
       <c r="AO23" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP23" s="13" t="s">
-        <v>57</v>
+      <c r="AP23" s="13" t="n">
+        <v>52792</v>
       </c>
       <c r="AQ23" s="13" t="n">
-        <v>52792</v>
+        <v>34839</v>
       </c>
       <c r="AR23" s="13" t="n">
-        <v>34839</v>
+        <v>52453</v>
       </c>
       <c r="AS23" s="13" t="n">
-        <v>52453</v>
+        <v>55384</v>
       </c>
       <c r="AT23" s="13" t="n">
-        <v>55384</v>
+        <v>51863</v>
       </c>
       <c r="AU23" s="13" t="n">
-        <v>51863</v>
+        <v>67141</v>
       </c>
       <c r="AV23" s="13" t="n">
-        <v>67141</v>
+        <v>53215</v>
       </c>
       <c r="AW23" s="13" t="n">
-        <v>53215</v>
+        <v>49701</v>
       </c>
       <c r="AX23" s="13" t="n">
-        <v>49701</v>
+        <v>33553</v>
       </c>
       <c r="AY23" s="13" t="n">
-        <v>33553</v>
+        <v>18678</v>
       </c>
       <c r="AZ23" s="13" t="n">
-        <v>18678</v>
+        <v>16834</v>
       </c>
       <c r="BA23" s="13" t="n">
-        <v>16834</v>
+        <v>70563</v>
       </c>
       <c r="BB23" s="13" t="n">
-        <v>70563</v>
+        <v>64459</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5537,8 +5537,8 @@
       <c r="E24" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="F24" s="16" t="n">
-        <v>0</v>
+      <c r="F24" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>57</v>
@@ -5694,10 +5694,10 @@
       </c>
       <c r="D25" s="13"/>
       <c r="E25" s="13" t="n">
-        <v>7494</v>
-      </c>
-      <c r="F25" s="13" t="n">
         <v>29394</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G25" s="13" t="s">
         <v>57</v>
@@ -5853,10 +5853,10 @@
       </c>
       <c r="D26" s="16"/>
       <c r="E26" s="16" t="n">
-        <v>3396</v>
-      </c>
-      <c r="F26" s="16" t="n">
         <v>4921</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G26" s="16" t="s">
         <v>57</v>
@@ -6014,8 +6014,8 @@
       <c r="E27" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F27" s="13" t="n">
-        <v>0</v>
+      <c r="F27" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G27" s="13" t="s">
         <v>57</v>
@@ -6173,8 +6173,8 @@
       <c r="E28" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="F28" s="16" t="n">
-        <v>0</v>
+      <c r="F28" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G28" s="16" t="s">
         <v>57</v>
@@ -6281,20 +6281,20 @@
       <c r="AO28" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP28" s="16" t="s">
-        <v>57</v>
+      <c r="AP28" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AQ28" s="16" t="n">
-        <v>0</v>
+        <v>1011</v>
       </c>
       <c r="AR28" s="16" t="n">
-        <v>1011</v>
+        <v>1753</v>
       </c>
       <c r="AS28" s="16" t="n">
-        <v>1753</v>
+        <v>180</v>
       </c>
       <c r="AT28" s="16" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="16" t="n">
         <v>0</v>
@@ -6318,7 +6318,7 @@
         <v>0</v>
       </c>
       <c r="BB28" s="16" t="n">
-        <v>0</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6330,11 +6330,11 @@
       </c>
       <c r="D29" s="13"/>
       <c r="E29" s="13" t="n">
-        <v>3253</v>
-      </c>
-      <c r="F29" s="13" t="n">
         <v>6138</v>
       </c>
+      <c r="F29" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="G29" s="13" t="s">
         <v>57</v>
       </c>
@@ -6440,44 +6440,44 @@
       <c r="AO29" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP29" s="13" t="s">
-        <v>57</v>
+      <c r="AP29" s="13" t="n">
+        <v>33062</v>
       </c>
       <c r="AQ29" s="13" t="n">
-        <v>33062</v>
+        <v>30286</v>
       </c>
       <c r="AR29" s="13" t="n">
-        <v>30286</v>
+        <v>41291</v>
       </c>
       <c r="AS29" s="13" t="n">
-        <v>41291</v>
+        <v>9926</v>
       </c>
       <c r="AT29" s="13" t="n">
-        <v>9926</v>
+        <v>9670</v>
       </c>
       <c r="AU29" s="13" t="n">
-        <v>9670</v>
+        <v>2836</v>
       </c>
       <c r="AV29" s="13" t="n">
-        <v>2836</v>
+        <v>12622</v>
       </c>
       <c r="AW29" s="13" t="n">
-        <v>12622</v>
+        <v>21035</v>
       </c>
       <c r="AX29" s="13" t="n">
-        <v>21035</v>
+        <v>24850</v>
       </c>
       <c r="AY29" s="13" t="n">
-        <v>24850</v>
+        <v>14841</v>
       </c>
       <c r="AZ29" s="13" t="n">
-        <v>14841</v>
+        <v>9801</v>
       </c>
       <c r="BA29" s="13" t="n">
-        <v>9801</v>
+        <v>35217</v>
       </c>
       <c r="BB29" s="13" t="n">
-        <v>35217</v>
+        <v>29142</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6489,11 +6489,11 @@
       </c>
       <c r="D30" s="16"/>
       <c r="E30" s="16" t="n">
-        <v>4884</v>
-      </c>
-      <c r="F30" s="16" t="n">
         <v>8396</v>
       </c>
+      <c r="F30" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G30" s="16" t="s">
         <v>57</v>
       </c>
@@ -6599,44 +6599,44 @@
       <c r="AO30" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP30" s="16" t="s">
-        <v>57</v>
+      <c r="AP30" s="16" t="n">
+        <v>23230</v>
       </c>
       <c r="AQ30" s="16" t="n">
-        <v>23230</v>
+        <v>43566</v>
       </c>
       <c r="AR30" s="16" t="n">
-        <v>43566</v>
+        <v>39514</v>
       </c>
       <c r="AS30" s="16" t="n">
-        <v>39514</v>
+        <v>7850</v>
       </c>
       <c r="AT30" s="16" t="n">
-        <v>7850</v>
+        <v>4143</v>
       </c>
       <c r="AU30" s="16" t="n">
-        <v>4143</v>
+        <v>4481</v>
       </c>
       <c r="AV30" s="16" t="n">
-        <v>4481</v>
+        <v>5194</v>
       </c>
       <c r="AW30" s="16" t="n">
-        <v>5194</v>
+        <v>8722</v>
       </c>
       <c r="AX30" s="16" t="n">
-        <v>8722</v>
+        <v>6259</v>
       </c>
       <c r="AY30" s="16" t="n">
-        <v>6259</v>
+        <v>5389</v>
       </c>
       <c r="AZ30" s="16" t="n">
-        <v>5389</v>
+        <v>6243</v>
       </c>
       <c r="BA30" s="16" t="n">
-        <v>6243</v>
+        <v>19208</v>
       </c>
       <c r="BB30" s="16" t="n">
-        <v>19208</v>
+        <v>14113</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6758,44 +6758,44 @@
       <c r="AO31" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP31" s="13" t="s">
-        <v>57</v>
+      <c r="AP31" s="13" t="n">
+        <v>24302</v>
       </c>
       <c r="AQ31" s="13" t="n">
-        <v>24302</v>
+        <v>6842</v>
       </c>
       <c r="AR31" s="13" t="n">
-        <v>6842</v>
+        <v>6493</v>
       </c>
       <c r="AS31" s="13" t="n">
-        <v>6493</v>
+        <v>4962</v>
       </c>
       <c r="AT31" s="13" t="n">
-        <v>4962</v>
+        <v>3811</v>
       </c>
       <c r="AU31" s="13" t="n">
-        <v>3811</v>
+        <v>9312</v>
       </c>
       <c r="AV31" s="13" t="n">
-        <v>9312</v>
+        <v>10988</v>
       </c>
       <c r="AW31" s="13" t="n">
-        <v>10988</v>
+        <v>11569</v>
       </c>
       <c r="AX31" s="13" t="n">
-        <v>11569</v>
+        <v>3546</v>
       </c>
       <c r="AY31" s="13" t="n">
-        <v>3546</v>
+        <v>3537</v>
       </c>
       <c r="AZ31" s="13" t="n">
-        <v>3537</v>
+        <v>2556</v>
       </c>
       <c r="BA31" s="13" t="n">
-        <v>2556</v>
+        <v>10283</v>
       </c>
       <c r="BB31" s="13" t="n">
-        <v>10283</v>
+        <v>3284</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6917,11 +6917,11 @@
       <c r="AO32" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP32" s="16" t="s">
-        <v>57</v>
+      <c r="AP32" s="16" t="n">
+        <v>3041</v>
       </c>
       <c r="AQ32" s="16" t="n">
-        <v>3041</v>
+        <v>0</v>
       </c>
       <c r="AR32" s="16" t="n">
         <v>0</v>
@@ -7076,8 +7076,8 @@
       <c r="AO33" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP33" s="13" t="s">
-        <v>57</v>
+      <c r="AP33" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ33" s="13" t="n">
         <v>0</v>
@@ -7112,8 +7112,8 @@
       <c r="BA33" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB33" s="13" t="n">
-        <v>0</v>
+      <c r="BB33" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7227,8 +7227,8 @@
       <c r="T35" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U35" s="20" t="s">
-        <v>57</v>
+      <c r="U35" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V35" s="20" t="n">
         <v>0</v>
@@ -7337,154 +7337,154 @@
       <c r="C36" s="22"/>
       <c r="D36" s="22"/>
       <c r="E36" s="22" t="n">
-        <v>47610</v>
+        <v>112152</v>
       </c>
       <c r="F36" s="22" t="n">
-        <v>112152</v>
+        <v>102120</v>
       </c>
       <c r="G36" s="22" t="n">
-        <v>102120</v>
+        <v>125710</v>
       </c>
       <c r="H36" s="22" t="n">
-        <v>125710</v>
+        <v>141225</v>
       </c>
       <c r="I36" s="22" t="n">
-        <v>141225</v>
+        <v>119869</v>
       </c>
       <c r="J36" s="22" t="n">
-        <v>119869</v>
+        <v>150136</v>
       </c>
       <c r="K36" s="22" t="n">
-        <v>150136</v>
+        <v>247198</v>
       </c>
       <c r="L36" s="22" t="n">
-        <v>247198</v>
+        <v>297195</v>
       </c>
       <c r="M36" s="22" t="n">
-        <v>297195</v>
+        <v>294275</v>
       </c>
       <c r="N36" s="22" t="n">
-        <v>294275</v>
+        <v>158037</v>
       </c>
       <c r="O36" s="22" t="n">
-        <v>158037</v>
+        <v>36894</v>
       </c>
       <c r="P36" s="22" t="n">
-        <v>36894</v>
+        <v>91179</v>
       </c>
       <c r="Q36" s="22" t="n">
-        <v>91179</v>
+        <v>234377</v>
       </c>
       <c r="R36" s="22" t="n">
-        <v>234377</v>
+        <v>218649</v>
       </c>
       <c r="S36" s="22" t="n">
-        <v>218649</v>
+        <v>402745</v>
       </c>
       <c r="T36" s="22" t="n">
-        <v>402745</v>
+        <v>394555</v>
       </c>
       <c r="U36" s="22" t="n">
-        <v>394555</v>
+        <v>309964</v>
       </c>
       <c r="V36" s="22" t="n">
-        <v>309964</v>
+        <v>327215</v>
       </c>
       <c r="W36" s="22" t="n">
-        <v>327215</v>
+        <v>295602</v>
       </c>
       <c r="X36" s="22" t="n">
-        <v>295602</v>
+        <v>312610</v>
       </c>
       <c r="Y36" s="22" t="n">
-        <v>312610</v>
+        <v>347390</v>
       </c>
       <c r="Z36" s="22" t="n">
-        <v>347390</v>
+        <v>223585</v>
       </c>
       <c r="AA36" s="22" t="n">
-        <v>223585</v>
+        <v>173060</v>
       </c>
       <c r="AB36" s="22" t="n">
-        <v>173060</v>
+        <v>209592</v>
       </c>
       <c r="AC36" s="22" t="n">
-        <v>209592</v>
+        <v>302957</v>
       </c>
       <c r="AD36" s="22" t="n">
-        <v>302957</v>
+        <v>339846</v>
       </c>
       <c r="AE36" s="22" t="n">
-        <v>339846</v>
+        <v>325850</v>
       </c>
       <c r="AF36" s="22" t="n">
-        <v>325850</v>
+        <v>297392</v>
       </c>
       <c r="AG36" s="22" t="n">
-        <v>297392</v>
+        <v>292810</v>
       </c>
       <c r="AH36" s="22" t="n">
-        <v>292810</v>
+        <v>329549</v>
       </c>
       <c r="AI36" s="22" t="n">
-        <v>329549</v>
+        <v>304565</v>
       </c>
       <c r="AJ36" s="22" t="n">
-        <v>304565</v>
+        <v>337100</v>
       </c>
       <c r="AK36" s="22" t="n">
-        <v>337100</v>
+        <v>285424</v>
       </c>
       <c r="AL36" s="22" t="n">
-        <v>285424</v>
+        <v>0</v>
       </c>
       <c r="AM36" s="22" t="n">
-        <v>0</v>
+        <v>108066</v>
       </c>
       <c r="AN36" s="22" t="n">
-        <v>108066</v>
+        <v>116046</v>
       </c>
       <c r="AO36" s="22" t="n">
-        <v>116046</v>
+        <v>235170</v>
       </c>
       <c r="AP36" s="22" t="n">
-        <v>235170</v>
+        <v>356459</v>
       </c>
       <c r="AQ36" s="22" t="n">
-        <v>356459</v>
+        <v>298732</v>
       </c>
       <c r="AR36" s="22" t="n">
-        <v>298732</v>
+        <v>340797</v>
       </c>
       <c r="AS36" s="22" t="n">
-        <v>340797</v>
+        <v>245226</v>
       </c>
       <c r="AT36" s="22" t="n">
-        <v>245226</v>
+        <v>169736</v>
       </c>
       <c r="AU36" s="22" t="n">
-        <v>169736</v>
+        <v>283938</v>
       </c>
       <c r="AV36" s="22" t="n">
-        <v>283938</v>
+        <v>310144</v>
       </c>
       <c r="AW36" s="22" t="n">
-        <v>310144</v>
+        <v>268061</v>
       </c>
       <c r="AX36" s="22" t="n">
-        <v>268061</v>
+        <v>294486</v>
       </c>
       <c r="AY36" s="22" t="n">
-        <v>294486</v>
+        <v>251500</v>
       </c>
       <c r="AZ36" s="22" t="n">
-        <v>251500</v>
+        <v>150442</v>
       </c>
       <c r="BA36" s="22" t="n">
-        <v>150442</v>
+        <v>317726</v>
       </c>
       <c r="BB36" s="22" t="n">
-        <v>317726</v>
+        <v>336832</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7968,18 +7968,18 @@
       <c r="Q43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R43" s="13" t="s">
-        <v>57</v>
+      <c r="R43" s="13" t="n">
+        <v>4473</v>
       </c>
       <c r="S43" s="13" t="n">
-        <v>4473</v>
+        <v>1344</v>
       </c>
       <c r="T43" s="13" t="n">
-        <v>1344</v>
-      </c>
-      <c r="U43" s="13" t="n">
         <v>3238</v>
       </c>
+      <c r="U43" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V43" s="13" t="s">
         <v>57</v>
       </c>
@@ -8040,44 +8040,44 @@
       <c r="AO43" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP43" s="13" t="s">
-        <v>57</v>
+      <c r="AP43" s="13" t="n">
+        <v>13829</v>
       </c>
       <c r="AQ43" s="13" t="n">
-        <v>13829</v>
+        <v>3209</v>
       </c>
       <c r="AR43" s="13" t="n">
-        <v>3209</v>
+        <v>2979</v>
       </c>
       <c r="AS43" s="13" t="n">
-        <v>2979</v>
+        <v>504</v>
       </c>
       <c r="AT43" s="13" t="n">
-        <v>504</v>
+        <v>6526</v>
       </c>
       <c r="AU43" s="13" t="n">
-        <v>6526</v>
+        <v>3378</v>
       </c>
       <c r="AV43" s="13" t="n">
-        <v>3378</v>
+        <v>1376</v>
       </c>
       <c r="AW43" s="13" t="n">
-        <v>1376</v>
+        <v>12067</v>
       </c>
       <c r="AX43" s="13" t="n">
-        <v>12067</v>
+        <v>20173</v>
       </c>
       <c r="AY43" s="13" t="n">
-        <v>20173</v>
+        <v>44112</v>
       </c>
       <c r="AZ43" s="13" t="n">
-        <v>44112</v>
+        <v>53970</v>
       </c>
       <c r="BA43" s="13" t="n">
-        <v>53970</v>
+        <v>35247</v>
       </c>
       <c r="BB43" s="13" t="n">
-        <v>35247</v>
+        <v>34763</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8127,17 +8127,17 @@
       <c r="Q44" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R44" s="16" t="s">
-        <v>57</v>
+      <c r="R44" s="16" t="n">
+        <v>129771</v>
       </c>
       <c r="S44" s="16" t="n">
-        <v>129771</v>
+        <v>205441</v>
       </c>
       <c r="T44" s="16" t="n">
-        <v>205441</v>
-      </c>
-      <c r="U44" s="16" t="n">
         <v>214913</v>
+      </c>
+      <c r="U44" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V44" s="16" t="s">
         <v>57</v>
@@ -8259,17 +8259,17 @@
       <c r="H45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I45" s="13" t="s">
-        <v>57</v>
+      <c r="I45" s="13" t="n">
+        <v>6640</v>
       </c>
       <c r="J45" s="13" t="n">
-        <v>6640</v>
+        <v>4369</v>
       </c>
       <c r="K45" s="13" t="n">
-        <v>4369</v>
+        <v>53</v>
       </c>
       <c r="L45" s="13" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="M45" s="13" t="n">
         <v>0</v>
@@ -8284,22 +8284,22 @@
         <v>0</v>
       </c>
       <c r="Q45" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" s="13" t="n">
         <v>1334</v>
       </c>
+      <c r="R45" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S45" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T45" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U45" s="13" t="s">
-        <v>57</v>
+      <c r="U45" s="13" t="n">
+        <v>23</v>
       </c>
       <c r="V45" s="13" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="W45" s="13" t="n">
         <v>0</v>
@@ -8308,58 +8308,58 @@
         <v>0</v>
       </c>
       <c r="Y45" s="13" t="n">
-        <v>0</v>
+        <v>408</v>
       </c>
       <c r="Z45" s="13" t="n">
-        <v>408</v>
+        <v>1114</v>
       </c>
       <c r="AA45" s="13" t="n">
-        <v>1114</v>
+        <v>0</v>
       </c>
       <c r="AB45" s="13" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="AC45" s="13" t="n">
-        <v>76</v>
+        <v>499</v>
       </c>
       <c r="AD45" s="13" t="n">
-        <v>499</v>
+        <v>7625</v>
       </c>
       <c r="AE45" s="13" t="n">
-        <v>7625</v>
+        <v>8087</v>
       </c>
       <c r="AF45" s="13" t="n">
-        <v>8087</v>
+        <v>8969</v>
       </c>
       <c r="AG45" s="13" t="n">
-        <v>8969</v>
+        <v>6806</v>
       </c>
       <c r="AH45" s="13" t="n">
-        <v>6806</v>
+        <v>2942</v>
       </c>
       <c r="AI45" s="13" t="n">
-        <v>2942</v>
+        <v>6875</v>
       </c>
       <c r="AJ45" s="13" t="n">
-        <v>6875</v>
+        <v>1005</v>
       </c>
       <c r="AK45" s="13" t="n">
-        <v>1005</v>
-      </c>
-      <c r="AL45" s="13" t="n">
         <v>3756</v>
       </c>
-      <c r="AM45" s="13" t="s">
-        <v>57</v>
+      <c r="AL45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM45" s="13" t="n">
+        <v>25</v>
       </c>
       <c r="AN45" s="13" t="n">
-        <v>25</v>
+        <v>3361</v>
       </c>
       <c r="AO45" s="13" t="n">
-        <v>3361</v>
-      </c>
-      <c r="AP45" s="13" t="n">
         <v>13891</v>
+      </c>
+      <c r="AP45" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ45" s="13" t="s">
         <v>57</v>
@@ -8550,11 +8550,11 @@
       <c r="AZ46" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BA46" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB46" s="16" t="n">
+      <c r="BA46" s="16" t="n">
         <v>50</v>
+      </c>
+      <c r="BB46" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8566,10 +8566,10 @@
       </c>
       <c r="D47" s="13"/>
       <c r="E47" s="13" t="n">
-        <v>14427</v>
-      </c>
-      <c r="F47" s="13" t="n">
         <v>37839</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G47" s="13" t="s">
         <v>57</v>
@@ -8725,11 +8725,11 @@
       </c>
       <c r="D48" s="16"/>
       <c r="E48" s="16" t="n">
-        <v>2052</v>
-      </c>
-      <c r="F48" s="16" t="n">
         <v>6266</v>
       </c>
+      <c r="F48" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G48" s="16" t="s">
         <v>57</v>
       </c>
@@ -8835,20 +8835,20 @@
       <c r="AO48" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP48" s="16" t="s">
-        <v>57</v>
+      <c r="AP48" s="16" t="n">
+        <v>70</v>
       </c>
       <c r="AQ48" s="16" t="n">
-        <v>70</v>
+        <v>1007</v>
       </c>
       <c r="AR48" s="16" t="n">
-        <v>1007</v>
+        <v>4557</v>
       </c>
       <c r="AS48" s="16" t="n">
-        <v>4557</v>
+        <v>593</v>
       </c>
       <c r="AT48" s="16" t="n">
-        <v>593</v>
+        <v>0</v>
       </c>
       <c r="AU48" s="16" t="n">
         <v>0</v>
@@ -8884,10 +8884,10 @@
       </c>
       <c r="D49" s="13"/>
       <c r="E49" s="13" t="n">
-        <v>8681</v>
-      </c>
-      <c r="F49" s="13" t="n">
         <v>21019</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G49" s="13" t="s">
         <v>57</v>
@@ -9043,11 +9043,11 @@
       </c>
       <c r="D50" s="16"/>
       <c r="E50" s="16" t="n">
-        <v>31</v>
-      </c>
-      <c r="F50" s="16" t="n">
         <v>188</v>
       </c>
+      <c r="F50" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G50" s="16" t="s">
         <v>57</v>
       </c>
@@ -9156,11 +9156,11 @@
       <c r="AP50" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AQ50" s="16" t="s">
-        <v>57</v>
+      <c r="AQ50" s="16" t="n">
+        <v>149</v>
       </c>
       <c r="AR50" s="16" t="n">
-        <v>149</v>
+        <v>0</v>
       </c>
       <c r="AS50" s="16" t="n">
         <v>0</v>
@@ -9190,7 +9190,7 @@
         <v>0</v>
       </c>
       <c r="BB50" s="16" t="n">
-        <v>0</v>
+        <v>141</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9204,116 +9204,116 @@
       <c r="E51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F51" s="13" t="s">
-        <v>57</v>
+      <c r="F51" s="13" t="n">
+        <v>2459</v>
       </c>
       <c r="G51" s="13" t="n">
-        <v>2459</v>
+        <v>3358</v>
       </c>
       <c r="H51" s="13" t="n">
-        <v>3358</v>
+        <v>0</v>
       </c>
       <c r="I51" s="13" t="n">
-        <v>0</v>
+        <v>10904</v>
       </c>
       <c r="J51" s="13" t="n">
-        <v>10904</v>
+        <v>12027</v>
       </c>
       <c r="K51" s="13" t="n">
-        <v>12027</v>
+        <v>5254</v>
       </c>
       <c r="L51" s="13" t="n">
-        <v>5254</v>
+        <v>5139</v>
       </c>
       <c r="M51" s="13" t="n">
-        <v>5139</v>
+        <v>5663</v>
       </c>
       <c r="N51" s="13" t="n">
-        <v>5663</v>
+        <v>2298</v>
       </c>
       <c r="O51" s="13" t="n">
-        <v>2298</v>
+        <v>246</v>
       </c>
       <c r="P51" s="13" t="n">
-        <v>246</v>
+        <v>1085</v>
       </c>
       <c r="Q51" s="13" t="n">
-        <v>1085</v>
-      </c>
-      <c r="R51" s="13" t="n">
         <v>3378</v>
       </c>
+      <c r="R51" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S51" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T51" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U51" s="13" t="s">
-        <v>57</v>
+      <c r="U51" s="13" t="n">
+        <v>12327</v>
       </c>
       <c r="V51" s="13" t="n">
-        <v>12327</v>
+        <v>12761</v>
       </c>
       <c r="W51" s="13" t="n">
-        <v>12761</v>
+        <v>12866</v>
       </c>
       <c r="X51" s="13" t="n">
-        <v>12866</v>
+        <v>4097</v>
       </c>
       <c r="Y51" s="13" t="n">
-        <v>4097</v>
+        <v>3333</v>
       </c>
       <c r="Z51" s="13" t="n">
-        <v>3333</v>
+        <v>7252</v>
       </c>
       <c r="AA51" s="13" t="n">
-        <v>7252</v>
+        <v>2341</v>
       </c>
       <c r="AB51" s="13" t="n">
-        <v>2341</v>
+        <v>8054</v>
       </c>
       <c r="AC51" s="13" t="n">
-        <v>8054</v>
+        <v>2870</v>
       </c>
       <c r="AD51" s="13" t="n">
-        <v>2870</v>
+        <v>6548</v>
       </c>
       <c r="AE51" s="13" t="n">
-        <v>6548</v>
+        <v>3587</v>
       </c>
       <c r="AF51" s="13" t="n">
-        <v>3587</v>
+        <v>2017</v>
       </c>
       <c r="AG51" s="13" t="n">
-        <v>2017</v>
+        <v>2718</v>
       </c>
       <c r="AH51" s="13" t="n">
-        <v>2718</v>
+        <v>5108</v>
       </c>
       <c r="AI51" s="13" t="n">
-        <v>5108</v>
+        <v>7618</v>
       </c>
       <c r="AJ51" s="13" t="n">
-        <v>7618</v>
+        <v>3727</v>
       </c>
       <c r="AK51" s="13" t="n">
-        <v>3727</v>
-      </c>
-      <c r="AL51" s="13" t="n">
         <v>2759</v>
       </c>
-      <c r="AM51" s="13" t="s">
-        <v>57</v>
+      <c r="AL51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM51" s="13" t="n">
+        <v>419</v>
       </c>
       <c r="AN51" s="13" t="n">
-        <v>419</v>
+        <v>322</v>
       </c>
       <c r="AO51" s="13" t="n">
-        <v>322</v>
-      </c>
-      <c r="AP51" s="13" t="n">
         <v>1859</v>
+      </c>
+      <c r="AP51" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ51" s="13" t="s">
         <v>57</v>
@@ -9363,116 +9363,116 @@
       <c r="E52" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F52" s="16" t="s">
-        <v>57</v>
+      <c r="F52" s="16" t="n">
+        <v>90653</v>
       </c>
       <c r="G52" s="16" t="n">
-        <v>90653</v>
+        <v>128839</v>
       </c>
       <c r="H52" s="16" t="n">
-        <v>128839</v>
+        <v>144163</v>
       </c>
       <c r="I52" s="16" t="n">
-        <v>144163</v>
+        <v>124129</v>
       </c>
       <c r="J52" s="16" t="n">
-        <v>124129</v>
+        <v>125289</v>
       </c>
       <c r="K52" s="16" t="n">
-        <v>125289</v>
+        <v>133754</v>
       </c>
       <c r="L52" s="16" t="n">
-        <v>133754</v>
+        <v>132888</v>
       </c>
       <c r="M52" s="16" t="n">
-        <v>132888</v>
+        <v>122345</v>
       </c>
       <c r="N52" s="16" t="n">
-        <v>122345</v>
+        <v>69458</v>
       </c>
       <c r="O52" s="16" t="n">
-        <v>69458</v>
+        <v>36622</v>
       </c>
       <c r="P52" s="16" t="n">
-        <v>36622</v>
+        <v>17822</v>
       </c>
       <c r="Q52" s="16" t="n">
-        <v>17822</v>
-      </c>
-      <c r="R52" s="16" t="n">
         <v>105772</v>
       </c>
+      <c r="R52" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S52" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T52" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U52" s="16" t="s">
-        <v>57</v>
+      <c r="U52" s="16" t="n">
+        <v>203157</v>
       </c>
       <c r="V52" s="16" t="n">
-        <v>203157</v>
+        <v>171574</v>
       </c>
       <c r="W52" s="16" t="n">
-        <v>171574</v>
+        <v>155619</v>
       </c>
       <c r="X52" s="16" t="n">
-        <v>155619</v>
+        <v>153539</v>
       </c>
       <c r="Y52" s="16" t="n">
-        <v>153539</v>
+        <v>161278</v>
       </c>
       <c r="Z52" s="16" t="n">
-        <v>161278</v>
+        <v>98294</v>
       </c>
       <c r="AA52" s="16" t="n">
-        <v>98294</v>
+        <v>54462</v>
       </c>
       <c r="AB52" s="16" t="n">
-        <v>54462</v>
+        <v>93921</v>
       </c>
       <c r="AC52" s="16" t="n">
-        <v>93921</v>
+        <v>112524</v>
       </c>
       <c r="AD52" s="16" t="n">
-        <v>112524</v>
+        <v>141037</v>
       </c>
       <c r="AE52" s="16" t="n">
-        <v>141037</v>
+        <v>175206</v>
       </c>
       <c r="AF52" s="16" t="n">
-        <v>175206</v>
+        <v>172239</v>
       </c>
       <c r="AG52" s="16" t="n">
-        <v>172239</v>
+        <v>149988</v>
       </c>
       <c r="AH52" s="16" t="n">
-        <v>149988</v>
+        <v>140949</v>
       </c>
       <c r="AI52" s="16" t="n">
-        <v>140949</v>
+        <v>175920</v>
       </c>
       <c r="AJ52" s="16" t="n">
-        <v>175920</v>
+        <v>148852</v>
       </c>
       <c r="AK52" s="16" t="n">
-        <v>148852</v>
-      </c>
-      <c r="AL52" s="16" t="n">
         <v>130637</v>
       </c>
-      <c r="AM52" s="16" t="s">
-        <v>57</v>
+      <c r="AL52" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM52" s="16" t="n">
+        <v>24493</v>
       </c>
       <c r="AN52" s="16" t="n">
-        <v>24493</v>
+        <v>39776</v>
       </c>
       <c r="AO52" s="16" t="n">
-        <v>39776</v>
-      </c>
-      <c r="AP52" s="16" t="n">
         <v>129745</v>
+      </c>
+      <c r="AP52" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ52" s="16" t="s">
         <v>57</v>
@@ -9531,11 +9531,11 @@
       <c r="H53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I53" s="13" t="s">
-        <v>57</v>
+      <c r="I53" s="13" t="n">
+        <v>338</v>
       </c>
       <c r="J53" s="13" t="n">
-        <v>338</v>
+        <v>0</v>
       </c>
       <c r="K53" s="13" t="n">
         <v>0</v>
@@ -9558,8 +9558,8 @@
       <c r="Q53" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R53" s="13" t="n">
-        <v>0</v>
+      <c r="R53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S53" s="13" t="s">
         <v>57</v>
@@ -9567,8 +9567,8 @@
       <c r="T53" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U53" s="13" t="s">
-        <v>57</v>
+      <c r="U53" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V53" s="13" t="n">
         <v>0</v>
@@ -9618,11 +9618,11 @@
       <c r="AK53" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AL53" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM53" s="13" t="s">
-        <v>57</v>
+      <c r="AL53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM53" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN53" s="13" t="n">
         <v>0</v>
@@ -9630,8 +9630,8 @@
       <c r="AO53" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP53" s="13" t="n">
-        <v>0</v>
+      <c r="AP53" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ53" s="13" t="s">
         <v>57</v>
@@ -9789,44 +9789,44 @@
       <c r="AO54" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP54" s="16" t="s">
-        <v>57</v>
+      <c r="AP54" s="16" t="n">
+        <v>30603</v>
       </c>
       <c r="AQ54" s="16" t="n">
-        <v>30603</v>
+        <v>18094</v>
       </c>
       <c r="AR54" s="16" t="n">
-        <v>18094</v>
+        <v>32086</v>
       </c>
       <c r="AS54" s="16" t="n">
-        <v>32086</v>
+        <v>55389</v>
       </c>
       <c r="AT54" s="16" t="n">
-        <v>55389</v>
+        <v>55849</v>
       </c>
       <c r="AU54" s="16" t="n">
-        <v>55849</v>
+        <v>70343</v>
       </c>
       <c r="AV54" s="16" t="n">
-        <v>70343</v>
+        <v>53554</v>
       </c>
       <c r="AW54" s="16" t="n">
-        <v>53554</v>
+        <v>51644</v>
       </c>
       <c r="AX54" s="16" t="n">
-        <v>51644</v>
+        <v>37351</v>
       </c>
       <c r="AY54" s="16" t="n">
-        <v>37351</v>
+        <v>19478</v>
       </c>
       <c r="AZ54" s="16" t="n">
-        <v>19478</v>
+        <v>10454</v>
       </c>
       <c r="BA54" s="16" t="n">
-        <v>10454</v>
+        <v>36961</v>
       </c>
       <c r="BB54" s="16" t="n">
-        <v>36961</v>
+        <v>42199</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9948,44 +9948,44 @@
       <c r="AO55" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP55" s="13" t="s">
-        <v>57</v>
+      <c r="AP55" s="13" t="n">
+        <v>52792</v>
       </c>
       <c r="AQ55" s="13" t="n">
-        <v>52792</v>
+        <v>34839</v>
       </c>
       <c r="AR55" s="13" t="n">
-        <v>34839</v>
+        <v>52453</v>
       </c>
       <c r="AS55" s="13" t="n">
-        <v>52453</v>
+        <v>55384</v>
       </c>
       <c r="AT55" s="13" t="n">
-        <v>55384</v>
+        <v>51863</v>
       </c>
       <c r="AU55" s="13" t="n">
-        <v>51863</v>
+        <v>67141</v>
       </c>
       <c r="AV55" s="13" t="n">
-        <v>67141</v>
+        <v>53215</v>
       </c>
       <c r="AW55" s="13" t="n">
-        <v>53215</v>
+        <v>49701</v>
       </c>
       <c r="AX55" s="13" t="n">
-        <v>49701</v>
+        <v>33553</v>
       </c>
       <c r="AY55" s="13" t="n">
-        <v>33553</v>
+        <v>18678</v>
       </c>
       <c r="AZ55" s="13" t="n">
-        <v>18678</v>
+        <v>20166</v>
       </c>
       <c r="BA55" s="13" t="n">
-        <v>20166</v>
+        <v>70563</v>
       </c>
       <c r="BB55" s="13" t="n">
-        <v>70563</v>
+        <v>64459</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9997,10 +9997,10 @@
       </c>
       <c r="D56" s="16"/>
       <c r="E56" s="16" t="n">
-        <v>21</v>
-      </c>
-      <c r="F56" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F56" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G56" s="16" t="s">
         <v>57</v>
@@ -10156,10 +10156,10 @@
       </c>
       <c r="D57" s="13"/>
       <c r="E57" s="13" t="n">
-        <v>11007</v>
-      </c>
-      <c r="F57" s="13" t="n">
         <v>25268</v>
+      </c>
+      <c r="F57" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G57" s="13" t="s">
         <v>57</v>
@@ -10315,10 +10315,10 @@
       </c>
       <c r="D58" s="16"/>
       <c r="E58" s="16" t="n">
-        <v>3396</v>
-      </c>
-      <c r="F58" s="16" t="n">
         <v>4921</v>
+      </c>
+      <c r="F58" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G58" s="16" t="s">
         <v>57</v>
@@ -10476,8 +10476,8 @@
       <c r="E59" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F59" s="13" t="n">
-        <v>0</v>
+      <c r="F59" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G59" s="13" t="s">
         <v>57</v>
@@ -10633,11 +10633,11 @@
       </c>
       <c r="D60" s="16"/>
       <c r="E60" s="16" t="n">
-        <v>1883</v>
-      </c>
-      <c r="F60" s="16" t="n">
         <v>445</v>
       </c>
+      <c r="F60" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G60" s="16" t="s">
         <v>57</v>
       </c>
@@ -10743,20 +10743,20 @@
       <c r="AO60" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP60" s="16" t="s">
-        <v>57</v>
+      <c r="AP60" s="16" t="n">
+        <v>48</v>
       </c>
       <c r="AQ60" s="16" t="n">
-        <v>48</v>
+        <v>1011</v>
       </c>
       <c r="AR60" s="16" t="n">
-        <v>1011</v>
+        <v>1705</v>
       </c>
       <c r="AS60" s="16" t="n">
-        <v>1705</v>
+        <v>180</v>
       </c>
       <c r="AT60" s="16" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="AU60" s="16" t="n">
         <v>0</v>
@@ -10780,7 +10780,7 @@
         <v>0</v>
       </c>
       <c r="BB60" s="16" t="n">
-        <v>0</v>
+        <v>949</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10792,11 +10792,11 @@
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13" t="n">
-        <v>2159</v>
-      </c>
-      <c r="F61" s="13" t="n">
         <v>4402</v>
       </c>
+      <c r="F61" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="G61" s="13" t="s">
         <v>57</v>
       </c>
@@ -10902,44 +10902,44 @@
       <c r="AO61" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP61" s="13" t="s">
-        <v>57</v>
+      <c r="AP61" s="13" t="n">
+        <v>32437</v>
       </c>
       <c r="AQ61" s="13" t="n">
-        <v>32437</v>
+        <v>45270</v>
       </c>
       <c r="AR61" s="13" t="n">
-        <v>45270</v>
+        <v>36529</v>
       </c>
       <c r="AS61" s="13" t="n">
-        <v>36529</v>
+        <v>7698</v>
       </c>
       <c r="AT61" s="13" t="n">
-        <v>7698</v>
+        <v>11700</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>11700</v>
+        <v>6510</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>6510</v>
+        <v>12118</v>
       </c>
       <c r="AW61" s="13" t="n">
-        <v>12118</v>
+        <v>19857</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>19857</v>
+        <v>24982</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>24982</v>
+        <v>12488</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>12488</v>
+        <v>9324</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>9324</v>
+        <v>33668</v>
       </c>
       <c r="BB61" s="13" t="n">
-        <v>33668</v>
+        <v>32983</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10951,11 +10951,11 @@
       </c>
       <c r="D62" s="16"/>
       <c r="E62" s="16" t="n">
-        <v>3642</v>
-      </c>
-      <c r="F62" s="16" t="n">
         <v>8396</v>
       </c>
+      <c r="F62" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G62" s="16" t="s">
         <v>57</v>
       </c>
@@ -11061,44 +11061,44 @@
       <c r="AO62" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP62" s="16" t="s">
-        <v>57</v>
+      <c r="AP62" s="16" t="n">
+        <v>23230</v>
       </c>
       <c r="AQ62" s="16" t="n">
-        <v>23230</v>
+        <v>43566</v>
       </c>
       <c r="AR62" s="16" t="n">
-        <v>43566</v>
+        <v>39514</v>
       </c>
       <c r="AS62" s="16" t="n">
-        <v>39514</v>
+        <v>7850</v>
       </c>
       <c r="AT62" s="16" t="n">
-        <v>7850</v>
+        <v>4143</v>
       </c>
       <c r="AU62" s="16" t="n">
-        <v>4143</v>
+        <v>4481</v>
       </c>
       <c r="AV62" s="16" t="n">
-        <v>4481</v>
+        <v>5194</v>
       </c>
       <c r="AW62" s="16" t="n">
-        <v>5194</v>
+        <v>8722</v>
       </c>
       <c r="AX62" s="16" t="n">
-        <v>8722</v>
+        <v>6259</v>
       </c>
       <c r="AY62" s="16" t="n">
-        <v>6259</v>
+        <v>5389</v>
       </c>
       <c r="AZ62" s="16" t="n">
-        <v>5389</v>
+        <v>6243</v>
       </c>
       <c r="BA62" s="16" t="n">
-        <v>6243</v>
+        <v>19208</v>
       </c>
       <c r="BB62" s="16" t="n">
-        <v>19208</v>
+        <v>14113</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11220,44 +11220,44 @@
       <c r="AO63" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP63" s="13" t="s">
-        <v>57</v>
+      <c r="AP63" s="13" t="n">
+        <v>30194</v>
       </c>
       <c r="AQ63" s="13" t="n">
-        <v>30194</v>
+        <v>8880</v>
       </c>
       <c r="AR63" s="13" t="n">
-        <v>8880</v>
+        <v>5549</v>
       </c>
       <c r="AS63" s="13" t="n">
-        <v>5549</v>
+        <v>3845</v>
       </c>
       <c r="AT63" s="13" t="n">
-        <v>3845</v>
+        <v>5211</v>
       </c>
       <c r="AU63" s="13" t="n">
-        <v>5211</v>
+        <v>7782</v>
       </c>
       <c r="AV63" s="13" t="n">
-        <v>7782</v>
+        <v>10543</v>
       </c>
       <c r="AW63" s="13" t="n">
-        <v>10543</v>
+        <v>10894</v>
       </c>
       <c r="AX63" s="13" t="n">
-        <v>10894</v>
+        <v>5119</v>
       </c>
       <c r="AY63" s="13" t="n">
-        <v>5119</v>
+        <v>1582</v>
       </c>
       <c r="AZ63" s="13" t="n">
-        <v>1582</v>
+        <v>1483</v>
       </c>
       <c r="BA63" s="13" t="n">
-        <v>1483</v>
+        <v>8143</v>
       </c>
       <c r="BB63" s="13" t="n">
-        <v>8143</v>
+        <v>6149</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11379,17 +11379,17 @@
       <c r="AO64" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP64" s="16" t="s">
-        <v>57</v>
+      <c r="AP64" s="16" t="n">
+        <v>2056</v>
       </c>
       <c r="AQ64" s="16" t="n">
-        <v>2056</v>
+        <v>563</v>
       </c>
       <c r="AR64" s="16" t="n">
-        <v>563</v>
+        <v>31</v>
       </c>
       <c r="AS64" s="16" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT64" s="16" t="n">
         <v>0</v>
@@ -11538,8 +11538,8 @@
       <c r="AO65" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP65" s="13" t="s">
-        <v>57</v>
+      <c r="AP65" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ65" s="13" t="n">
         <v>0</v>
@@ -11574,8 +11574,8 @@
       <c r="BA65" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB65" s="13" t="n">
-        <v>0</v>
+      <c r="BB65" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11689,8 +11689,8 @@
       <c r="T67" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U67" s="20" t="s">
-        <v>57</v>
+      <c r="U67" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V67" s="20" t="n">
         <v>0</v>
@@ -11903,8 +11903,8 @@
       <c r="T69" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U69" s="20" t="s">
-        <v>57</v>
+      <c r="U69" s="20" t="n">
+        <v>0</v>
       </c>
       <c r="V69" s="20" t="n">
         <v>0</v>
@@ -12013,154 +12013,154 @@
       <c r="C70" s="22"/>
       <c r="D70" s="22"/>
       <c r="E70" s="22" t="n">
-        <v>47299</v>
+        <v>108744</v>
       </c>
       <c r="F70" s="22" t="n">
-        <v>108744</v>
+        <v>93112</v>
       </c>
       <c r="G70" s="22" t="n">
-        <v>93112</v>
+        <v>132197</v>
       </c>
       <c r="H70" s="22" t="n">
-        <v>132197</v>
+        <v>144163</v>
       </c>
       <c r="I70" s="22" t="n">
-        <v>144163</v>
+        <v>142011</v>
       </c>
       <c r="J70" s="22" t="n">
-        <v>142011</v>
+        <v>141685</v>
       </c>
       <c r="K70" s="22" t="n">
-        <v>141685</v>
+        <v>139061</v>
       </c>
       <c r="L70" s="22" t="n">
-        <v>139061</v>
+        <v>138027</v>
       </c>
       <c r="M70" s="22" t="n">
-        <v>138027</v>
+        <v>128008</v>
       </c>
       <c r="N70" s="22" t="n">
-        <v>128008</v>
+        <v>71756</v>
       </c>
       <c r="O70" s="22" t="n">
-        <v>71756</v>
+        <v>36868</v>
       </c>
       <c r="P70" s="22" t="n">
-        <v>36868</v>
+        <v>18907</v>
       </c>
       <c r="Q70" s="22" t="n">
-        <v>18907</v>
+        <v>110484</v>
       </c>
       <c r="R70" s="22" t="n">
-        <v>110484</v>
+        <v>134244</v>
       </c>
       <c r="S70" s="22" t="n">
-        <v>134244</v>
+        <v>206785</v>
       </c>
       <c r="T70" s="22" t="n">
-        <v>206785</v>
+        <v>218151</v>
       </c>
       <c r="U70" s="22" t="n">
-        <v>218151</v>
+        <v>215507</v>
       </c>
       <c r="V70" s="22" t="n">
-        <v>215507</v>
+        <v>184335</v>
       </c>
       <c r="W70" s="22" t="n">
-        <v>184335</v>
+        <v>168485</v>
       </c>
       <c r="X70" s="22" t="n">
-        <v>168485</v>
+        <v>157636</v>
       </c>
       <c r="Y70" s="22" t="n">
-        <v>157636</v>
+        <v>165019</v>
       </c>
       <c r="Z70" s="22" t="n">
-        <v>165019</v>
+        <v>106660</v>
       </c>
       <c r="AA70" s="22" t="n">
-        <v>106660</v>
+        <v>56803</v>
       </c>
       <c r="AB70" s="22" t="n">
-        <v>56803</v>
+        <v>102051</v>
       </c>
       <c r="AC70" s="22" t="n">
-        <v>102051</v>
+        <v>115893</v>
       </c>
       <c r="AD70" s="22" t="n">
-        <v>115893</v>
+        <v>155210</v>
       </c>
       <c r="AE70" s="22" t="n">
-        <v>155210</v>
+        <v>186880</v>
       </c>
       <c r="AF70" s="22" t="n">
-        <v>186880</v>
+        <v>183225</v>
       </c>
       <c r="AG70" s="22" t="n">
-        <v>183225</v>
+        <v>159512</v>
       </c>
       <c r="AH70" s="22" t="n">
-        <v>159512</v>
+        <v>148999</v>
       </c>
       <c r="AI70" s="22" t="n">
-        <v>148999</v>
+        <v>190413</v>
       </c>
       <c r="AJ70" s="22" t="n">
-        <v>190413</v>
+        <v>153584</v>
       </c>
       <c r="AK70" s="22" t="n">
-        <v>153584</v>
+        <v>137152</v>
       </c>
       <c r="AL70" s="22" t="n">
-        <v>137152</v>
+        <v>0</v>
       </c>
       <c r="AM70" s="22" t="n">
-        <v>0</v>
+        <v>24937</v>
       </c>
       <c r="AN70" s="22" t="n">
-        <v>24937</v>
+        <v>43459</v>
       </c>
       <c r="AO70" s="22" t="n">
-        <v>43459</v>
+        <v>145495</v>
       </c>
       <c r="AP70" s="22" t="n">
-        <v>145495</v>
+        <v>185259</v>
       </c>
       <c r="AQ70" s="22" t="n">
-        <v>185259</v>
+        <v>156588</v>
       </c>
       <c r="AR70" s="22" t="n">
-        <v>156588</v>
+        <v>175403</v>
       </c>
       <c r="AS70" s="22" t="n">
-        <v>175403</v>
+        <v>131443</v>
       </c>
       <c r="AT70" s="22" t="n">
-        <v>131443</v>
+        <v>135292</v>
       </c>
       <c r="AU70" s="22" t="n">
-        <v>135292</v>
+        <v>159635</v>
       </c>
       <c r="AV70" s="22" t="n">
-        <v>159635</v>
+        <v>136000</v>
       </c>
       <c r="AW70" s="22" t="n">
-        <v>136000</v>
+        <v>152885</v>
       </c>
       <c r="AX70" s="22" t="n">
-        <v>152885</v>
+        <v>127437</v>
       </c>
       <c r="AY70" s="22" t="n">
-        <v>127437</v>
+        <v>101727</v>
       </c>
       <c r="AZ70" s="22" t="n">
-        <v>101727</v>
+        <v>101640</v>
       </c>
       <c r="BA70" s="22" t="n">
-        <v>101640</v>
+        <v>203840</v>
       </c>
       <c r="BB70" s="22" t="n">
-        <v>203840</v>
+        <v>195756</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12644,18 +12644,18 @@
       <c r="Q77" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R77" s="13" t="s">
-        <v>57</v>
+      <c r="R77" s="13" t="n">
+        <v>4987</v>
       </c>
       <c r="S77" s="13" t="n">
-        <v>4987</v>
+        <v>1635</v>
       </c>
       <c r="T77" s="13" t="n">
-        <v>1635</v>
-      </c>
-      <c r="U77" s="13" t="n">
         <v>4293</v>
       </c>
+      <c r="U77" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V77" s="13" t="s">
         <v>57</v>
       </c>
@@ -12716,44 +12716,44 @@
       <c r="AO77" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP77" s="13" t="s">
-        <v>57</v>
+      <c r="AP77" s="13" t="n">
+        <v>92839</v>
       </c>
       <c r="AQ77" s="13" t="n">
-        <v>92839</v>
+        <v>21774</v>
       </c>
       <c r="AR77" s="13" t="n">
-        <v>21774</v>
+        <v>23054</v>
       </c>
       <c r="AS77" s="13" t="n">
-        <v>23054</v>
+        <v>4120</v>
       </c>
       <c r="AT77" s="13" t="n">
-        <v>4120</v>
+        <v>51638</v>
       </c>
       <c r="AU77" s="13" t="n">
-        <v>51638</v>
+        <v>18378</v>
       </c>
       <c r="AV77" s="13" t="n">
-        <v>18378</v>
+        <v>6116</v>
       </c>
       <c r="AW77" s="13" t="n">
-        <v>6116</v>
+        <v>50303</v>
       </c>
       <c r="AX77" s="13" t="n">
-        <v>50303</v>
+        <v>72710</v>
       </c>
       <c r="AY77" s="13" t="n">
-        <v>72710</v>
+        <v>153617</v>
       </c>
       <c r="AZ77" s="13" t="n">
-        <v>153617</v>
+        <v>217829</v>
       </c>
       <c r="BA77" s="13" t="n">
-        <v>217829</v>
+        <v>189218</v>
       </c>
       <c r="BB77" s="13" t="n">
-        <v>189218</v>
+        <v>218654</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12803,17 +12803,17 @@
       <c r="Q78" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R78" s="16" t="s">
-        <v>57</v>
+      <c r="R78" s="16" t="n">
+        <v>258581</v>
       </c>
       <c r="S78" s="16" t="n">
-        <v>258581</v>
+        <v>405263</v>
       </c>
       <c r="T78" s="16" t="n">
-        <v>405263</v>
-      </c>
-      <c r="U78" s="16" t="n">
         <v>427191</v>
+      </c>
+      <c r="U78" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V78" s="16" t="s">
         <v>57</v>
@@ -12935,17 +12935,17 @@
       <c r="H79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I79" s="13" t="s">
-        <v>57</v>
+      <c r="I79" s="13" t="n">
+        <v>6328</v>
       </c>
       <c r="J79" s="13" t="n">
-        <v>6328</v>
+        <v>4670</v>
       </c>
       <c r="K79" s="13" t="n">
-        <v>4670</v>
+        <v>57</v>
       </c>
       <c r="L79" s="13" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="M79" s="13" t="n">
         <v>0</v>
@@ -12960,22 +12960,22 @@
         <v>0</v>
       </c>
       <c r="Q79" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" s="13" t="n">
         <v>929</v>
       </c>
+      <c r="R79" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S79" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T79" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U79" s="13" t="s">
-        <v>57</v>
+      <c r="U79" s="13" t="n">
+        <v>32</v>
       </c>
       <c r="V79" s="13" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="W79" s="13" t="n">
         <v>0</v>
@@ -12984,58 +12984,58 @@
         <v>0</v>
       </c>
       <c r="Y79" s="13" t="n">
-        <v>0</v>
+        <v>1499</v>
       </c>
       <c r="Z79" s="13" t="n">
-        <v>1499</v>
+        <v>3337</v>
       </c>
       <c r="AA79" s="13" t="n">
-        <v>3337</v>
+        <v>0</v>
       </c>
       <c r="AB79" s="13" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="AC79" s="13" t="n">
-        <v>183</v>
+        <v>1750</v>
       </c>
       <c r="AD79" s="13" t="n">
-        <v>1750</v>
+        <v>31616</v>
       </c>
       <c r="AE79" s="13" t="n">
-        <v>31616</v>
+        <v>35500</v>
       </c>
       <c r="AF79" s="13" t="n">
-        <v>35500</v>
+        <v>46354</v>
       </c>
       <c r="AG79" s="13" t="n">
-        <v>46354</v>
+        <v>37105</v>
       </c>
       <c r="AH79" s="13" t="n">
-        <v>37105</v>
+        <v>19254</v>
       </c>
       <c r="AI79" s="13" t="n">
-        <v>19254</v>
+        <v>48675</v>
       </c>
       <c r="AJ79" s="13" t="n">
-        <v>48675</v>
+        <v>6628</v>
       </c>
       <c r="AK79" s="13" t="n">
-        <v>6628</v>
-      </c>
-      <c r="AL79" s="13" t="n">
         <v>22867</v>
       </c>
-      <c r="AM79" s="13" t="s">
-        <v>57</v>
+      <c r="AL79" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM79" s="13" t="n">
+        <v>162</v>
       </c>
       <c r="AN79" s="13" t="n">
-        <v>162</v>
+        <v>19886</v>
       </c>
       <c r="AO79" s="13" t="n">
-        <v>19886</v>
-      </c>
-      <c r="AP79" s="13" t="n">
         <v>83647</v>
+      </c>
+      <c r="AP79" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ79" s="13" t="s">
         <v>57</v>
@@ -13226,11 +13226,11 @@
       <c r="AZ80" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BA80" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB80" s="16" t="n">
+      <c r="BA80" s="16" t="n">
         <v>337</v>
+      </c>
+      <c r="BB80" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13242,10 +13242,10 @@
       </c>
       <c r="D81" s="13"/>
       <c r="E81" s="13" t="n">
-        <v>18338</v>
-      </c>
-      <c r="F81" s="13" t="n">
         <v>46230</v>
+      </c>
+      <c r="F81" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G81" s="13" t="s">
         <v>57</v>
@@ -13401,11 +13401,11 @@
       </c>
       <c r="D82" s="16"/>
       <c r="E82" s="16" t="n">
-        <v>3367</v>
-      </c>
-      <c r="F82" s="16" t="n">
         <v>10163</v>
       </c>
+      <c r="F82" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G82" s="16" t="s">
         <v>57</v>
       </c>
@@ -13511,20 +13511,20 @@
       <c r="AO82" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP82" s="16" t="s">
-        <v>57</v>
+      <c r="AP82" s="16" t="n">
+        <v>383</v>
       </c>
       <c r="AQ82" s="16" t="n">
-        <v>383</v>
+        <v>5982</v>
       </c>
       <c r="AR82" s="16" t="n">
-        <v>5982</v>
+        <v>27963</v>
       </c>
       <c r="AS82" s="16" t="n">
-        <v>27963</v>
+        <v>4364</v>
       </c>
       <c r="AT82" s="16" t="n">
-        <v>4364</v>
+        <v>0</v>
       </c>
       <c r="AU82" s="16" t="n">
         <v>0</v>
@@ -13560,10 +13560,10 @@
       </c>
       <c r="D83" s="13"/>
       <c r="E83" s="13" t="n">
-        <v>13052</v>
-      </c>
-      <c r="F83" s="13" t="n">
         <v>31389</v>
+      </c>
+      <c r="F83" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G83" s="13" t="s">
         <v>57</v>
@@ -13719,11 +13719,11 @@
       </c>
       <c r="D84" s="16"/>
       <c r="E84" s="16" t="n">
-        <v>39</v>
-      </c>
-      <c r="F84" s="16" t="n">
         <v>232</v>
       </c>
+      <c r="F84" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G84" s="16" t="s">
         <v>57</v>
       </c>
@@ -13832,11 +13832,11 @@
       <c r="AP84" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AQ84" s="16" t="s">
-        <v>57</v>
+      <c r="AQ84" s="16" t="n">
+        <v>514</v>
       </c>
       <c r="AR84" s="16" t="n">
-        <v>514</v>
+        <v>0</v>
       </c>
       <c r="AS84" s="16" t="n">
         <v>0</v>
@@ -13866,7 +13866,7 @@
         <v>0</v>
       </c>
       <c r="BB84" s="16" t="n">
-        <v>0</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13880,116 +13880,116 @@
       <c r="E85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F85" s="13" t="s">
-        <v>57</v>
+      <c r="F85" s="13" t="n">
+        <v>3762</v>
       </c>
       <c r="G85" s="13" t="n">
-        <v>3762</v>
+        <v>5112</v>
       </c>
       <c r="H85" s="13" t="n">
-        <v>5112</v>
+        <v>0</v>
       </c>
       <c r="I85" s="13" t="n">
-        <v>0</v>
+        <v>16021</v>
       </c>
       <c r="J85" s="13" t="n">
-        <v>16021</v>
+        <v>19179</v>
       </c>
       <c r="K85" s="13" t="n">
-        <v>19179</v>
+        <v>8391</v>
       </c>
       <c r="L85" s="13" t="n">
-        <v>8391</v>
+        <v>7761</v>
       </c>
       <c r="M85" s="13" t="n">
-        <v>7761</v>
+        <v>8351</v>
       </c>
       <c r="N85" s="13" t="n">
-        <v>8351</v>
+        <v>3271</v>
       </c>
       <c r="O85" s="13" t="n">
-        <v>3271</v>
+        <v>347</v>
       </c>
       <c r="P85" s="13" t="n">
-        <v>347</v>
+        <v>1557</v>
       </c>
       <c r="Q85" s="13" t="n">
-        <v>1557</v>
-      </c>
-      <c r="R85" s="13" t="n">
         <v>4655</v>
       </c>
+      <c r="R85" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S85" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T85" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U85" s="13" t="s">
-        <v>57</v>
+      <c r="U85" s="13" t="n">
+        <v>32084</v>
       </c>
       <c r="V85" s="13" t="n">
-        <v>32084</v>
+        <v>32354</v>
       </c>
       <c r="W85" s="13" t="n">
-        <v>32354</v>
+        <v>36962</v>
       </c>
       <c r="X85" s="13" t="n">
-        <v>36962</v>
+        <v>13634</v>
       </c>
       <c r="Y85" s="13" t="n">
-        <v>13634</v>
+        <v>13630</v>
       </c>
       <c r="Z85" s="13" t="n">
-        <v>13630</v>
+        <v>24835</v>
       </c>
       <c r="AA85" s="13" t="n">
-        <v>24835</v>
+        <v>7977</v>
       </c>
       <c r="AB85" s="13" t="n">
-        <v>7977</v>
+        <v>26884</v>
       </c>
       <c r="AC85" s="13" t="n">
-        <v>26884</v>
+        <v>8819</v>
       </c>
       <c r="AD85" s="13" t="n">
-        <v>8819</v>
+        <v>31546</v>
       </c>
       <c r="AE85" s="13" t="n">
-        <v>31546</v>
+        <v>12261</v>
       </c>
       <c r="AF85" s="13" t="n">
-        <v>12261</v>
+        <v>8184</v>
       </c>
       <c r="AG85" s="13" t="n">
-        <v>8184</v>
+        <v>15536</v>
       </c>
       <c r="AH85" s="13" t="n">
-        <v>15536</v>
+        <v>35926</v>
       </c>
       <c r="AI85" s="13" t="n">
-        <v>35926</v>
+        <v>58209</v>
       </c>
       <c r="AJ85" s="13" t="n">
-        <v>58209</v>
+        <v>28979</v>
       </c>
       <c r="AK85" s="13" t="n">
-        <v>28979</v>
-      </c>
-      <c r="AL85" s="13" t="n">
         <v>19680</v>
       </c>
-      <c r="AM85" s="13" t="s">
-        <v>57</v>
+      <c r="AL85" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM85" s="13" t="n">
+        <v>3969</v>
       </c>
       <c r="AN85" s="13" t="n">
-        <v>3969</v>
+        <v>2769</v>
       </c>
       <c r="AO85" s="13" t="n">
-        <v>2769</v>
-      </c>
-      <c r="AP85" s="13" t="n">
         <v>15476</v>
+      </c>
+      <c r="AP85" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ85" s="13" t="s">
         <v>57</v>
@@ -14039,116 +14039,116 @@
       <c r="E86" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F86" s="16" t="s">
-        <v>57</v>
+      <c r="F86" s="16" t="n">
+        <v>121393</v>
       </c>
       <c r="G86" s="16" t="n">
-        <v>121393</v>
+        <v>183872</v>
       </c>
       <c r="H86" s="16" t="n">
-        <v>183872</v>
+        <v>205340</v>
       </c>
       <c r="I86" s="16" t="n">
-        <v>205340</v>
+        <v>219034</v>
       </c>
       <c r="J86" s="16" t="n">
-        <v>219034</v>
+        <v>238664</v>
       </c>
       <c r="K86" s="16" t="n">
-        <v>238664</v>
+        <v>254342</v>
       </c>
       <c r="L86" s="16" t="n">
-        <v>254342</v>
+        <v>252994</v>
       </c>
       <c r="M86" s="16" t="n">
-        <v>252994</v>
+        <v>232675</v>
       </c>
       <c r="N86" s="16" t="n">
-        <v>232675</v>
+        <v>130641</v>
       </c>
       <c r="O86" s="16" t="n">
-        <v>130641</v>
+        <v>69759</v>
       </c>
       <c r="P86" s="16" t="n">
-        <v>69759</v>
+        <v>34147</v>
       </c>
       <c r="Q86" s="16" t="n">
-        <v>34147</v>
-      </c>
-      <c r="R86" s="16" t="n">
         <v>207849</v>
       </c>
+      <c r="R86" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S86" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T86" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U86" s="16" t="s">
-        <v>57</v>
+      <c r="U86" s="16" t="n">
+        <v>466204</v>
       </c>
       <c r="V86" s="16" t="n">
-        <v>466204</v>
+        <v>417403</v>
       </c>
       <c r="W86" s="16" t="n">
-        <v>417403</v>
+        <v>385661</v>
       </c>
       <c r="X86" s="16" t="n">
-        <v>385661</v>
+        <v>391458</v>
       </c>
       <c r="Y86" s="16" t="n">
-        <v>391458</v>
+        <v>426897</v>
       </c>
       <c r="Z86" s="16" t="n">
-        <v>426897</v>
+        <v>252556</v>
       </c>
       <c r="AA86" s="16" t="n">
-        <v>252556</v>
+        <v>140203</v>
       </c>
       <c r="AB86" s="16" t="n">
-        <v>140203</v>
+        <v>255954</v>
       </c>
       <c r="AC86" s="16" t="n">
-        <v>255954</v>
+        <v>303757</v>
       </c>
       <c r="AD86" s="16" t="n">
-        <v>303757</v>
+        <v>401076</v>
       </c>
       <c r="AE86" s="16" t="n">
-        <v>401076</v>
+        <v>656034</v>
       </c>
       <c r="AF86" s="16" t="n">
-        <v>656034</v>
+        <v>659971</v>
       </c>
       <c r="AG86" s="16" t="n">
-        <v>659971</v>
+        <v>710324</v>
       </c>
       <c r="AH86" s="16" t="n">
-        <v>710324</v>
+        <v>812328</v>
       </c>
       <c r="AI86" s="16" t="n">
-        <v>812328</v>
+        <v>1031697</v>
       </c>
       <c r="AJ86" s="16" t="n">
-        <v>1031697</v>
+        <v>684173</v>
       </c>
       <c r="AK86" s="16" t="n">
-        <v>684173</v>
-      </c>
-      <c r="AL86" s="16" t="n">
         <v>574236</v>
       </c>
-      <c r="AM86" s="16" t="s">
-        <v>57</v>
+      <c r="AL86" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM86" s="16" t="n">
+        <v>102713</v>
       </c>
       <c r="AN86" s="16" t="n">
-        <v>102713</v>
+        <v>185729</v>
       </c>
       <c r="AO86" s="16" t="n">
-        <v>185729</v>
-      </c>
-      <c r="AP86" s="16" t="n">
         <v>642327</v>
+      </c>
+      <c r="AP86" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ86" s="16" t="s">
         <v>57</v>
@@ -14207,11 +14207,11 @@
       <c r="H87" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I87" s="13" t="s">
-        <v>57</v>
+      <c r="I87" s="13" t="n">
+        <v>279</v>
       </c>
       <c r="J87" s="13" t="n">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="K87" s="13" t="n">
         <v>0</v>
@@ -14234,8 +14234,8 @@
       <c r="Q87" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R87" s="13" t="n">
-        <v>0</v>
+      <c r="R87" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S87" s="13" t="s">
         <v>57</v>
@@ -14243,8 +14243,8 @@
       <c r="T87" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U87" s="13" t="s">
-        <v>57</v>
+      <c r="U87" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V87" s="13" t="n">
         <v>0</v>
@@ -14294,11 +14294,11 @@
       <c r="AK87" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AL87" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM87" s="13" t="s">
-        <v>57</v>
+      <c r="AL87" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM87" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AN87" s="13" t="n">
         <v>0</v>
@@ -14306,8 +14306,8 @@
       <c r="AO87" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP87" s="13" t="n">
-        <v>0</v>
+      <c r="AP87" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ87" s="13" t="s">
         <v>57</v>
@@ -14465,44 +14465,44 @@
       <c r="AO88" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP88" s="16" t="s">
-        <v>57</v>
+      <c r="AP88" s="16" t="n">
+        <v>150039</v>
       </c>
       <c r="AQ88" s="16" t="n">
-        <v>150039</v>
+        <v>92996</v>
       </c>
       <c r="AR88" s="16" t="n">
-        <v>92996</v>
+        <v>192156</v>
       </c>
       <c r="AS88" s="16" t="n">
-        <v>192156</v>
+        <v>303024</v>
       </c>
       <c r="AT88" s="16" t="n">
-        <v>303024</v>
+        <v>298832</v>
       </c>
       <c r="AU88" s="16" t="n">
-        <v>298832</v>
+        <v>366656</v>
       </c>
       <c r="AV88" s="16" t="n">
-        <v>366656</v>
+        <v>279784</v>
       </c>
       <c r="AW88" s="16" t="n">
-        <v>279784</v>
+        <v>270096</v>
       </c>
       <c r="AX88" s="16" t="n">
-        <v>270096</v>
+        <v>196334</v>
       </c>
       <c r="AY88" s="16" t="n">
-        <v>196334</v>
+        <v>103180</v>
       </c>
       <c r="AZ88" s="16" t="n">
-        <v>103180</v>
+        <v>53671</v>
       </c>
       <c r="BA88" s="16" t="n">
-        <v>53671</v>
+        <v>218102</v>
       </c>
       <c r="BB88" s="16" t="n">
-        <v>218102</v>
+        <v>259595</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14624,44 +14624,44 @@
       <c r="AO89" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP89" s="13" t="s">
-        <v>57</v>
+      <c r="AP89" s="13" t="n">
+        <v>297429</v>
       </c>
       <c r="AQ89" s="13" t="n">
-        <v>297429</v>
+        <v>208702</v>
       </c>
       <c r="AR89" s="13" t="n">
-        <v>208702</v>
+        <v>371216</v>
       </c>
       <c r="AS89" s="13" t="n">
-        <v>371216</v>
+        <v>400535</v>
       </c>
       <c r="AT89" s="13" t="n">
-        <v>400535</v>
+        <v>366469</v>
       </c>
       <c r="AU89" s="13" t="n">
-        <v>366469</v>
+        <v>466541</v>
       </c>
       <c r="AV89" s="13" t="n">
-        <v>466541</v>
+        <v>367281</v>
       </c>
       <c r="AW89" s="13" t="n">
-        <v>367281</v>
+        <v>342216</v>
       </c>
       <c r="AX89" s="13" t="n">
-        <v>342216</v>
+        <v>218913</v>
       </c>
       <c r="AY89" s="13" t="n">
-        <v>218913</v>
+        <v>123211</v>
       </c>
       <c r="AZ89" s="13" t="n">
-        <v>123211</v>
+        <v>133140</v>
       </c>
       <c r="BA89" s="13" t="n">
-        <v>133140</v>
+        <v>529632</v>
       </c>
       <c r="BB89" s="13" t="n">
-        <v>529632</v>
+        <v>550409</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -14673,10 +14673,10 @@
       </c>
       <c r="D90" s="16"/>
       <c r="E90" s="16" t="n">
-        <v>28</v>
-      </c>
-      <c r="F90" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G90" s="16" t="s">
         <v>57</v>
@@ -14832,10 +14832,10 @@
       </c>
       <c r="D91" s="13"/>
       <c r="E91" s="13" t="n">
-        <v>16730</v>
-      </c>
-      <c r="F91" s="13" t="n">
         <v>36561</v>
+      </c>
+      <c r="F91" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G91" s="13" t="s">
         <v>57</v>
@@ -14991,10 +14991,10 @@
       </c>
       <c r="D92" s="16"/>
       <c r="E92" s="16" t="n">
-        <v>5374</v>
-      </c>
-      <c r="F92" s="16" t="n">
         <v>7659</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G92" s="16" t="s">
         <v>57</v>
@@ -15152,8 +15152,8 @@
       <c r="E93" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F93" s="13" t="n">
-        <v>0</v>
+      <c r="F93" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G93" s="13" t="s">
         <v>57</v>
@@ -15309,11 +15309,11 @@
       </c>
       <c r="D94" s="16"/>
       <c r="E94" s="16" t="n">
-        <v>2474</v>
-      </c>
-      <c r="F94" s="16" t="n">
         <v>586</v>
       </c>
+      <c r="F94" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G94" s="16" t="s">
         <v>57</v>
       </c>
@@ -15419,20 +15419,20 @@
       <c r="AO94" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP94" s="16" t="s">
-        <v>57</v>
+      <c r="AP94" s="16" t="n">
+        <v>166</v>
       </c>
       <c r="AQ94" s="16" t="n">
-        <v>166</v>
+        <v>3486</v>
       </c>
       <c r="AR94" s="16" t="n">
-        <v>3486</v>
+        <v>5883</v>
       </c>
       <c r="AS94" s="16" t="n">
-        <v>5883</v>
+        <v>619</v>
       </c>
       <c r="AT94" s="16" t="n">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="AU94" s="16" t="n">
         <v>0</v>
@@ -15456,7 +15456,7 @@
         <v>0</v>
       </c>
       <c r="BB94" s="16" t="n">
-        <v>0</v>
+        <v>7843</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15468,11 +15468,11 @@
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13" t="n">
-        <v>2602</v>
-      </c>
-      <c r="F95" s="13" t="n">
         <v>4927</v>
       </c>
+      <c r="F95" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="G95" s="13" t="s">
         <v>57</v>
       </c>
@@ -15578,44 +15578,44 @@
       <c r="AO95" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP95" s="13" t="s">
-        <v>57</v>
+      <c r="AP95" s="13" t="n">
+        <v>148012</v>
       </c>
       <c r="AQ95" s="13" t="n">
-        <v>148012</v>
+        <v>220950</v>
       </c>
       <c r="AR95" s="13" t="n">
-        <v>220950</v>
+        <v>193683</v>
       </c>
       <c r="AS95" s="13" t="n">
-        <v>193683</v>
+        <v>42458</v>
       </c>
       <c r="AT95" s="13" t="n">
-        <v>42458</v>
+        <v>64244</v>
       </c>
       <c r="AU95" s="13" t="n">
-        <v>64244</v>
+        <v>35298</v>
       </c>
       <c r="AV95" s="13" t="n">
-        <v>35298</v>
+        <v>62922</v>
       </c>
       <c r="AW95" s="13" t="n">
-        <v>62922</v>
+        <v>100129</v>
       </c>
       <c r="AX95" s="13" t="n">
-        <v>100129</v>
+        <v>124937</v>
       </c>
       <c r="AY95" s="13" t="n">
-        <v>124937</v>
+        <v>62421</v>
       </c>
       <c r="AZ95" s="13" t="n">
-        <v>62421</v>
+        <v>44984</v>
       </c>
       <c r="BA95" s="13" t="n">
-        <v>44984</v>
+        <v>178516</v>
       </c>
       <c r="BB95" s="13" t="n">
-        <v>178516</v>
+        <v>186588</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15627,11 +15627,11 @@
       </c>
       <c r="D96" s="16"/>
       <c r="E96" s="16" t="n">
-        <v>4845</v>
-      </c>
-      <c r="F96" s="16" t="n">
         <v>11520</v>
       </c>
+      <c r="F96" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G96" s="16" t="s">
         <v>57</v>
       </c>
@@ -15737,44 +15737,44 @@
       <c r="AO96" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP96" s="16" t="s">
-        <v>57</v>
+      <c r="AP96" s="16" t="n">
+        <v>129823</v>
       </c>
       <c r="AQ96" s="16" t="n">
-        <v>129823</v>
+        <v>244427</v>
       </c>
       <c r="AR96" s="16" t="n">
-        <v>244427</v>
+        <v>247658</v>
       </c>
       <c r="AS96" s="16" t="n">
-        <v>247658</v>
+        <v>57581</v>
       </c>
       <c r="AT96" s="16" t="n">
-        <v>57581</v>
+        <v>30235</v>
       </c>
       <c r="AU96" s="16" t="n">
-        <v>30235</v>
+        <v>30629</v>
       </c>
       <c r="AV96" s="16" t="n">
-        <v>30629</v>
+        <v>33683</v>
       </c>
       <c r="AW96" s="16" t="n">
-        <v>33683</v>
+        <v>53545</v>
       </c>
       <c r="AX96" s="16" t="n">
-        <v>53545</v>
+        <v>37553</v>
       </c>
       <c r="AY96" s="16" t="n">
-        <v>37553</v>
+        <v>31711</v>
       </c>
       <c r="AZ96" s="16" t="n">
-        <v>31711</v>
+        <v>36811</v>
       </c>
       <c r="BA96" s="16" t="n">
-        <v>36811</v>
+        <v>123370</v>
       </c>
       <c r="BB96" s="16" t="n">
-        <v>123370</v>
+        <v>102931</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -15896,44 +15896,44 @@
       <c r="AO97" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP97" s="13" t="s">
-        <v>57</v>
+      <c r="AP97" s="13" t="n">
+        <v>150205</v>
       </c>
       <c r="AQ97" s="13" t="n">
-        <v>150205</v>
+        <v>44996</v>
       </c>
       <c r="AR97" s="13" t="n">
-        <v>44996</v>
+        <v>35002</v>
       </c>
       <c r="AS97" s="13" t="n">
-        <v>35002</v>
+        <v>26078</v>
       </c>
       <c r="AT97" s="13" t="n">
-        <v>26078</v>
+        <v>33744</v>
       </c>
       <c r="AU97" s="13" t="n">
-        <v>33744</v>
+        <v>49053</v>
       </c>
       <c r="AV97" s="13" t="n">
-        <v>49053</v>
+        <v>61861</v>
       </c>
       <c r="AW97" s="13" t="n">
-        <v>61861</v>
+        <v>62877</v>
       </c>
       <c r="AX97" s="13" t="n">
-        <v>62877</v>
+        <v>29791</v>
       </c>
       <c r="AY97" s="13" t="n">
-        <v>29791</v>
+        <v>9255</v>
       </c>
       <c r="AZ97" s="13" t="n">
-        <v>9255</v>
+        <v>8790</v>
       </c>
       <c r="BA97" s="13" t="n">
-        <v>8790</v>
+        <v>53800</v>
       </c>
       <c r="BB97" s="13" t="n">
-        <v>53800</v>
+        <v>43131</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16055,17 +16055,17 @@
       <c r="AO98" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP98" s="16" t="s">
-        <v>57</v>
+      <c r="AP98" s="16" t="n">
+        <v>10245</v>
       </c>
       <c r="AQ98" s="16" t="n">
-        <v>10245</v>
+        <v>3038</v>
       </c>
       <c r="AR98" s="16" t="n">
-        <v>3038</v>
+        <v>147</v>
       </c>
       <c r="AS98" s="16" t="n">
-        <v>147</v>
+        <v>0</v>
       </c>
       <c r="AT98" s="16" t="n">
         <v>0</v>
@@ -16214,8 +16214,8 @@
       <c r="AO99" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP99" s="13" t="s">
-        <v>57</v>
+      <c r="AP99" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AQ99" s="13" t="n">
         <v>0</v>
@@ -16250,8 +16250,8 @@
       <c r="BA99" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="BB99" s="13" t="n">
-        <v>0</v>
+      <c r="BB99" s="13" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16367,8 +16367,8 @@
       <c r="T101" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U101" s="20" t="s">
-        <v>57</v>
+      <c r="U101" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V101" s="23" t="n">
         <v>0</v>
@@ -16583,8 +16583,8 @@
       <c r="T103" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="U103" s="20" t="s">
-        <v>57</v>
+      <c r="U103" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V103" s="23" t="n">
         <v>0</v>
@@ -16799,8 +16799,8 @@
       <c r="T105" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U105" s="13" t="s">
-        <v>57</v>
+      <c r="U105" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V105" s="13" t="n">
         <v>0</v>
@@ -16909,154 +16909,154 @@
       <c r="C106" s="22"/>
       <c r="D106" s="22"/>
       <c r="E106" s="22" t="n">
-        <v>66849</v>
+        <v>149267</v>
       </c>
       <c r="F106" s="22" t="n">
-        <v>149267</v>
+        <v>125155</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>125155</v>
+        <v>188984</v>
       </c>
       <c r="H106" s="22" t="n">
-        <v>188984</v>
+        <v>205340</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>205340</v>
+        <v>241662</v>
       </c>
       <c r="J106" s="22" t="n">
-        <v>241662</v>
+        <v>262513</v>
       </c>
       <c r="K106" s="22" t="n">
-        <v>262513</v>
+        <v>262790</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>262790</v>
+        <v>260755</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>260755</v>
+        <v>241026</v>
       </c>
       <c r="N106" s="22" t="n">
-        <v>241026</v>
+        <v>133912</v>
       </c>
       <c r="O106" s="22" t="n">
-        <v>133912</v>
+        <v>70106</v>
       </c>
       <c r="P106" s="22" t="n">
-        <v>70106</v>
+        <v>35704</v>
       </c>
       <c r="Q106" s="22" t="n">
-        <v>35704</v>
+        <v>213433</v>
       </c>
       <c r="R106" s="22" t="n">
-        <v>213433</v>
+        <v>263568</v>
       </c>
       <c r="S106" s="22" t="n">
-        <v>263568</v>
+        <v>406898</v>
       </c>
       <c r="T106" s="22" t="n">
-        <v>406898</v>
+        <v>431484</v>
       </c>
       <c r="U106" s="22" t="n">
-        <v>431484</v>
+        <v>498320</v>
       </c>
       <c r="V106" s="22" t="n">
-        <v>498320</v>
+        <v>449757</v>
       </c>
       <c r="W106" s="22" t="n">
-        <v>449757</v>
+        <v>422623</v>
       </c>
       <c r="X106" s="22" t="n">
-        <v>422623</v>
+        <v>405092</v>
       </c>
       <c r="Y106" s="22" t="n">
-        <v>405092</v>
+        <v>442026</v>
       </c>
       <c r="Z106" s="22" t="n">
-        <v>442026</v>
+        <v>280728</v>
       </c>
       <c r="AA106" s="22" t="n">
-        <v>280728</v>
+        <v>148180</v>
       </c>
       <c r="AB106" s="22" t="n">
-        <v>148180</v>
+        <v>283021</v>
       </c>
       <c r="AC106" s="22" t="n">
-        <v>283021</v>
+        <v>314326</v>
       </c>
       <c r="AD106" s="22" t="n">
-        <v>314326</v>
+        <v>464238</v>
       </c>
       <c r="AE106" s="22" t="n">
-        <v>464238</v>
+        <v>703795</v>
       </c>
       <c r="AF106" s="22" t="n">
-        <v>703795</v>
+        <v>714509</v>
       </c>
       <c r="AG106" s="22" t="n">
-        <v>714509</v>
+        <v>762965</v>
       </c>
       <c r="AH106" s="22" t="n">
-        <v>762965</v>
+        <v>867508</v>
       </c>
       <c r="AI106" s="22" t="n">
-        <v>867508</v>
+        <v>1138581</v>
       </c>
       <c r="AJ106" s="22" t="n">
-        <v>1138581</v>
+        <v>719780</v>
       </c>
       <c r="AK106" s="22" t="n">
-        <v>719780</v>
+        <v>616783</v>
       </c>
       <c r="AL106" s="22" t="n">
-        <v>616783</v>
+        <v>0</v>
       </c>
       <c r="AM106" s="22" t="n">
-        <v>0</v>
+        <v>106844</v>
       </c>
       <c r="AN106" s="22" t="n">
-        <v>106844</v>
+        <v>208384</v>
       </c>
       <c r="AO106" s="22" t="n">
-        <v>208384</v>
+        <v>741450</v>
       </c>
       <c r="AP106" s="22" t="n">
-        <v>741450</v>
+        <v>979141</v>
       </c>
       <c r="AQ106" s="22" t="n">
-        <v>979141</v>
+        <v>846865</v>
       </c>
       <c r="AR106" s="22" t="n">
-        <v>846865</v>
+        <v>1096762</v>
       </c>
       <c r="AS106" s="22" t="n">
-        <v>1096762</v>
+        <v>838779</v>
       </c>
       <c r="AT106" s="22" t="n">
-        <v>838779</v>
+        <v>845162</v>
       </c>
       <c r="AU106" s="22" t="n">
-        <v>845162</v>
+        <v>966555</v>
       </c>
       <c r="AV106" s="22" t="n">
-        <v>966555</v>
+        <v>811647</v>
       </c>
       <c r="AW106" s="22" t="n">
-        <v>811647</v>
+        <v>879166</v>
       </c>
       <c r="AX106" s="22" t="n">
-        <v>879166</v>
+        <v>680238</v>
       </c>
       <c r="AY106" s="22" t="n">
-        <v>680238</v>
+        <v>483395</v>
       </c>
       <c r="AZ106" s="22" t="n">
-        <v>483395</v>
+        <v>495225</v>
       </c>
       <c r="BA106" s="22" t="n">
-        <v>495225</v>
+        <v>1292975</v>
       </c>
       <c r="BB106" s="22" t="n">
-        <v>1292975</v>
+        <v>1370314</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17540,18 +17540,18 @@
       <c r="Q113" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="R113" s="13" t="s">
-        <v>57</v>
+      <c r="R113" s="13" t="n">
+        <v>1114912</v>
       </c>
       <c r="S113" s="13" t="n">
-        <v>1114912</v>
+        <v>1216518</v>
       </c>
       <c r="T113" s="13" t="n">
-        <v>1216518</v>
-      </c>
-      <c r="U113" s="13" t="n">
         <v>1325818</v>
       </c>
+      <c r="U113" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="V113" s="13" t="s">
         <v>57</v>
       </c>
@@ -17612,44 +17612,44 @@
       <c r="AO113" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP113" s="13" t="s">
-        <v>57</v>
+      <c r="AP113" s="13" t="n">
+        <v>6713356</v>
       </c>
       <c r="AQ113" s="13" t="n">
-        <v>6713356</v>
+        <v>6785291</v>
       </c>
       <c r="AR113" s="13" t="n">
-        <v>6785291</v>
+        <v>7738839</v>
       </c>
       <c r="AS113" s="13" t="n">
-        <v>7738839</v>
+        <v>8174603</v>
       </c>
       <c r="AT113" s="13" t="n">
-        <v>8174603</v>
+        <v>7912657</v>
       </c>
       <c r="AU113" s="13" t="n">
-        <v>7912657</v>
+        <v>5440497</v>
       </c>
       <c r="AV113" s="13" t="n">
-        <v>5440497</v>
+        <v>4444767</v>
       </c>
       <c r="AW113" s="13" t="n">
-        <v>4444767</v>
+        <v>4168642</v>
       </c>
       <c r="AX113" s="13" t="n">
-        <v>4168642</v>
+        <v>3604323</v>
       </c>
       <c r="AY113" s="13" t="n">
-        <v>3604323</v>
+        <v>3482431</v>
       </c>
       <c r="AZ113" s="13" t="n">
-        <v>3482431</v>
+        <v>4036113</v>
       </c>
       <c r="BA113" s="13" t="n">
-        <v>4036113</v>
+        <v>5368343</v>
       </c>
       <c r="BB113" s="13" t="n">
-        <v>5368343</v>
+        <v>6289839</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -17699,17 +17699,17 @@
       <c r="Q114" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="R114" s="16" t="s">
-        <v>57</v>
+      <c r="R114" s="16" t="n">
+        <v>1992595</v>
       </c>
       <c r="S114" s="16" t="n">
-        <v>1992595</v>
+        <v>1972649</v>
       </c>
       <c r="T114" s="16" t="n">
-        <v>1972649</v>
-      </c>
-      <c r="U114" s="16" t="n">
         <v>1987739</v>
+      </c>
+      <c r="U114" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="V114" s="16" t="s">
         <v>57</v>
@@ -17831,17 +17831,17 @@
       <c r="H115" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I115" s="13" t="s">
-        <v>57</v>
+      <c r="I115" s="13" t="n">
+        <v>953012</v>
       </c>
       <c r="J115" s="13" t="n">
-        <v>953012</v>
+        <v>1068894</v>
       </c>
       <c r="K115" s="13" t="n">
-        <v>1068894</v>
+        <v>1075472</v>
       </c>
       <c r="L115" s="13" t="n">
-        <v>1075472</v>
+        <v>0</v>
       </c>
       <c r="M115" s="13" t="n">
         <v>0</v>
@@ -17856,82 +17856,82 @@
         <v>0</v>
       </c>
       <c r="Q115" s="13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R115" s="13" t="n">
         <v>696402</v>
       </c>
+      <c r="R115" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S115" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T115" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U115" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="V115" s="13" t="n">
+      <c r="U115" s="13" t="n">
         <v>1391304</v>
       </c>
+      <c r="V115" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="W115" s="13" t="s">
         <v>57</v>
       </c>
       <c r="X115" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="Y115" s="13" t="s">
-        <v>57</v>
+      <c r="Y115" s="13" t="n">
+        <v>3674020</v>
       </c>
       <c r="Z115" s="13" t="n">
-        <v>3674020</v>
-      </c>
-      <c r="AA115" s="13" t="n">
         <v>2995512</v>
       </c>
-      <c r="AB115" s="13" t="s">
-        <v>57</v>
+      <c r="AA115" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB115" s="13" t="n">
+        <v>2407895</v>
       </c>
       <c r="AC115" s="13" t="n">
-        <v>2407895</v>
+        <v>3507014</v>
       </c>
       <c r="AD115" s="13" t="n">
-        <v>3507014</v>
+        <v>4146361</v>
       </c>
       <c r="AE115" s="13" t="n">
-        <v>4146361</v>
+        <v>4389761</v>
       </c>
       <c r="AF115" s="13" t="n">
-        <v>4389761</v>
+        <v>5168246</v>
       </c>
       <c r="AG115" s="13" t="n">
-        <v>5168246</v>
+        <v>5451807</v>
       </c>
       <c r="AH115" s="13" t="n">
-        <v>5451807</v>
+        <v>6544528</v>
       </c>
       <c r="AI115" s="13" t="n">
-        <v>6544528</v>
+        <v>7080000</v>
       </c>
       <c r="AJ115" s="13" t="n">
-        <v>7080000</v>
+        <v>6595025</v>
       </c>
       <c r="AK115" s="13" t="n">
-        <v>6595025</v>
-      </c>
-      <c r="AL115" s="13" t="n">
         <v>6088126</v>
       </c>
-      <c r="AM115" s="13" t="s">
-        <v>57</v>
+      <c r="AL115" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM115" s="13" t="n">
+        <v>6480000</v>
       </c>
       <c r="AN115" s="13" t="n">
-        <v>6480000</v>
+        <v>5916691</v>
       </c>
       <c r="AO115" s="13" t="n">
-        <v>5916691</v>
-      </c>
-      <c r="AP115" s="13" t="n">
         <v>6021669</v>
+      </c>
+      <c r="AP115" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ115" s="13" t="s">
         <v>57</v>
@@ -18122,11 +18122,11 @@
       <c r="AZ116" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BA116" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="BB116" s="16" t="n">
+      <c r="BA116" s="16" t="n">
         <v>6740000</v>
+      </c>
+      <c r="BB116" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18138,10 +18138,10 @@
       </c>
       <c r="D117" s="13"/>
       <c r="E117" s="13" t="n">
-        <v>1271089</v>
-      </c>
-      <c r="F117" s="13" t="n">
         <v>1221755</v>
+      </c>
+      <c r="F117" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G117" s="13" t="s">
         <v>57</v>
@@ -18297,11 +18297,11 @@
       </c>
       <c r="D118" s="16"/>
       <c r="E118" s="16" t="n">
-        <v>1640838</v>
-      </c>
-      <c r="F118" s="16" t="n">
         <v>1621928</v>
       </c>
+      <c r="F118" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G118" s="16" t="s">
         <v>57</v>
       </c>
@@ -18407,20 +18407,20 @@
       <c r="AO118" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP118" s="16" t="s">
-        <v>57</v>
+      <c r="AP118" s="16" t="n">
+        <v>5471429</v>
       </c>
       <c r="AQ118" s="16" t="n">
-        <v>5471429</v>
+        <v>5940417</v>
       </c>
       <c r="AR118" s="16" t="n">
-        <v>5940417</v>
+        <v>6136274</v>
       </c>
       <c r="AS118" s="16" t="n">
-        <v>6136274</v>
-      </c>
-      <c r="AT118" s="16" t="n">
         <v>7359191</v>
+      </c>
+      <c r="AT118" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AU118" s="16" t="s">
         <v>57</v>
@@ -18456,10 +18456,10 @@
       </c>
       <c r="D119" s="13"/>
       <c r="E119" s="13" t="n">
-        <v>1503513</v>
-      </c>
-      <c r="F119" s="13" t="n">
         <v>1493363</v>
+      </c>
+      <c r="F119" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G119" s="13" t="s">
         <v>57</v>
@@ -18615,11 +18615,11 @@
       </c>
       <c r="D120" s="16"/>
       <c r="E120" s="16" t="n">
-        <v>1258065</v>
-      </c>
-      <c r="F120" s="16" t="n">
         <v>1234043</v>
       </c>
+      <c r="F120" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G120" s="16" t="s">
         <v>57</v>
       </c>
@@ -18728,12 +18728,12 @@
       <c r="AP120" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AQ120" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR120" s="16" t="n">
+      <c r="AQ120" s="16" t="n">
         <v>3449664</v>
       </c>
+      <c r="AR120" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AS120" s="16" t="s">
         <v>57</v>
       </c>
@@ -18761,8 +18761,8 @@
       <c r="BA120" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BB120" s="16" t="s">
-        <v>57</v>
+      <c r="BB120" s="16" t="n">
+        <v>8262290</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -18776,116 +18776,116 @@
       <c r="E121" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F121" s="13" t="s">
-        <v>57</v>
+      <c r="F121" s="13" t="n">
+        <v>1529890</v>
       </c>
       <c r="G121" s="13" t="n">
-        <v>1529890</v>
+        <v>1522335</v>
       </c>
       <c r="H121" s="13" t="n">
-        <v>1522335</v>
+        <v>0</v>
       </c>
       <c r="I121" s="13" t="n">
-        <v>0</v>
+        <v>1469277</v>
       </c>
       <c r="J121" s="13" t="n">
-        <v>1469277</v>
+        <v>1594662</v>
       </c>
       <c r="K121" s="13" t="n">
-        <v>1594662</v>
+        <v>1597069</v>
       </c>
       <c r="L121" s="13" t="n">
-        <v>1597069</v>
+        <v>1510216</v>
       </c>
       <c r="M121" s="13" t="n">
-        <v>1510216</v>
+        <v>1474660</v>
       </c>
       <c r="N121" s="13" t="n">
-        <v>1474660</v>
+        <v>1423412</v>
       </c>
       <c r="O121" s="13" t="n">
-        <v>1423412</v>
+        <v>1410569</v>
       </c>
       <c r="P121" s="13" t="n">
-        <v>1410569</v>
+        <v>1435023</v>
       </c>
       <c r="Q121" s="13" t="n">
-        <v>1435023</v>
-      </c>
-      <c r="R121" s="13" t="n">
         <v>1378034</v>
       </c>
+      <c r="R121" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="S121" s="13" t="s">
         <v>57</v>
       </c>
       <c r="T121" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="U121" s="13" t="s">
-        <v>57</v>
+      <c r="U121" s="13" t="n">
+        <v>2602742</v>
       </c>
       <c r="V121" s="13" t="n">
-        <v>2602742</v>
+        <v>2535381</v>
       </c>
       <c r="W121" s="13" t="n">
-        <v>2535381</v>
+        <v>2872843</v>
       </c>
       <c r="X121" s="13" t="n">
-        <v>2872843</v>
+        <v>3327801</v>
       </c>
       <c r="Y121" s="13" t="n">
-        <v>3327801</v>
+        <v>4089409</v>
       </c>
       <c r="Z121" s="13" t="n">
-        <v>4089409</v>
+        <v>3424573</v>
       </c>
       <c r="AA121" s="13" t="n">
-        <v>3424573</v>
+        <v>3407518</v>
       </c>
       <c r="AB121" s="13" t="n">
-        <v>3407518</v>
+        <v>3337969</v>
       </c>
       <c r="AC121" s="13" t="n">
-        <v>3337969</v>
+        <v>3072822</v>
       </c>
       <c r="AD121" s="13" t="n">
-        <v>3072822</v>
+        <v>4817654</v>
       </c>
       <c r="AE121" s="13" t="n">
-        <v>4817654</v>
+        <v>3418177</v>
       </c>
       <c r="AF121" s="13" t="n">
-        <v>3418177</v>
+        <v>4057511</v>
       </c>
       <c r="AG121" s="13" t="n">
-        <v>4057511</v>
+        <v>5715968</v>
       </c>
       <c r="AH121" s="13" t="n">
-        <v>5715968</v>
+        <v>7033281</v>
       </c>
       <c r="AI121" s="13" t="n">
-        <v>7033281</v>
+        <v>7640982</v>
       </c>
       <c r="AJ121" s="13" t="n">
-        <v>7640982</v>
+        <v>7775423</v>
       </c>
       <c r="AK121" s="13" t="n">
-        <v>7775423</v>
-      </c>
-      <c r="AL121" s="13" t="n">
         <v>7133019</v>
       </c>
-      <c r="AM121" s="13" t="s">
-        <v>57</v>
+      <c r="AL121" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM121" s="13" t="n">
+        <v>9472554</v>
       </c>
       <c r="AN121" s="13" t="n">
-        <v>9472554</v>
+        <v>8599379</v>
       </c>
       <c r="AO121" s="13" t="n">
-        <v>8599379</v>
-      </c>
-      <c r="AP121" s="13" t="n">
         <v>8324906</v>
+      </c>
+      <c r="AP121" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="AQ121" s="13" t="s">
         <v>57</v>
@@ -18935,116 +18935,116 @@
       <c r="E122" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="F122" s="16" t="s">
-        <v>57</v>
+      <c r="F122" s="16" t="n">
+        <v>1339095</v>
       </c>
       <c r="G122" s="16" t="n">
-        <v>1339095</v>
+        <v>1427146</v>
       </c>
       <c r="H122" s="16" t="n">
-        <v>1427146</v>
+        <v>1424360</v>
       </c>
       <c r="I122" s="16" t="n">
-        <v>1424360</v>
+        <v>1764568</v>
       </c>
       <c r="J122" s="16" t="n">
-        <v>1764568</v>
+        <v>1904908</v>
       </c>
       <c r="K122" s="16" t="n">
-        <v>1904908</v>
+        <v>1901566</v>
       </c>
       <c r="L122" s="16" t="n">
-        <v>1901566</v>
+        <v>1903814</v>
       </c>
       <c r="M122" s="16" t="n">
-        <v>1903814</v>
+        <v>1901794</v>
       </c>
       <c r="N122" s="16" t="n">
-        <v>1901794</v>
+        <v>1880863</v>
       </c>
       <c r="O122" s="16" t="n">
-        <v>1880863</v>
+        <v>1904839</v>
       </c>
       <c r="P122" s="16" t="n">
-        <v>1904839</v>
+        <v>1916003</v>
       </c>
       <c r="Q122" s="16" t="n">
-        <v>1916003</v>
-      </c>
-      <c r="R122" s="16" t="n">
         <v>1965066</v>
       </c>
+      <c r="R122" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="S122" s="16" t="s">
         <v>57</v>
       </c>
       <c r="T122" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="U122" s="16" t="s">
-        <v>57</v>
+      <c r="U122" s="16" t="n">
+        <v>2294797</v>
       </c>
       <c r="V122" s="16" t="n">
-        <v>2294797</v>
+        <v>2432787</v>
       </c>
       <c r="W122" s="16" t="n">
-        <v>2432787</v>
+        <v>2478239</v>
       </c>
       <c r="X122" s="16" t="n">
-        <v>2478239</v>
+        <v>2549567</v>
       </c>
       <c r="Y122" s="16" t="n">
-        <v>2549567</v>
+        <v>2646964</v>
       </c>
       <c r="Z122" s="16" t="n">
-        <v>2646964</v>
+        <v>2569394</v>
       </c>
       <c r="AA122" s="16" t="n">
-        <v>2569394</v>
+        <v>2574327</v>
       </c>
       <c r="AB122" s="16" t="n">
-        <v>2574327</v>
+        <v>2725205</v>
       </c>
       <c r="AC122" s="16" t="n">
-        <v>2725205</v>
+        <v>2699486</v>
       </c>
       <c r="AD122" s="16" t="n">
-        <v>2699486</v>
+        <v>2843764</v>
       </c>
       <c r="AE122" s="16" t="n">
-        <v>2843764</v>
+        <v>3744358</v>
       </c>
       <c r="AF122" s="16" t="n">
-        <v>3744358</v>
+        <v>3831716</v>
       </c>
       <c r="AG122" s="16" t="n">
-        <v>3831716</v>
+        <v>4735872</v>
       </c>
       <c r="AH122" s="16" t="n">
-        <v>4735872</v>
+        <v>5763276</v>
       </c>
       <c r="AI122" s="16" t="n">
-        <v>5763276</v>
+        <v>5864580</v>
       </c>
       <c r="AJ122" s="16" t="n">
-        <v>5864580</v>
+        <v>4596331</v>
       </c>
       <c r="AK122" s="16" t="n">
-        <v>4596331</v>
-      </c>
-      <c r="AL122" s="16" t="n">
         <v>4395661</v>
       </c>
-      <c r="AM122" s="16" t="s">
-        <v>57</v>
+      <c r="AL122" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM122" s="16" t="n">
+        <v>4193566</v>
       </c>
       <c r="AN122" s="16" t="n">
-        <v>4193566</v>
+        <v>4669373</v>
       </c>
       <c r="AO122" s="16" t="n">
-        <v>4669373</v>
-      </c>
-      <c r="AP122" s="16" t="n">
         <v>4950688</v>
+      </c>
+      <c r="AP122" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AQ122" s="16" t="s">
         <v>57</v>
@@ -19103,11 +19103,11 @@
       <c r="H123" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I123" s="13" t="s">
-        <v>57</v>
+      <c r="I123" s="13" t="n">
+        <v>825444</v>
       </c>
       <c r="J123" s="13" t="n">
-        <v>825444</v>
+        <v>0</v>
       </c>
       <c r="K123" s="13" t="n">
         <v>0</v>
@@ -19130,8 +19130,8 @@
       <c r="Q123" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="R123" s="13" t="n">
-        <v>0</v>
+      <c r="R123" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="S123" s="13" t="s">
         <v>57</v>
@@ -19361,44 +19361,44 @@
       <c r="AO124" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP124" s="16" t="s">
-        <v>57</v>
+      <c r="AP124" s="16" t="n">
+        <v>4902755</v>
       </c>
       <c r="AQ124" s="16" t="n">
-        <v>4902755</v>
+        <v>5139604</v>
       </c>
       <c r="AR124" s="16" t="n">
-        <v>5139604</v>
+        <v>5988780</v>
       </c>
       <c r="AS124" s="16" t="n">
-        <v>5988780</v>
+        <v>5470834</v>
       </c>
       <c r="AT124" s="16" t="n">
-        <v>5470834</v>
+        <v>5350714</v>
       </c>
       <c r="AU124" s="16" t="n">
-        <v>5350714</v>
+        <v>5212402</v>
       </c>
       <c r="AV124" s="16" t="n">
-        <v>5212402</v>
+        <v>5224334</v>
       </c>
       <c r="AW124" s="16" t="n">
-        <v>5224334</v>
+        <v>5229959</v>
       </c>
       <c r="AX124" s="16" t="n">
-        <v>5229959</v>
+        <v>5256459</v>
       </c>
       <c r="AY124" s="16" t="n">
-        <v>5256459</v>
+        <v>5297258</v>
       </c>
       <c r="AZ124" s="16" t="n">
-        <v>5297258</v>
+        <v>5134016</v>
       </c>
       <c r="BA124" s="16" t="n">
-        <v>5134016</v>
+        <v>5900868</v>
       </c>
       <c r="BB124" s="16" t="n">
-        <v>5900868</v>
+        <v>6151634</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19520,44 +19520,44 @@
       <c r="AO125" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP125" s="13" t="s">
-        <v>57</v>
+      <c r="AP125" s="13" t="n">
+        <v>5633979</v>
       </c>
       <c r="AQ125" s="13" t="n">
-        <v>5633979</v>
+        <v>5990470</v>
       </c>
       <c r="AR125" s="13" t="n">
-        <v>5990470</v>
+        <v>7077117</v>
       </c>
       <c r="AS125" s="13" t="n">
-        <v>7077117</v>
+        <v>7231962</v>
       </c>
       <c r="AT125" s="13" t="n">
-        <v>7231962</v>
+        <v>7066097</v>
       </c>
       <c r="AU125" s="13" t="n">
-        <v>7066097</v>
+        <v>6948675</v>
       </c>
       <c r="AV125" s="13" t="n">
-        <v>6948675</v>
+        <v>6901832</v>
       </c>
       <c r="AW125" s="13" t="n">
-        <v>6901832</v>
+        <v>6885495</v>
       </c>
       <c r="AX125" s="13" t="n">
-        <v>6885495</v>
+        <v>6524394</v>
       </c>
       <c r="AY125" s="13" t="n">
-        <v>6524394</v>
+        <v>6596584</v>
       </c>
       <c r="AZ125" s="13" t="n">
-        <v>6596584</v>
+        <v>6602202</v>
       </c>
       <c r="BA125" s="13" t="n">
-        <v>6602202</v>
+        <v>7505803</v>
       </c>
       <c r="BB125" s="13" t="n">
-        <v>7505803</v>
+        <v>8538963</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -19569,10 +19569,10 @@
       </c>
       <c r="D126" s="16"/>
       <c r="E126" s="16" t="n">
-        <v>1333333</v>
-      </c>
-      <c r="F126" s="16" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="F126" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G126" s="16" t="s">
         <v>57</v>
@@ -19728,10 +19728,10 @@
       </c>
       <c r="D127" s="13"/>
       <c r="E127" s="13" t="n">
-        <v>1519942</v>
-      </c>
-      <c r="F127" s="13" t="n">
         <v>1446929</v>
+      </c>
+      <c r="F127" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G127" s="13" t="s">
         <v>57</v>
@@ -19887,10 +19887,10 @@
       </c>
       <c r="D128" s="16"/>
       <c r="E128" s="16" t="n">
-        <v>1582450</v>
-      </c>
-      <c r="F128" s="16" t="n">
         <v>1556391</v>
+      </c>
+      <c r="F128" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="G128" s="16" t="s">
         <v>57</v>
@@ -20048,8 +20048,8 @@
       <c r="E129" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="F129" s="13" t="n">
-        <v>0</v>
+      <c r="F129" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="G129" s="13" t="s">
         <v>57</v>
@@ -20205,11 +20205,11 @@
       </c>
       <c r="D130" s="16"/>
       <c r="E130" s="16" t="n">
-        <v>1313861</v>
-      </c>
-      <c r="F130" s="16" t="n">
         <v>1316854</v>
       </c>
+      <c r="F130" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G130" s="16" t="s">
         <v>57</v>
       </c>
@@ -20315,21 +20315,21 @@
       <c r="AO130" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP130" s="16" t="s">
-        <v>57</v>
+      <c r="AP130" s="16" t="n">
+        <v>3458333</v>
       </c>
       <c r="AQ130" s="16" t="n">
-        <v>3458333</v>
+        <v>3448071</v>
       </c>
       <c r="AR130" s="16" t="n">
-        <v>3448071</v>
+        <v>3450440</v>
       </c>
       <c r="AS130" s="16" t="n">
-        <v>3450440</v>
-      </c>
-      <c r="AT130" s="16" t="n">
         <v>3438889</v>
       </c>
+      <c r="AT130" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="AU130" s="16" t="s">
         <v>57</v>
       </c>
@@ -20351,8 +20351,8 @@
       <c r="BA130" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="BB130" s="16" t="s">
-        <v>57</v>
+      <c r="BB130" s="16" t="n">
+        <v>8264924</v>
       </c>
     </row>
     <row r="131" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20364,11 +20364,11 @@
       </c>
       <c r="D131" s="13"/>
       <c r="E131" s="13" t="n">
-        <v>1205188</v>
-      </c>
-      <c r="F131" s="13" t="n">
         <v>1119264</v>
       </c>
+      <c r="F131" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="G131" s="13" t="s">
         <v>57</v>
       </c>
@@ -20474,44 +20474,44 @@
       <c r="AO131" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP131" s="13" t="s">
-        <v>57</v>
+      <c r="AP131" s="13" t="n">
+        <v>4563061</v>
       </c>
       <c r="AQ131" s="13" t="n">
-        <v>4563061</v>
+        <v>4880716</v>
       </c>
       <c r="AR131" s="13" t="n">
-        <v>4880716</v>
+        <v>5302171</v>
       </c>
       <c r="AS131" s="13" t="n">
-        <v>5302171</v>
+        <v>5515459</v>
       </c>
       <c r="AT131" s="13" t="n">
-        <v>5515459</v>
+        <v>5490940</v>
       </c>
       <c r="AU131" s="13" t="n">
-        <v>5490940</v>
+        <v>5422120</v>
       </c>
       <c r="AV131" s="13" t="n">
-        <v>5422120</v>
+        <v>5192441</v>
       </c>
       <c r="AW131" s="13" t="n">
-        <v>5192441</v>
+        <v>5042504</v>
       </c>
       <c r="AX131" s="13" t="n">
-        <v>5042504</v>
+        <v>5001081</v>
       </c>
       <c r="AY131" s="13" t="n">
-        <v>5001081</v>
+        <v>4998479</v>
       </c>
       <c r="AZ131" s="13" t="n">
-        <v>4998479</v>
+        <v>4824539</v>
       </c>
       <c r="BA131" s="13" t="n">
-        <v>4824539</v>
+        <v>5302245</v>
       </c>
       <c r="BB131" s="13" t="n">
-        <v>5302245</v>
+        <v>5657019</v>
       </c>
     </row>
     <row r="132" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20523,11 +20523,11 @@
       </c>
       <c r="D132" s="16"/>
       <c r="E132" s="16" t="n">
-        <v>1330313</v>
-      </c>
-      <c r="F132" s="16" t="n">
         <v>1372082</v>
       </c>
+      <c r="F132" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="G132" s="16" t="s">
         <v>57</v>
       </c>
@@ -20633,44 +20633,44 @@
       <c r="AO132" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP132" s="16" t="s">
-        <v>57</v>
+      <c r="AP132" s="16" t="n">
+        <v>5588592</v>
       </c>
       <c r="AQ132" s="16" t="n">
-        <v>5588592</v>
+        <v>5610499</v>
       </c>
       <c r="AR132" s="16" t="n">
-        <v>5610499</v>
+        <v>6267601</v>
       </c>
       <c r="AS132" s="16" t="n">
-        <v>6267601</v>
+        <v>7335159</v>
       </c>
       <c r="AT132" s="16" t="n">
-        <v>7335159</v>
+        <v>7297852</v>
       </c>
       <c r="AU132" s="16" t="n">
-        <v>7297852</v>
+        <v>6835305</v>
       </c>
       <c r="AV132" s="16" t="n">
-        <v>6835305</v>
+        <v>6484983</v>
       </c>
       <c r="AW132" s="16" t="n">
-        <v>6484983</v>
+        <v>6139074</v>
       </c>
       <c r="AX132" s="16" t="n">
-        <v>6139074</v>
+        <v>5999840</v>
       </c>
       <c r="AY132" s="16" t="n">
-        <v>5999840</v>
+        <v>5884394</v>
       </c>
       <c r="AZ132" s="16" t="n">
-        <v>5884394</v>
+        <v>5896364</v>
       </c>
       <c r="BA132" s="16" t="n">
-        <v>5896364</v>
+        <v>6422845</v>
       </c>
       <c r="BB132" s="16" t="n">
-        <v>6422845</v>
+        <v>7293228</v>
       </c>
     </row>
     <row r="133" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20792,44 +20792,44 @@
       <c r="AO133" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="AP133" s="13" t="s">
-        <v>57</v>
+      <c r="AP133" s="13" t="n">
+        <v>4974664</v>
       </c>
       <c r="AQ133" s="13" t="n">
-        <v>4974664</v>
+        <v>5067117</v>
       </c>
       <c r="AR133" s="13" t="n">
-        <v>5067117</v>
+        <v>6307803</v>
       </c>
       <c r="AS133" s="13" t="n">
-        <v>6307803</v>
+        <v>6782315</v>
       </c>
       <c r="AT133" s="13" t="n">
-        <v>6782315</v>
+        <v>6475533</v>
       </c>
       <c r="AU133" s="13" t="n">
-        <v>6475533</v>
+        <v>6303392</v>
       </c>
       <c r="AV133" s="13" t="n">
-        <v>6303392</v>
+        <v>5867495</v>
       </c>
       <c r="AW133" s="13" t="n">
-        <v>5867495</v>
+        <v>5771709</v>
       </c>
       <c r="AX133" s="13" t="n">
-        <v>5771709</v>
+        <v>5819691</v>
       </c>
       <c r="AY133" s="13" t="n">
-        <v>5819691</v>
+        <v>5850190</v>
       </c>
       <c r="AZ133" s="13" t="n">
-        <v>5850190</v>
+        <v>5927175</v>
       </c>
       <c r="BA133" s="13" t="n">
-        <v>5927175</v>
+        <v>6606902</v>
       </c>
       <c r="BB133" s="13" t="n">
-        <v>6606902</v>
+        <v>7014642</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -20951,17 +20951,17 @@
       <c r="AO134" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="AP134" s="16" t="s">
-        <v>57</v>
+      <c r="AP134" s="16" t="n">
+        <v>4982977</v>
       </c>
       <c r="AQ134" s="16" t="n">
-        <v>4982977</v>
+        <v>5396092</v>
       </c>
       <c r="AR134" s="16" t="n">
-        <v>5396092</v>
-      </c>
-      <c r="AS134" s="16" t="n">
         <v>4741935</v>
+      </c>
+      <c r="AS134" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="AT134" s="16" t="s">
         <v>57</v>

--- a/database/industries/siman/saroum/product/monthly.xlsx
+++ b/database/industries/siman/saroum/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\saroum\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\siman\saroum\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521177FB-243E-43B0-87B5-12E079B8CFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9811BD6B-9D62-4B31-AE69-2959FC192989}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
